--- a/data/eu_bladder_sites_from_ctgov.xlsx
+++ b/data/eu_bladder_sites_from_ctgov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:K384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,26 @@
           <t>Location Status</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Officials</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Central Contacts</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Site Contacts</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Site Investigator(s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -498,6 +518,14 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -527,6 +555,14 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +596,14 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -589,6 +633,14 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -622,6 +674,14 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -655,6 +715,14 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +756,10 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -717,6 +789,14 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -750,6 +830,14 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -783,6 +871,14 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Clare Fowler, Prof. (University College, London)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +912,14 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -845,6 +949,14 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -874,6 +986,14 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -903,6 +1023,14 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -936,6 +1064,14 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -965,6 +1101,14 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -998,6 +1142,14 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1031,6 +1183,14 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1060,6 +1220,14 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1093,6 +1261,14 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Clare Fowler, Prof. (University College, London)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1126,6 +1302,14 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1159,6 +1343,14 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Dirk JM De Ridder, MD, PhD (University Hospitals KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1188,6 +1380,14 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1217,6 +1417,14 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1250,6 +1458,14 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1283,6 +1499,14 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Dirk De Ridder, Prof. (National MS Center Belgium &amp; University Hospitals KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1312,6 +1536,14 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1341,6 +1573,14 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1374,6 +1614,14 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1403,6 +1651,14 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1436,6 +1692,14 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1469,6 +1733,14 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1498,6 +1770,14 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1531,6 +1811,14 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1560,6 +1848,14 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1597,6 +1893,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Radek Paus Sýkora, MD (University Hospital Ostrava); STUDY_DIRECTOR: Jan Krhut, prof.,MD,PhD (University Hospital Ostrava)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>CONTACT: Jiří Hynčica; PRINCIPAL_INVESTIGATOR: Radek Paus Sýkora, MD; SUB_INVESTIGATOR: Jan Krhut, prof.,MD,PhD; SUB_INVESTIGATOR: Tomáš Rychlý, MD</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1634,6 +1942,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jan Krhut, prof.,MD, PhD (University Hospital Ostrava)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CONTACT: Jiří Hynčica</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>CONTACT: Jiří Hynčica; PRINCIPAL_INVESTIGATOR: Jan Krhut, prof.,MD,PhD; SUB_INVESTIGATOR: Barbora Skugarevská, MD</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1663,6 +1987,14 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1696,6 +2028,14 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1729,6 +2069,14 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1762,6 +2110,14 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1795,6 +2151,14 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1828,6 +2192,14 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1861,6 +2233,14 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1894,6 +2274,14 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1927,6 +2315,14 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1960,6 +2356,14 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Bettina Jorgensen, MD (Department of Urology, Aarhus University Hospital)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1993,6 +2397,14 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Nazarena Mazarro (Vice president Medical Affairs)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2026,6 +2438,14 @@
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Sigrid G Tibaek, MSc., Pt (Copenhagen University Hospital, Glostrup)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2059,6 +2479,10 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2092,6 +2516,14 @@
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Marlene Elmelund, MD (Clinic for Spinal Cord Injuries, Glostrup University Hospital/Rigshospitalet and Department of Gynaecology and Obstetrics, Herlev University Hospital); STUDY_DIRECTOR: Fin Biering-Sørensen, MD DMSc Prof (Clinic for Spinal Cord Injuries, Glostrup University Hospital/Rigshospitalet); STUDY_DIRECTOR: Niels Klarskov, MD Lecturer (Department of Gynaecology and Obstetrics, Herlev University Hospital)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2129,6 +2561,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Hanne Kobberø (Odense University Hospital); STUDY_DIRECTOR: Mads H Poulsen (Odense University Hospital); STUDY_CHAIR: Morten Blaabjerg (Odense University Hospital); STUDY_CHAIR: Helle H Nielsen (Odense University Hospital); STUDY_CHAIR: Mikkel Fode (Herlev/Gentofte)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CONTACT: Hanne Kobberø; CONTACT: Mads H Poulsen</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>CONTACT: Hanne Kobberø; CONTACT: Mads H Poulsen; PRINCIPAL_INVESTIGATOR: Hanne Kobberø</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2162,6 +2610,14 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Sarah Bube, MD (Zeland Region)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2195,6 +2651,14 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2228,6 +2692,14 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2261,6 +2733,14 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2294,6 +2774,14 @@
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2327,6 +2815,14 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2360,6 +2856,14 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jean-Rodolphe Vignes, Doctor (University Hospital, Bordeaux); STUDY_CHAIR: Geneviève Chêne, Professor (University Hospital, Bordeaux)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2393,6 +2897,14 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -2422,6 +2934,14 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2455,6 +2975,14 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2488,6 +3016,14 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2521,6 +3057,14 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Christelle Destinval (University Hospital, Clermont-Ferrand)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2554,6 +3098,10 @@
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2587,6 +3135,10 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2620,6 +3172,10 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2653,6 +3209,14 @@
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2690,6 +3254,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CONTACT: Lionel PIROTH</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>CONTACT: Lionel PIROTH</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -2719,6 +3295,14 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -2748,6 +3332,14 @@
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -2777,6 +3369,14 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2810,6 +3410,14 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2843,6 +3451,14 @@
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2876,6 +3492,14 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2909,6 +3533,14 @@
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2942,6 +3574,14 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2975,6 +3615,14 @@
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3012,6 +3660,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Xavier Biardeau, MD (University Hospital, Lille)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CONTACT: Xavier Biardeau, MD</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTACT: </t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3045,6 +3709,14 @@
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3078,6 +3750,14 @@
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3111,6 +3791,14 @@
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3144,6 +3832,14 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3177,6 +3873,14 @@
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3210,6 +3914,14 @@
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -3239,6 +3951,14 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3272,6 +3992,22 @@
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Urielle DESALBRES (ASSISTANTE PUBLIQUE HOPITAUX DE MARSEILLE)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CONTACT: Alice FAURE; CONTACT: Claire MORANDO</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>CONTACT: Alice FAURE; CONTACT: Claire MORANDO</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3305,6 +4041,14 @@
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3338,6 +4082,14 @@
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3371,6 +4123,14 @@
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3404,6 +4164,10 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3437,6 +4201,14 @@
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3470,6 +4242,14 @@
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3503,6 +4283,14 @@
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3540,6 +4328,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Stéphane DROUPY (CHU de Nimes)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CONTACT: Stéphane DROUPY</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>CONTACT: Anissa Megzari; SUB_INVESTIGATOR: Eric Thouvenot; SUB_INVESTIGATOR: Giovanni Castelnovo; PRINCIPAL_INVESTIGATOR: Stéphane Droupy; SUB_INVESTIGATOR: Kamel Ben Naoum</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3577,6 +4381,14 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>CONTACT: HILAL AL RASHDI, Dr.; CONTACT: STEPHANE DROUPY, Pr.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3610,6 +4422,14 @@
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -3639,6 +4459,14 @@
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3672,6 +4500,14 @@
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3705,6 +4541,14 @@
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Gérard Amarenco, PHD (Sorbonne Université, GRC 001, GREEN Groupe de Recherche en Neuro-Urologie, AP-HP, Hôpital Tenon, F-75020, Paris, France)</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3738,6 +4582,14 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3771,6 +4623,14 @@
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3804,6 +4664,14 @@
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3837,6 +4705,14 @@
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3870,6 +4746,14 @@
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3907,6 +4791,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>CONTACT: Claire Hentzen, MD; CONTACT: Gérard AMARENCO, MD, PhD</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>CONTACT: Claire HENTZEN, MD; PRINCIPAL_INVESTIGATOR: Claire Hentzen, MD</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3940,6 +4836,14 @@
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3973,6 +4877,14 @@
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4006,6 +4918,14 @@
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4043,6 +4963,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CONTACT: Isabelle Sauret, MBS</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>CONTACT: Mariana Mirabel, MD, PhD</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4076,6 +5008,10 @@
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4113,6 +5049,14 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>CONTACT: Bertrand M PICHON, MD; CONTACT: Helene Ms Robert, MD; SUB_INVESTIGATOR: Matthieu M GRASLAND, MD; PRINCIPAL_INVESTIGATOR: Bertrand M PICHON, MD</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4146,6 +5090,14 @@
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4179,6 +5131,14 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Gérard Amarenco, PhD (GREEN GRC-01, Neuro-urology, hôpital Tenon)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4212,6 +5172,14 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Gerard AMARENCO, PhD (GREEN GRC-01, Neuro-urology, hôpital Tenon)</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4245,6 +5213,14 @@
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Gérard Amarenco, PhD (Sorbonne Université, GRC 001, GREEN, AP-HP, Hôpital Tenon, Paris, France)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4278,6 +5254,14 @@
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Gérard Amarenco, PUPH (Sorbonne Université, GRC 001, GREEN, AP-HP, Hôpital Tenon, Paris, France)</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4311,6 +5295,14 @@
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Gérard Amarenco, PhD (Sorbonne Université, GRC 001, GREEN, AP-HP, Hôpital Tenon, Paris, France)</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4344,6 +5336,14 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4377,6 +5377,14 @@
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4410,6 +5418,14 @@
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -4439,6 +5455,14 @@
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4472,6 +5496,14 @@
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4505,6 +5537,14 @@
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4538,6 +5578,14 @@
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4571,6 +5619,14 @@
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4604,6 +5660,14 @@
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4637,6 +5701,14 @@
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4670,6 +5742,10 @@
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4703,6 +5779,14 @@
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4736,6 +5820,14 @@
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4769,6 +5861,14 @@
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4802,6 +5902,14 @@
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -4831,6 +5939,14 @@
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -4860,6 +5976,14 @@
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4893,6 +6017,14 @@
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4926,6 +6058,14 @@
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4959,6 +6099,14 @@
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4992,6 +6140,14 @@
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5025,6 +6181,14 @@
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5058,6 +6222,14 @@
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Jean-Michel Reymann, PhD (CHU Rennes); PRINCIPAL_INVESTIGATOR: Philippe Gallien, MD (CHU Rennes)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5091,6 +6263,14 @@
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5124,6 +6304,14 @@
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>CONTACT: Nicolas BERTE, Dr; CONTACT: Jean-Louis LEMELLE, Pr</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5157,6 +6345,14 @@
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Christelle Destinval, MD (University of Lorraine)</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5190,6 +6386,14 @@
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Christelle Destinval, MD (University of Lorraine)</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -5219,6 +6423,14 @@
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5252,6 +6464,14 @@
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Jannik Lockl, Dr. (inContAlert GmbH)</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -5281,6 +6501,14 @@
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -5310,6 +6538,14 @@
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5343,6 +6579,14 @@
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Clare Fowler, Prof. (University College, London)</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5376,6 +6620,14 @@
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -5405,6 +6657,14 @@
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -5434,6 +6694,14 @@
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -5463,6 +6731,14 @@
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -5492,6 +6768,14 @@
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -5521,6 +6805,14 @@
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -5550,6 +6842,14 @@
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -5579,6 +6879,14 @@
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -5608,6 +6916,14 @@
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5641,6 +6957,14 @@
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -5670,6 +6994,14 @@
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -5699,6 +7031,14 @@
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5732,6 +7072,14 @@
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -5761,6 +7109,14 @@
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -5790,6 +7146,14 @@
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5823,6 +7187,14 @@
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5856,6 +7228,14 @@
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Novartis Pharmaceuticals (Novartis Pharmaceuticals)</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -5885,6 +7265,14 @@
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -5914,6 +7302,14 @@
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5947,6 +7343,14 @@
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5980,6 +7384,14 @@
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -6009,6 +7421,14 @@
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -6038,6 +7458,14 @@
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -6067,6 +7495,14 @@
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6100,6 +7536,14 @@
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -6129,6 +7573,14 @@
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -6158,6 +7610,14 @@
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -6187,6 +7647,14 @@
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -6216,6 +7684,14 @@
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -6245,6 +7721,14 @@
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6278,6 +7762,14 @@
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Katie Robinson, PhD (University of Limerick)</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -6307,6 +7799,14 @@
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6340,6 +7840,14 @@
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6373,6 +7881,14 @@
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -6402,6 +7918,14 @@
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6435,6 +7959,10 @@
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6468,6 +7996,14 @@
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -6497,6 +8033,14 @@
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -6526,6 +8070,14 @@
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6559,6 +8111,14 @@
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6592,6 +8152,18 @@
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Giancarlo Comi, MD (IRCCS San Raffaele)</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>CONTACT: Giancarlo Comi, MD; CONTACT: Valentina Grazioli, PT</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6625,6 +8197,14 @@
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6658,6 +8238,14 @@
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -6687,6 +8275,14 @@
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6720,6 +8316,10 @@
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6753,6 +8353,14 @@
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -6782,6 +8390,14 @@
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6815,6 +8431,14 @@
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6848,6 +8472,22 @@
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Carmela Leone, MD (Multiple Sclerosis Center of ASP7 Ragusa); STUDY_DIRECTOR: Antonello Giordano, MD (Multiple Sclerosis Center of ASP7 Ragusa)</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>CONTACT: Carmela Leone, MD; CONTACT: Antonello Giordano, MD</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>CONTACT: Carmela Leone, MD; CONTACT: Angela Vicenzino, Nurse; PRINCIPAL_INVESTIGATOR: Carmela Leone, MD; SUB_INVESTIGATOR: Salvatore Maria Cavalli, MD; SUB_INVESTIGATOR: Giuseppe Zelante, MD; SUB_INVESTIGATOR: Francesco Savoca, MD; SUB_INVESTIGATOR: Angela Vicenzino, Nurse; SUB_INVESTIGATOR: Marta Biondo, Nurse</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6881,6 +8521,14 @@
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6914,6 +8562,14 @@
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -6943,6 +8599,14 @@
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -6972,6 +8636,14 @@
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7005,6 +8677,14 @@
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -7034,6 +8714,14 @@
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -7063,6 +8751,14 @@
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7096,6 +8792,14 @@
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -7125,6 +8829,14 @@
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7158,6 +8870,14 @@
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Novartis Pharmaceuticals (Novartis Pharmaceuticals)</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7191,6 +8911,14 @@
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7224,6 +8952,14 @@
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Clare Fowler, Prof. (University College, London)</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7257,6 +8993,14 @@
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7290,6 +9034,14 @@
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lars Frich, MD, PhD (University of Oslo); PRINCIPAL_INVESTIGATOR: Ole Jacob Nilsen, MD (University of Oslo); PRINCIPAL_INVESTIGATOR: Thomas Glott, MD (Sunnaas Rehabilitation Hospital, Norway)</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7323,6 +9075,14 @@
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lars Frich, MD, PhD (University of Oslo); PRINCIPAL_INVESTIGATOR: Ole Jacob Nilsen, MD (University of Oslo); PRINCIPAL_INVESTIGATOR: Thomas Glott, MD (Sunnaas Rehabilitation Hospital, Norway)</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7356,6 +9116,10 @@
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7389,6 +9153,14 @@
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7422,6 +9194,14 @@
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7455,6 +9235,10 @@
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7488,6 +9272,14 @@
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7521,6 +9313,14 @@
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -7550,6 +9350,14 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7587,6 +9395,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Przemysław Lisiński, MPhD (Clinic Rehabilitation, University of Medical Sciences in Poznań)</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>CONTACT: Ewa Chlebuś</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>CONTACT: Ewa Chlebuś, lek</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7620,6 +9444,14 @@
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -7649,6 +9481,14 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7682,6 +9522,14 @@
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Study Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7715,6 +9563,14 @@
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7748,6 +9604,14 @@
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -7777,6 +9641,14 @@
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7810,6 +9682,14 @@
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7843,6 +9723,14 @@
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7876,6 +9764,14 @@
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7909,6 +9805,14 @@
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -7938,6 +9842,14 @@
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -7967,6 +9879,14 @@
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -7996,6 +9916,14 @@
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8029,6 +9957,14 @@
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8062,6 +9998,14 @@
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8095,6 +10039,14 @@
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Francisco Cruz, M.D. (Hospital São João, Urologia, Alameda Prof. Hernâni Monteiro, 4200-319 Porto, Portugal)</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8128,6 +10080,14 @@
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8161,6 +10121,14 @@
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8194,6 +10162,14 @@
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8227,6 +10203,14 @@
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8260,6 +10244,14 @@
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -8289,6 +10281,14 @@
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -8318,6 +10318,14 @@
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -8347,6 +10355,14 @@
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8384,6 +10400,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Nataša Bizovičar, MD, PhD (University Rehabilitation Institute, Republic of Slovenia)</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>CONTACT: Helena Burger, MD, PhD; CONTACT: Nataša Bizovičar, MD, PhD</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>CONTACT: Helena Burger, MD, PhD; CONTACT: Nataša Bizovičar, MD, PhD</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8417,6 +10449,14 @@
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -8446,6 +10486,14 @@
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -8475,6 +10523,14 @@
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8508,6 +10564,14 @@
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ulrich Mehnert, MD (University of Zurich); PRINCIPAL_INVESTIGATOR: Martin Schubert, MD (Balgrist University Hospital)</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8541,6 +10605,14 @@
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8574,6 +10646,14 @@
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8607,6 +10687,14 @@
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -8636,6 +10724,14 @@
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8669,6 +10765,14 @@
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Laura Martin Losada (Hospital Guadarrama)</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -8698,6 +10802,14 @@
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8731,6 +10843,14 @@
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -8760,6 +10880,14 @@
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8793,6 +10921,14 @@
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -8822,6 +10958,14 @@
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -8851,6 +10995,14 @@
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -8880,6 +11032,14 @@
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Bayer Study Director (Bayer)</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8913,6 +11073,14 @@
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8950,6 +11118,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Marta Garcia (Instituto de Investigación y Politécnico La Fe)</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>CONTACT: Maria Cortell</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>CONTACT: Laura Segura</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8983,6 +11167,14 @@
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Denise Cuevas, BSc (Universidad Rey Juan Carlos)</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9016,6 +11208,14 @@
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lena Rutberg, MD (Sahlgrenska University Hospital)</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9049,6 +11249,14 @@
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lena Rutberg, MD (Sahlgrenska University Hospital)</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9082,6 +11290,14 @@
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lena Rutberg, MD (Sahlgrenska University Hospital)</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9115,6 +11331,14 @@
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lena Rutberg, MD (Sahlgrenska University Hospital)</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9148,6 +11372,10 @@
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9185,6 +11413,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Thomas M. Kessler, Prof. Dr. med. (University of Zurich); PRINCIPAL_INVESTIGATOR: Thomas M. Kessler, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Armin Curt, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Martin Brinkhof, Dr. (Swiss Paraplegic Research, Nottwil); PRINCIPAL_INVESTIGATOR: Jürgen Pannek, Prof. Dr. med. (Swiss Paraplegic Centre)</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M. Kessler, Prof. Dr. med.; CONTACT: Martina D. Liechti, Dr. sc. ETH</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>CONTACT: Sandra Möhr, pract. med.; CONTACT: Sandra Möhr, pract. med.</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9218,6 +11462,10 @@
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9251,6 +11499,10 @@
         </is>
       </c>
       <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9284,6 +11536,14 @@
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Fiona C Burkhard, MD (Insel Gruppe AG, University Hospital Bern); PRINCIPAL_INVESTIGATOR: Jürgen Pannek, MD (Swiss paraplegic center Nottwil)</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9317,6 +11577,10 @@
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9350,6 +11614,10 @@
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9383,6 +11651,14 @@
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Brigitte Schürch, Prof. (Centre Hospitalier Universitaire Vaudois)</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9420,6 +11696,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jocelyne Bloch, MD (Centre hospitalier universitaire vaudois (CHUV))</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>CONTACT: Jocelyne Bloch, MD</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>CONTACT: Jocelyne Bloch, Prof. Dr.</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9453,6 +11745,10 @@
         </is>
       </c>
       <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9486,6 +11782,14 @@
         </is>
       </c>
       <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Chiara Zecca, PD, MD (Ospedale Regionale di Lugano)</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9519,6 +11823,10 @@
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9552,6 +11860,14 @@
         </is>
       </c>
       <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ulrich Mehnert, MD (University of Zurich); PRINCIPAL_INVESTIGATOR: Martin Schubert, MD (Balgrist University Hospital)</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9589,6 +11905,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>CONTACT: Jörg Krebs, Dr. med. vet. / PhD; CONTACT: Jürgen Pannek, Prof. Dr. med.</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>CONTACT: Jürgen Pannek, Prof</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9622,6 +11950,14 @@
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jürgen Pannek, Prof. (Swiss Paraplegic Center, Nottwil, Switzerland)</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9655,6 +11991,10 @@
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9688,6 +12028,10 @@
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9721,6 +12065,14 @@
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jens Wöllner (Swiss Paraplegic Centre)</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9754,6 +12106,14 @@
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jens Wöllner (Schweizer Paraplegiker-Zentrum Nottwil)</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9787,6 +12147,14 @@
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jens Wöllner, Dr. (Senior Consultant Neuro-Urology)</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9824,6 +12192,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Thomas M. Kessler, Prof. Dr. med. (University of Zurich); PRINCIPAL_INVESTIGATOR: Thomas M. Kessler, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Armin Curt, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Martin Brinkhof, Dr. (Swiss Paraplegic Research, Nottwil); PRINCIPAL_INVESTIGATOR: Jürgen Pannek, Prof. Dr. med. (Swiss Paraplegic Centre)</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M. Kessler, Prof. Dr. med.; CONTACT: Martina D. Liechti, Dr. sc. ETH</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>CONTACT: Jürgen Pannek, Prof. Dr. med.; CONTACT: Jürgen Pannek, Prof. Dr. med.</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9857,6 +12241,10 @@
         </is>
       </c>
       <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9890,6 +12278,14 @@
         </is>
       </c>
       <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Juergen Pannek, MD (Swiss Paraplegic Centre)</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9923,6 +12319,10 @@
         </is>
       </c>
       <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9960,6 +12360,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Thomas M. Kessler, Prof. Dr. med. (University of Zurich); PRINCIPAL_INVESTIGATOR: Thomas M. Kessler, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Armin Curt, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Martin Brinkhof, Dr. (Swiss Paraplegic Research, Nottwil); PRINCIPAL_INVESTIGATOR: Jürgen Pannek, Prof. Dr. med. (Swiss Paraplegic Centre)</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M. Kessler, Prof. Dr. med.; CONTACT: Martina D. Liechti, Dr. sc. ETH</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>CONTACT: Xavier Jordan, Dr. med.; CONTACT: Xavier Jordan, Dr. med.</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9993,6 +12409,10 @@
         </is>
       </c>
       <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10026,6 +12446,10 @@
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10059,6 +12483,14 @@
         </is>
       </c>
       <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ulrich Mehnert, MD (University of Zurich); PRINCIPAL_INVESTIGATOR: Martin Schubert, MD (Balgrist University Hospital)</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10096,6 +12528,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Patrick Freund, Prof. Dr. med. Dr. rer. nat. (University of Zurich)</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>CONTACT: Gergely David, Dr.; CONTACT: Christian Kuendig, MSc</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>CONTACT: Gergely David, Dr.; CONTACT: Christian Kuendig, MSc</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10129,6 +12577,10 @@
         </is>
       </c>
       <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10162,6 +12614,10 @@
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10199,6 +12655,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Thomas M. Kessler, Prof. Dr. med. (University of Zurich); PRINCIPAL_INVESTIGATOR: Thomas M. Kessler, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Armin Curt, Prof. Dr. med. (Balgrist University Hospital); PRINCIPAL_INVESTIGATOR: Martin Brinkhof, Dr. (Swiss Paraplegic Research, Nottwil); PRINCIPAL_INVESTIGATOR: Jürgen Pannek, Prof. Dr. med. (Swiss Paraplegic Centre)</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M. Kessler, Prof. Dr. med.; CONTACT: Martina D. Liechti, Dr. sc. ETH</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M Kessler, Prof. Dr. med.; CONTACT: Thomas M Kessler, Prof. Dr. med.</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -10232,6 +12704,10 @@
         </is>
       </c>
       <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10265,6 +12741,14 @@
         </is>
       </c>
       <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ulrich Mehnert, MD (Neuro-Urology, Spinal Cord Injury Center &amp; Research, University of Zurich, Balgrist University Hospital, Forchstrasse 340, 8008 Zurich, Switzerland); PRINCIPAL_INVESTIGATOR: Thomas M Kessler, MD (Neuro-Urology, Spinal Cord Injury Center &amp; Research, University of Zurich, Balgrist University Hospital, Forchstrasse 340, 8008 Zurich, Switzerland); PRINCIPAL_INVESTIGATOR: Spyros Kollias, MD (Institute of Neuroradiology, University Hospital Zurich, Sternwartstrasse 6, 8091 Zurich, Switzerland)</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -10298,6 +12782,14 @@
         </is>
       </c>
       <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Novartis Pharmaceuticals (Novartis Pharmaceuticals)</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -10331,6 +12823,14 @@
         </is>
       </c>
       <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ulrich Mehnert, Dr. (Neuro-Urology, Spinal Cord Injury Center &amp; Research, University of Zürich, Balgrist University Hospital)</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10368,6 +12868,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Thomas M Kessler (Universitätsklinik Balgrist)</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M Kessler, MD</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>CONTACT: Thomas M Kessler, MD</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10401,6 +12917,10 @@
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10434,6 +12954,14 @@
         </is>
       </c>
       <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jens Wöllner, Dr. med. (Balgrist University Hospital)</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10467,6 +12995,10 @@
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10500,6 +13032,10 @@
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10533,6 +13069,14 @@
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ulrich Mehnert, MD (Neuro-Urology, Spinal Cord Injury Center &amp; Research, University of Zurich, Balgrist University Hospital, Forchstrasse 340, 8008 Zurich, Switzerland); PRINCIPAL_INVESTIGATOR: Thomas M Kessler, MD (Neuro-Urology, Spinal Cord Injury Center &amp; Research, University of Zurich, Balgrist University Hospital, Forchstrasse 340, 8008 Zurich, Switzerland); PRINCIPAL_INVESTIGATOR: Spyros Kollias, MD (Institute of Neuroradiology, University Hospital Zurich, Sternwartstrasse 6, 8091 Zurich, Switzerland)</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10570,6 +13114,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>CONTACT: Ayşenur Beysel, MD; CONTACT: Hilal Yeşil, MD</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>CONTACT: Ayşenur Beysel, MD; CONTACT: Hilal Yeşil, MD</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10603,6 +13159,10 @@
         </is>
       </c>
       <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -10632,6 +13192,14 @@
         </is>
       </c>
       <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10665,6 +13233,14 @@
         </is>
       </c>
       <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: NURCAN ÇALIŞKAN, Prof. Dr (Gazi University); PRINCIPAL_INVESTIGATOR: BİLGE YILMAZ, Prof. Dr. (SBÜ GAZİLER FİZİK TEDAVİ VE REHABİLİTASYON EĞİTİM VE ARAŞTIRMA HASTANESİ); STUDY_CHAIR: Nilgün Aras, Phd student (SBÜ GAZİLER FİZİK TEDAVİ VE REHABİLİTASYON EĞİTİM VE ARAŞTIRMA HASTANESİ)</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10698,6 +13274,22 @@
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Seyda Toprak Celenay (Ankara Yildirim Beyazıt University)</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>CONTACT: Seyda Toprak Celenay</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>CONTACT: Seyda Toprak Celenay</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10731,6 +13323,14 @@
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10764,6 +13364,14 @@
         </is>
       </c>
       <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Umay Ekinci, MD (University of Health Sciences, Department of PM&amp;R)</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10797,6 +13405,14 @@
         </is>
       </c>
       <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10830,6 +13446,14 @@
         </is>
       </c>
       <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10863,6 +13487,18 @@
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Necmettin Yıldız, Prof. (Pamukkale University)</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>CONTACT: Emre Bezmez, M.D.</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10900,6 +13536,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>CONTACT: Tuba Maden</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>CONTACT: Tuba Maden</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10933,6 +13581,14 @@
         </is>
       </c>
       <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Pinar Yasar (Suleyman Demirel University)</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10970,6 +13626,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Sibel CAGLAR (Bakirkoy Dr. Sadi Konuk Research and Training Hospital); STUDY_CHAIR: Arda can Kasap (Bakirkoy Dr. Sadi Konuk Research and Training Hospital)</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>CONTACT: Sibel CAGLAR; CONTACT: Arda Can KASAP</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>CONTACT: Sibel CAGLAR; CONTACT: Arda Can KASAP</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -11003,6 +13675,14 @@
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -11036,6 +13716,14 @@
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Pınar Atak Çakır</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -11069,6 +13757,14 @@
         </is>
       </c>
       <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>STUDY_CHAIR: Kadriye Önes, Prof (Istanbul Physical Medicine Rehabilitation Training and Research Hospital)</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -11106,6 +13802,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ersin Köseoğlu (Koç University)</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>CONTACT: Tufan Tarcan; CONTACT: Ersin Köseoğlu</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>CONTACT: Hakan Orer</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -11139,6 +13851,14 @@
         </is>
       </c>
       <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -11176,6 +13896,18 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>CONTACT: Büşra Aydın Erkılıç, MSc</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>CONTACT: Büşra aydın erkılıç</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -11209,6 +13941,10 @@
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -11242,6 +13978,14 @@
         </is>
       </c>
       <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -11275,6 +14019,14 @@
         </is>
       </c>
       <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -11308,6 +14060,10 @@
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -11341,6 +14097,14 @@
         </is>
       </c>
       <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -11374,6 +14138,14 @@
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: gözde tekin, Msc (Abant Izzet Baysal University)</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -11407,6 +14179,10 @@
         </is>
       </c>
       <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -11440,6 +14216,14 @@
         </is>
       </c>
       <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -11473,6 +14257,14 @@
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>CONTACT: Nurgül KAPLAN, Lecturer; CONTACT: Mehtap TAN, Professor Doctor</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -11506,6 +14298,10 @@
         </is>
       </c>
       <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -11539,6 +14335,14 @@
         </is>
       </c>
       <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Betül Ünal, PT (Bahçeşehir University, Graduate Education Institute, Physical Therapy and Rehabilitation); STUDY_DIRECTOR: Pelin Pişirici, PT, PHD (Bahçeşehir University, Health Sciences Faculty, Physiotherapy and Rehabilitation Department); STUDY_CHAIR: Halil Tuğtepe, MD, Prof. (Private Tuğtepe Pediatric Urology and Surgery Clinic); STUDY_CHAIR: Aygül Köseoğlu, PT, Msc (Private Tuğtepe Pediatric Urology and Surgery Clinic)</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -11572,6 +14376,14 @@
         </is>
       </c>
       <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -11601,6 +14413,14 @@
         </is>
       </c>
       <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -11634,6 +14454,14 @@
         </is>
       </c>
       <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -11663,6 +14491,14 @@
         </is>
       </c>
       <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -11696,6 +14532,14 @@
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -11729,6 +14573,14 @@
         </is>
       </c>
       <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Maurizio Belci, DMS MSc MRCS FRCP (Stoke Mandeville Hospital)</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -11762,6 +14614,14 @@
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Joanne Booth (Glasgow Caledonian University)</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -11795,6 +14655,14 @@
         </is>
       </c>
       <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -11828,6 +14696,14 @@
         </is>
       </c>
       <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11861,6 +14737,14 @@
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -11890,6 +14774,14 @@
         </is>
       </c>
       <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -11923,6 +14815,14 @@
         </is>
       </c>
       <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -11956,6 +14856,14 @@
         </is>
       </c>
       <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Ingrid Hoeritzauer (University of Edinburgh)</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11989,6 +14897,14 @@
         </is>
       </c>
       <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Joanne Booth (Glasgow Caledonian University)</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -12018,6 +14934,14 @@
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -12047,6 +14971,14 @@
         </is>
       </c>
       <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -12080,6 +15012,14 @@
         </is>
       </c>
       <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -12113,6 +15053,14 @@
         </is>
       </c>
       <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -12146,6 +15094,14 @@
         </is>
       </c>
       <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Michele Spinelli, MD (Ospedale Niguarda Ca' Granda, Milan, Italy); PRINCIPAL_INVESTIGATOR: Karel Everaert, MD (University Ghent); PRINCIPAL_INVESTIGATOR: Philip Van Kerrebroeck, MD (Academisch Ziekenhuis, Maastricht, The Netherlands); PRINCIPAL_INVESTIGATOR: Emmanuel Chartier-Kastler, MD (Hôpital de la Pitié Salpétrière, Paris, France); PRINCIPAL_INVESTIGATOR: Arndt Van Ophoven, MD (Marienhospital Herne Klinikum der Ruhr-Universität, Herne, Germany); PRINCIPAL_INVESTIGATOR: Karl Sievert, MD (Klinik für Urologie Oberarzt-Sekretariat, Tübingen, Germany); PRINCIPAL_INVESTIGATOR: Suzy Elneil, MD (National Hospital for Neurology and Neurosurgery, London, UK)</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -12179,6 +15135,14 @@
         </is>
       </c>
       <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Jalesh Panicker, FRCP (National Hospital for Neurology and Neurosurgery)</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -12212,6 +15176,14 @@
         </is>
       </c>
       <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -12245,6 +15217,14 @@
         </is>
       </c>
       <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: James Malone-Lee, MD (University College, London)</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -12278,6 +15258,14 @@
         </is>
       </c>
       <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Clare Fowler, Prof. (University College, London)</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -12311,6 +15299,14 @@
         </is>
       </c>
       <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -12340,6 +15336,14 @@
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Department of (Neuro) Urology (Universitaire Ziekenhuizen KU Leuven)</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -12373,6 +15377,14 @@
         </is>
       </c>
       <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Robert Pickard, MD (Newcastle University)</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -12406,6 +15418,14 @@
         </is>
       </c>
       <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -12439,6 +15459,14 @@
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Maurizio Belci, DMS MSc MRCS FRCP (Stoke Mandeville Hospital)</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -12476,6 +15504,14 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>CONTACT: Alexander L Green, PhD; CONTACT: Alex Fung, MB BS</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr"/>
@@ -12505,6 +15541,14 @@
         </is>
       </c>
       <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Medical Director (Allergan)</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -12538,6 +15582,14 @@
         </is>
       </c>
       <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -12571,6 +15623,14 @@
         </is>
       </c>
       <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -12604,6 +15664,14 @@
         </is>
       </c>
       <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -12637,6 +15705,14 @@
         </is>
       </c>
       <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Lynsey Duffell, PhD (University College, London)</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -12670,6 +15746,14 @@
         </is>
       </c>
       <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Frank Lee (Royal National Orthopaedic Hospital)</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -12707,6 +15791,22 @@
           <t>RECRUITING</t>
         </is>
       </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: David Baxter, MD (National Health Service, United Kingdom)</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>CONTACT: Lynsey Duffell, PhD; CONTACT: Hannah Houliston, PhD</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>CONTACT: Hannah Houliston, PhD</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -12740,6 +15840,14 @@
         </is>
       </c>
       <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -12773,6 +15881,14 @@
         </is>
       </c>
       <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -12806,6 +15922,14 @@
         </is>
       </c>
       <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -12839,6 +15963,14 @@
         </is>
       </c>
       <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>PRINCIPAL_INVESTIGATOR: Chris Harding (Site Investigator - Newcastle)</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -12872,6 +16004,14 @@
         </is>
       </c>
       <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>STUDY_DIRECTOR: Ipsen Medical Director (Ipsen)</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/eu_bladder_sites_from_ctgov.xlsx
+++ b/data/eu_bladder_sites_from_ctgov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K384"/>
+  <dimension ref="A1:N384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,21 @@
           <t>Site Investigator(s)</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Primary Outcome(s)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary Outcome(s)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Other Outcome(s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -526,6 +541,17 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -563,6 +589,17 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -604,6 +641,17 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -641,6 +689,17 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -682,6 +741,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,6 +793,13 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Anticholinergic Drug Use [Baseline, 9 Months] — Anticholinergic drug use was collected the 9 months before the baseline Botox® treatment and the 9 months following the baseline Botox® treatment. Total anticholinergic drug use in the 9 months following the baseline Botox® treatment is noted.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -760,6 +837,31 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -797,6 +899,17 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +951,13 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Anticholinergic Drug Use [Baseline, 9 Months] — Anticholinergic drug use was collected the 9 months before the baseline Botox® treatment and the 9 months following the baseline Botox® treatment. Total anticholinergic drug use in the 9 months following the baseline Botox® treatment is noted.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -879,6 +999,13 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Percent Change From Baseline in Frequency of Micturition Per Day at 8 Weeks. [Baseline and 8 weeks after randomization.] — Number of micturitions per day was assessed using a patient diary during three days at baseline and after 8 weeks of treatment. The relative change in mean number of micturitions was compared between the groups. The change was calculated as percent change = ((measure at 8 weeks - measure at baseline)/measure at baseline)\*100%.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -920,6 +1047,17 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -957,6 +1095,17 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -994,6 +1143,17 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1031,6 +1191,17 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1072,6 +1243,13 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1109,6 +1287,17 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1150,6 +1339,13 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Anticholinergic Drug Use [Baseline, 9 Months] — Anticholinergic drug use was collected the 9 months before the baseline Botox® treatment and the 9 months following the baseline Botox® treatment. Total anticholinergic drug use in the 9 months following the baseline Botox® treatment is noted.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1191,6 +1387,13 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Anticholinergic Drug Use [Baseline, 9 Months] — Anticholinergic drug use was collected the 9 months before the baseline Botox® treatment and the 9 months following the baseline Botox® treatment. Total anticholinergic drug use in the 9 months following the baseline Botox® treatment is noted.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1228,6 +1431,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1269,6 +1483,13 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Percent Change From Baseline in Frequency of Micturition Per Day at 8 Weeks. [Baseline and 8 weeks after randomization.] — Number of micturitions per day was assessed using a patient diary during three days at baseline and after 8 weeks of treatment. The relative change in mean number of micturitions was compared between the groups. The change was calculated as percent change = ((measure at 8 weeks - measure at baseline)/measure at baseline)\*100%.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1310,6 +1531,13 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Anticholinergic Drug Use [Baseline, 9 Months] — Anticholinergic drug use was collected the 9 months before the baseline Botox® treatment and the 9 months following the baseline Botox® treatment. Total anticholinergic drug use in the 9 months following the baseline Botox® treatment is noted.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1351,6 +1579,26 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Global response assessment scale [4 weeks after last treatment] — Primary endpoint: Global response assessment scale.
+This is a 7 point scale asking: As compared to when you started the current study, how would you rate your overall bladder symptoms now? Seven response options are given to the patient: Markedly worse, moderately worse, slightly worse, no change, slightly improved, moderately improved, markedly improved.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Urinary Frequency [4 weeks after last treatment] — * Frequency measured as the mean frequency on a 3 day micturition diary
+* Nocturia episodes as the mean number of nocturia episodes on a 3 day micturition diary
+* Functional bladder capacity measured as the mean bladder capacity measured on a 3 day micturition diary
+* VAS pain scale
+* O'Leary -Sant scale; Nocturia Episodes [4 weeks after last treatment] — Nocturia measured on 3 day micturition diary; Functional bladder capacity [4 weeks after last treatment] — bladder capacity measured on 3 day micturition diary; VAS pain scale [4 weeks after last treatment] — visual analogue pain scale; O'Leary Sant [4 weeks after last treatment] — O'Leary Sant questionnaire score</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Drop-out [any time during study] — patients refusing further treatment because of intolerance to the intravesical treatment of by lack of improvement</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1388,6 +1636,21 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Daily Average Frequency of Urinary Incontinence Episodes [Baseline, Week 6] — Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. The number of episodes of urinary incontinence is recorded over a 3-day period the week of the study visit. A negative number change from baseline indicates a reduction in incontinence episodes (improvement) and a positive number change indicates an increase in incontinence episodes (worsening).</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in the maximum volume of urine the bladder holds and a negative number change from baseline represents a worsening (decrease) in the maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure During the First Involuntary Detrusor Contraction (IDC) [Baseline, Week 6] — Maximum detrusor pressure represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. A negative number change from baseline indicates an improvement in pressure and a positive number change from baseline indicates a worsening in pressure.; Change From Baseline in Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Baseline, Week 6] — The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement and a negative change from baseline represents a worsening.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Duration of Treatment Effect Through Week 52 [Up to 52 Weeks] — The duration of treatment effect is the time to patient request for retreatment.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1425,6 +1688,17 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1466,6 +1740,13 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Anticholinergic Drug Use [Baseline, 9 Months] — Anticholinergic drug use was collected the 9 months before the baseline Botox® treatment and the 9 months following the baseline Botox® treatment. Total anticholinergic drug use in the 9 months following the baseline Botox® treatment is noted.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1507,6 +1788,18 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>urinary culture [day 2 and day 5 after last bladder lavage] — After 5 consecutive days of bladder lavage, a urine culture will be taken at day 2 and 5. A count of \&lt;100.000 CFU/ml and is considered a positive result.
+The outcome will be considered positive if this positive result is found in more than 30% of subjects.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>pyuria [day 2 and day 5 after the last bladder lavage] — changes in white blood cell count are monitored at day 2 and 5 afte 5 consecutive days of bladder lavage. This is an assessment of bladder irritation.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1544,6 +1837,17 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1581,6 +1885,17 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1622,6 +1937,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1659,6 +1985,17 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1700,6 +2037,17 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1741,6 +2089,17 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1778,6 +2137,21 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Daily Average Frequency of Urinary Incontinence Episodes [Baseline, Week 6] — Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. The number of episodes of urinary incontinence is recorded over a 3-day period the week of the study visit. A negative number change from baseline indicates a reduction in incontinence episodes (improvement) and a positive number change indicates an increase in incontinence episodes (worsening).</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in the maximum volume of urine the bladder holds and a negative number change from baseline represents a worsening (decrease) in the maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure During the First Involuntary Detrusor Contraction (IDC) [Baseline, Week 6] — Maximum detrusor pressure represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. A negative number change from baseline indicates an improvement in pressure and a positive number change from baseline indicates a worsening in pressure.; Change From Baseline in Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Baseline, Week 6] — The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement and a negative change from baseline represents a worsening.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Duration of Treatment Effect Through Week 52 [Up to 52 Weeks] — The duration of treatment effect is the time to patient request for retreatment.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1819,6 +2193,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1856,6 +2241,17 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1905,6 +2301,17 @@
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>QoL changes associated with MS treatment [30 months] — The overall score from the baseline to the end of follow-up will be calculated, using the Qualiveen questionnaire. The 30-item Qualiveen is a specific health-related quality-of-life questionnaire for urinary disorders in patients with neurological conditions.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Neurogenic Bladder Symptom Score (NBSS) [30 months] — The change in lower urinary tract symptoms will be measured by the NBSS score, from baseline to the end of follow-up. The Neurogenic Bladder Symptom Score (NBSS) (24-item) is a freely available, self-administered, questionnaire that assesses urinary symptoms and bladder-related consequences in patients with acquired or congenital neurogenic bladder dysfunction as a result of spinal cord injury, multiple sclerosis, and spinal bifida.; Patient satisfaction (PGI-I) [30 months] — Patient satisfaction associated with the treatment of multiple sclerosis will be monitored using the PGI-I tool (Patient Global Impression of Improvement) from baseline to the end of follow-up. The PGI-I is a global index that may be used to rate the response of a condition to a therapy (transition scale).</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1958,6 +2365,17 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>LUTS onset [1 hour of structured interview] — The time of LUTS onset in relation to the diagnosis of MS diagnosis (before or after) will be observed in months, during the structured interviews with the study subjects.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Course of disease (clinical examination) [5 years] — The course of disease (primary-progressive, secondary-progressive) will be observed, defined by the presence or absence of cerebro-pyramidal symptoms (YES/NO - defined with clinical examination).; Course of disease (EDSS scale) [5 years] — The course of disease (primary-progressive, secondary-progressive) will be observed, defined by the presence or absence of cerebro-pyramidal symptoms (defined by the Kurtzke Expanded Disability Status Scale (EDSS)). The EDSS provides a total score on a scale that ranges from 0 to 10. The first levels 1.0 to 4.5 refer to people with a high degree of ambulatory ability and the subsequent levels 5.0 to 9.5 refer to the loss of ambulatory ability.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1995,6 +2413,17 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2036,6 +2465,20 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2077,6 +2520,17 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2118,6 +2572,20 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2159,6 +2627,17 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2200,6 +2679,17 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2241,6 +2731,17 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2282,6 +2783,17 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2323,6 +2835,17 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2364,6 +2887,17 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Bladder capacity and pressures: measures from cystometry [at 4 weeks and 6 months]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Urinary continence: score from an incontinence rating scale [2 days before and 4 weeks and 6 months after]; Constipation: score on the Bristol scale [4 weeks]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2405,6 +2939,13 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Discomfort During Catheter Insertion on a Visual Analogue Scale [Filled out after 5 minutes per catheterisation.] — On a scale ranging from 0 "no discomfort" to 10 "worst possible discomfort" caused by the catheter, set a vertical line indicating how you experienced the insertion of the catheter. Higher scores mean a worse outcome.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2446,6 +2987,13 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Quality of Life parameters (SF-36, IIQ)</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2483,6 +3031,17 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>DAN-PSS-1 questionnaire [2010-2012]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Pelvic Floor Muscle Assessment test [2010-2012]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2524,6 +3083,17 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>International Consultation on Incontinence Questionnaire, Urinary Incontinence, Short Form (ICIQ-UI-SF) [up to week 24]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>International Consultation on Incontinence Questionnaire, Overactive Bladder (ICIQ-AOB) [up to week 24]; Urethral Pressure Reflectometry (UPR) parameters [up to week 24] — UPR is a novel method of measuring the pressure and cross-sectional area in the female urethra; 3 days voiding diary [3 days]; 24 hour pad test [24 hour]; International Spinal Cord Injury Quality of Life Basic Data Set [up to week 24]; Patient Global Index of Improvement scale (PGI-I) [up to week 24]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2577,6 +3147,31 @@
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Success of SNM for neurogenic lower urinary tract dysfunction [Six months] — Success is defined as improvement of at least 50% in the key bladder diary variables, i.e. number of voids and/or number of leakages, post void residual volumen, compared to the baseline values using BLADDER DIARY for three days before inclusion and at evaluation.; Male bladder function [Six months] — Male lower urinary tract symptoms (MLUTS) by standard International Consultation on Incontinence Questionnaire (ICIQ)-MLUTS 10/06.
+Scale ranges from 0 to 44 points. Higher score indicate greater impact of individual symptoms for the patient.
+Changes will be compared to basal data.; Female bladder function [Six months] — Female lower urinary tract symptoms (FLUTS) by standard questionnaire ICIQ-FLUTS 12/07.
+Scale ranges from 0 to 48 points. Higher score indicate greater impact of individual symptoms for the patient.
+Changes will be compared to basal data.</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Changes in bladder volume [Six months] — Change in bladder volume measured in ml before and after implantation of implantable pulse generator for sacral neuromodulation; Changes in bladder sensation Mangler [Six months] — Changes in bladder sensation measured in ml before and after implantation of implantable pulse generator for sacral neuromodulation; Bowel function [Eight months] — Bowel function by standard questionnaire ICIQ-B (04/08). Scale ranges from 0 to 75 points. Higher score indicate greater impact of individual symptoms for the patient.
+Changes will be compared to basal data.; Male sexual function [Six months] — Male sexual function by standard questionnaire (07/05). Scale ranges from 0 to 12 points. Higher score indicate greater impact of individual symptoms for the patient.
+Changes will be compared to basal data.; Female sexual function [Six months] — Female sexual function by standard questionnaire (09/05). Scale ranges from 0 to 14 points. Higher score indicate greater impact of individual symptoms for the patient.
+Changes will be compared to basal data.; Quality of life by standard questionnaire EQ-5D-5L [Six months] — The EQ-5D-5L is a standard measure of health-related quality of life. EQ-5D-5L consists of two components: a health state profile and a visual analog scale (VAS). EQ-5D health state profile comprises 5 dimensions:
+mobility, self-care, usual activities, pain/discomfort, and anxiety/depression. Each dimension has 5 levels: 1=no problems, 2=slight problems, 3=moderate problems, 4=severe problems, and 5=extreme problems.
+The 5D-5L systems are converted into a single index utility score between 0 to 1, where a higher score indicates a better health state.
+The VAS records the participant's health on a 0-100 mm VAS scale, with 0 indicating "the worst health you can imagine" and 100 indicating "the best health you can imagine". Higher scores of EQ VAS indicate better health</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Adverse events [Six months] — Rate of adverse events evaluated by the Medical Device Coordination Group, (MDCG)-202010/1, safety reporting in clinical investigations of medical devices under the Regulation (EU) 2017/745; Global assessment scale [Six months] — 5 point Likert scale evaluated by: Very satisfied - satisfied - neutral - unsatisfied - very unsatisfied; Implantation Characteristics [Six months] — The lowest stimulation value in mA will be monitored and number of the re-programming</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2618,6 +3213,13 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>OSATURB total score [8 hours pr. participant] — Assessment tool with nine items, each item i rated on a 5-point Likert scale, minimum of 1, max. 5.</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2659,6 +3261,25 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2700,6 +3321,17 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2741,6 +3373,25 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2782,6 +3433,17 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2823,6 +3485,17 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2864,6 +3537,17 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Proportion of patients showing a complete voluntary (including electrostimulation) micturition [At 3 months, 6 months and at one year]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Bladder capacity (cystometry) [At 3 months, 6 months and after one year]; costs [At 3 months, 6 months, 9 months and at one year]; incidence of urinary infections [At visit 3, 6 and at one year]; incontinence [At 3 months, 6 months and at one year]; autonomic hyperreflexia (AHR) [At 3 months, 6 months, and at one year]; defecation [at 3 months, 6 months and at one year]; quality of life [at 6 months and at one year]; lower limbs spasticity [at 3 months, 6 months and at one year]</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2905,6 +3589,25 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -2942,6 +3645,17 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2983,6 +3697,25 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3024,6 +3757,25 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3065,6 +3817,17 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Surgical complications of bladder augmentation in children depending on the type of enterocystoplasty [38 years] — Observational study</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Impact of the participants' age on the occurrence of complications depending on the type of enterocystoplasty [38 years] — Observational study; Impact of the participants' sex on the occurrence of complications depending on the type of enterocystoplasty [38 years] — Observational study; Impact of the participants' type of neurogenic bladder on the occurrence of complications depending on the type of enterocystoplasty [38 years] — Observational study: the participants can have spina bifida, bladder exstrophy, anorectal malformation and if it has an impact on the occurrence of complications depending on the type of enterocystoplasty</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3102,6 +3865,18 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Number of participants with delayed or incomplete opening of the bladder neck during the voiding phase of micturition impeding urine flow [Before surgery] — Abdominal ultrasound, cysto-urethrogram and uroflowmetry help diagnose delayed or incomplete opening of the bladder neck.; Long-term urinary continence [Through study completion, an average of 2 years] — Reporting if the patients are dry or need catheterizations or protections</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Length of stay [From admission to discharge home, up to 20 days] — Length of stay; Complications after bladder neck procedure [Through study completion, an average of 2 years] — bleeding, bowel obstruction, surgical hernia, urinary stone, urinary infection; Follow-up [Through study completion, an average of 2 years] — The time length between the surgery date and the postoperative consultation date.
+Follow-up represents the time between the surgery and postoperative consultation dates in days, months, or years.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3139,6 +3914,17 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Rate of participants with urinary calculi [Through study completion, an average of 2 years] — Rate of participants with urinary calculi After bladder augmentation; Location of urinary calculi in the participants [Through study completion, an average of 2 years] — After bladder augmentation, urinary calculi can be seen on postoperative imaging such as abdominal ultrasound, CT scan, and MRI. The different locations of these calculi can be the kidneys, the ureters, the bladder, or the urethra. Each patient who has had urinary calculi will be reported, and the location of the calculi will be specified depending on the imaging results.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Time frame between surgery and occurence of urinary calculi in the participants After bladder augmentation [Through study completion, an average of 2 years] — Time frame between surgery and occurence of urinary calculi in the participants After bladder augmentation; Management of urinary calculi after bladder augmentation in the participants [Through study completion, an average of 2 years] — 3 main procedures help getting rid off urinary calculi: extracorporeal lithotripsy, endoscopic surgery or laparotomy. The patients were divided depending on the procedure that was used to remove the urinary calculi.; Risk factors of urinary calculi after bladder augmentation in the participants [Through study completion, an average of 2 years] — Age, sex, type of bladder augmentation...</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3176,6 +3962,18 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Number of participants with urinary sphincter incomptetence [Before surgery] — Participants with urinary incontinence caused by urinary sphincter incomptetence; Impact of urinary artificial sphincter on the participants' incontinence [Through study completion, an average of 2 years] — Three outcomes are possible: the participant is continent (with or without a few leaks), the participant is continent with catheterization, the patient is incontinent.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Impact of bladder augmentation on participants' incontinence [Through study completion, an average of 2 years] — Analysing the presence of bladder augmentation in participants with urinary artificial sphincter. Three outcomes are possible: the participant is continent, the participant is continent with catheterization or the patient is incontinent.; Impact of Mitrofanoff procedure on participants' incontinence [Through study completion, an average of 2 years] — Analysing the presence of Mitrofanoff procedure in participants with urinary artificial sphincter. Three outcomes are possible: the participant is continent, the participant is continent with catheterization, or the patient is incontinent.; Impact of bladder neck surgery on participants' incontinence [Through study completion, an average of 2 years] — Analysing the presence of bladder neck surgery in participants with urinary artificial sphincter. hree outcomes are possible: the participant is continent, the participant is continent with catheterization or the patient is incontinent.; Last follow-up [Through study completion, an average of 2 years]] — Follow-up represents the time between the surgery and postoperative consultation dates in days, months, or years.
+Generally, there are a-month-follow-up, a three month-follow-up, a six month-follow-up, and a year-follow-up. The surgeon can see the patient if there is any problem between these consultations. After a year of follow-up, it is up to the surgeon to decide if the patient needs to be seen yearly or not. The last follow-up date is crucial because it indicates how the patient is and if other follow-up dates need to be applied.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3217,6 +4015,25 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3266,6 +4083,13 @@
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Number of antibiotic treatment episodes for UTIs per person-days at risk during the first year. [12 months] — An episode of treatment is defined as a single prescription of a given antibiotic, regardless of its intended duration (curative or prophylactic). A day at risk is defined as a follow-up day without antibiotic treatment.</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -3303,6 +4127,17 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -3340,6 +4175,17 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -3377,6 +4223,21 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Daily Average Frequency of Urinary Incontinence Episodes [Baseline, Week 6] — Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. The number of episodes of urinary incontinence is recorded over a 3-day period the week of the study visit. A negative number change from baseline indicates a reduction in incontinence episodes (improvement) and a positive number change indicates an increase in incontinence episodes (worsening).</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in the maximum volume of urine the bladder holds and a negative number change from baseline represents a worsening (decrease) in the maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure During the First Involuntary Detrusor Contraction (IDC) [Baseline, Week 6] — Maximum detrusor pressure represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. A negative number change from baseline indicates an improvement in pressure and a positive number change from baseline indicates a worsening in pressure.; Change From Baseline in Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Baseline, Week 6] — The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement and a negative change from baseline represents a worsening.</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Duration of Treatment Effect Through Week 52 [Up to 52 Weeks] — The duration of treatment effect is the time to patient request for retreatment.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3418,6 +4279,17 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3459,6 +4331,20 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3500,6 +4386,17 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3541,6 +4438,17 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3582,6 +4490,25 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3623,6 +4550,25 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3676,6 +4622,17 @@
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BVE ratio (Bladder Voiding Efficiency) = Ratio of urine volume / total bladder volume [At 12 weeks after randomization] — BVE will be measured during the multi-channel urodynamic study</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Maximal flow rate (mL/s) on multi-channel urodynamic study [At baseline, At 12 weeks after randomization] — Maximal flow rate will be measured during the multi-channel urodynamic study; Post-void residual volume (mL) on multi-channel urodynamic study [At 12 weeks after randomization] — Post-void residual volume will be measured during the multi-channel urodynamic study; Maximal detrusor pressure during micturition (cmH2O) on multi-channel urodynamic study [At 12 weeks after randomization] — Maximal detrusor pressure during micturition will be measured during the multi-channel urodynamic study; Mean voided volume (mL) on a three-day ambulatory measure [At 12 weeks after randomization] — Mean voided volume will be measured using an ambulatory flowmeter (Homeflow®) during three consecutive days; Mean maximal flow rate (mL/s) on a three-day ambulatory measure [At 12 weeks after randomization] — Mean maximal flow rate will be measured using an ambulatory flowmeter (Homeflow®) during three consecutive days; Mean post-void residual volume (mL) on a three-day ambulatory measure [At 12 weeks after randomization] — Mean post-void residual volume will be measured using an ambulatory flowmeter (Homeflow®) during three consecutive days.; Frequency of patients who were able to stop clean intermittent self-catheterization (PVR &lt; 100 mL) [At 12 weeks after randomization] — Mean post-void residual volume will be measured using an ambulatory flowmeter (Homeflow®) during three consecutive days; Urinary symptoms self-reported questionnaire (USP) [At 12 weeks after randomization] — USP : Urinary Symptom Profile; Quality of life self-reported questionnaire (Qualiveen) [At 12 weeks after randomization] — Qualiveen; Difficulty to perform CISC self-reported questionnaire (ICDQ) [At 12 weeks after randomization] — ICDQ : Intermittent Catheterization Difficulty Questionnaire; Digestive symptoms self-reported questionnaire (NBD) [At 12 weeks after randomization] — NBD : Neurogenic Bowel Dysfunction; Digestive symptoms self-reported questionnaire (Wexner) [At 12 weeks after randomization] — Wexner questionnaire; Sexual symptoms self-reported questionnaire (FSFI) [At 12 weeks after randomization] — FSFI (female) : Female Sexual Function Index; Sexual symptoms self-reported questionnaire ( MSHQ) [At 12 weeks after randomization] — MSHQ (male) : Male Sexual Health Questionnaire; Frequency of patients with detrusor overactivity on multi-channel urodynamic study [At 12 weeks after randomization] — Detrusor overactivity will be objectify during the multi-channel urodynamic study; Filling volume (mL) at first detrusor unhibited contraction on multi-channel urodynamic study - If detrusor overactivity. [At 12 weeks after randomization] — Filling volume at first detrusor unhibited contraction will be measured during the multi-channel urodynamic study.; Maximal detrusor pressure (cmH2O) on multi-channel urodynamic study - If detrusor overactivity. [At 12 weeks after randomization] — Maximal detrusor pressure will be measured during the multi-channel urodynamic study; Maximal cystomanometric capacity (cmH2O) on multi-channel urodynamic study [At 12 weeks after randomization] — Maximal cystomanometric capacity will be measured during the multi-channel urodynamic study; Frequency of adverse events occurring during the 12-week follow-up [Measured 12 weeks after randomization] — Adverse events will be exhaustively listed</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3717,6 +4674,20 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3758,6 +4729,17 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3799,6 +4781,25 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3840,6 +4841,17 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3881,6 +4893,13 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3922,6 +4941,20 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -3959,6 +4992,21 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Daily Average Frequency of Urinary Incontinence Episodes [Baseline, Week 6] — Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. The number of episodes of urinary incontinence is recorded over a 3-day period the week of the study visit. A negative number change from baseline indicates a reduction in incontinence episodes (improvement) and a positive number change indicates an increase in incontinence episodes (worsening).</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in the maximum volume of urine the bladder holds and a negative number change from baseline represents a worsening (decrease) in the maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure During the First Involuntary Detrusor Contraction (IDC) [Baseline, Week 6] — Maximum detrusor pressure represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. A negative number change from baseline indicates an improvement in pressure and a positive number change from baseline indicates a worsening in pressure.; Change From Baseline in Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Baseline, Week 6] — The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement and a negative change from baseline represents a worsening.</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Duration of Treatment Effect Through Week 52 [Up to 52 Weeks] — The duration of treatment effect is the time to patient request for retreatment.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4008,6 +5056,17 @@
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Measurement of urinary continence with the Schulte-Baukloh score and 24hours pad-test [5 YEARS] — Evaluation of urinary continence with mictional schedule and 24hours pad-test (Patients will be classified as "dry" if they will be using no pads or a single ''security pad'' per day; "significantly improved" if a reduction \&gt;50% in pad usage (usually representing 2- 5 pads/day, depending on preoperative pad use); and little/no improvement (\&gt;5 pads/day and \&lt;50% improvement against baseline) and the Schulte-Baukloh score</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Evaluation of the quality of life with the PIN-Q score [5 YEARS] — The child will be asked to answer some items</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4049,6 +5108,25 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4090,6 +5168,20 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4131,6 +5223,17 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4168,6 +5271,17 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Surgical complications of bladder augmentation in children depending on the type of enterocystoplasty [38 years] — Observational study</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Impact of the participants' age on the occurrence of complications depending on the type of enterocystoplasty [38 years] — Observational study; Impact of the participants' sex on the occurrence of complications depending on the type of enterocystoplasty [38 years] — Observational study; Impact of the participants' type of neurogenic bladder on the occurrence of complications depending on the type of enterocystoplasty [38 years] — Observational study: the participants can have spina bifida, bladder exstrophy, anorectal malformation and if it has an impact on the occurrence of complications depending on the type of enterocystoplasty</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4209,6 +5323,20 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4250,6 +5378,25 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4291,6 +5438,17 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4344,6 +5502,17 @@
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Urinary symptoms between groups [Start of first intervention phase (Day 0)] — Measured using the International Prostate Symptom Scale (IPSS), scoring ranging from 0-35; Urinary symptoms between groups [End of first intervention phase (Day 30)] — Measured using the International Prostate Symptom Scale (IPSS), scoring ranging from 0-35; Urinary symptoms between groups [Start of first intervention phase (Day 60)] — Measured using the International Prostate Symptom Scale (IPSS), scoring ranging from 0-35; Urinary symptoms between groups [End of first intervention phase (Day 90)] — Measured using the International Prostate Symptom Scale (IPSS), scoring ranging from 0-35</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Urinary symptoms between groups [Start of first intervention phase (Day 0)] — Measured using the Urinary Symptom Profile (USP) questionnaire: score ranging from 0-39; Urinary symptoms between groups [End of first intervention phase (Day 30)] — Measured using the Urinary Symptom Profile (USP) questionnaire: score ranging from 0-39; Urinary symptoms between groups [Start of first intervention phase (Day 60)] — Measured using the Urinary Symptom Profile (USP) questionnaire: score ranging from 0-39; Urinary symptoms between groups [End of first intervention phase (Day 90)] — Measured using the Urinary Symptom Profile (USP) questionnaire: score ranging from 0-39; Post-mictional residue between groups [Start of first intervention phase (Day 0)] — ml, measured with BladderScan; Post-mictional residue between groups [End of first intervention phase (Day 30)] — ml, measured with BladderScan; Post-mictional residue between groups [Start of first intervention phase (Day 60)] — ml, measured with BladderScan; Post-mictional residue between groups [End of first intervention phase (Day 90)] — ml, measured with BladderScan; Maximum urine flow rate between groups [Start of first intervention phase (Day 0)] — ml/s; Maximum urine flow rate between groups [End of first intervention phase (Day 30)] — ml/s; Maximum urine flow rate between groups [Start of first intervention phase (Day 60)] — ml/s; Maximum urine flow rate between groups [End of first intervention phase (Day 90)] — ml/s; Quality of life linked to urinary dysfunction between groups [Start of first intervention phase (Day 0)] — Qualiveen-30 questionnaire; score 0-4; Quality of life linked to urinary dysfunction between groups [End of first intervention phase (Day 30)] — Qualiveen-30 questionnaire; score 0-4; Quality of life linked to urinary dysfunction between groups [Start of first intervention phase (Day 60)] — Qualiveen-30 questionnaire; score 0-4; Quality of life linked to urinary dysfunction between groups [End of first intervention phase (Day 90)] — Qualiveen-30 questionnaire; score 0-4; Quality of life between groups [Start of first intervention phase (Day 0)] — EQ-5D questionnaire; score 0-100; Quality of life between groups [End of first intervention phase (Day 30)] — EQ-5D questionnaire; score 0-100; Quality of life between groups [Start of first intervention phase (Day 60)] — EQ-5D questionnaire; score 0-100; Quality of life between groups [End of first intervention phase (Day 90)] — EQ-5D questionnaire; score 0-100; Fatigue between groups [Start of first intervention phase (Day 0)] — Modified Fatigue Impact Scale; score 0-84; Fatigue between groups [End of first intervention phase (Day 30)] — Modified Fatigue Impact Scale; score 0-84; Fatigue between groups [Start of first intervention phase (Day 60)] — Modified Fatigue Impact Scale; score 0-84; Fatigue between groups [End of first intervention phase (Day 90)] — Modified Fatigue Impact Scale; score 0-84; Drug safety [End of first intervention phase (Day 30)] — Yes/no occurence of the following adverse events: headache, asthenia, gastrointestinal disorders, orthostatic hypotension; Drug safety [End of first intervention phase (Day 90)] — Yes/no occurence of the following adverse events: headache, asthenia, gastrointestinal disorders, orthostatic hypotension</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4389,6 +5558,23 @@
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Efficacy of continent cutaneous urinary derivation: catheterisation. [3 -16 years after their operation] — The minimum frequency of urinary catheterisation in spinal injured patients equipped with a continent cutaneous urinary derivation will be recorded.; Efficacy of continent cutaneous urinary derivation:leakage [3 -16 years after their operation] — Absence of leakage through the cystostomy in spinal injured patients equipped with a continent cutaneous urinary derivation will be recorded.</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Surgical complications and impact on the patient's quality of life: Age at start of care [3 -16 years after their operation] — The patient's age will be noted at the start of care; Surgical complications and impact on the patient's quality of life: Sex [3 -16 years after their operation] — The patient's sex will be noted at the start of care; Surgical complications and impact on the patient's quality of life: Body Mass Index [3 -16 years after their operation] — The patient's Body Mass Index will be noted at the start of care; Surgical complications and impact on the patient's quality of life: ASA score [3 -16 years after their operation] — The ASA Physical Status Classification System is used to assess and communicate a patient's pre-anesthesia medical comorbidities. The classification system alone does not predict the perioperative risks, but used with other factors (eg, type of surgery, frailty, level of deconditioning) it can be helpful in predicting perioperative risks.
+ASA I = A normal healthy patient ASA II = A patient with mild systemic disease ASA III = A patient with severe systemic disease ASA IV = A patient with severe systemic disease that is a constant threat to life ASA V = A moribund patient who is not expected to survive without the operation ASA VI = A declared brain-dead patient whose organs are being removed for donor purposes; Surgical complications and impact on the patient's quality of life: ASIA score [3 -16 years after their operation] — The ASIA (American Spinal Injury Association) assessment is the gold standard for assessing and documenting sensory and motor impairments after Spinal Cord Injury. The score ranges from A to E as follows:
+A = Complete injury. No motor or sensory function is preserved in the sacral segments S4 or S5.
+B = Sensory incomplete. Sensory but not motor function is preserved below the level of injury, including the sacral segments.
+C = Motor incomplete. Motor function is preserved below the level of injury, and more than half of muscles tested below the level of injury have a muscle grade less than 3 (see muscle strength scores table).
+D = Motor incomplete. Motor function is preserved below the level of injury and at least half of the key muscles below the neurological level have a muscle grade of 3 or more.
+E = Normal. No motor or sensory deficits, but deficits existed in the past. This score will be used to evaluate the patient at the start of care.; Surgical complications and impact on the patient's quality of life: Bladder dysfunction [3 -16 years after their operation] — The type of bladder dysfunction will be evaluated by urodynamic evaluation; Surgical complications and impact on the patient's quality of life: urinary tract anomalies evaluated via a morphological examination. [3 -16 years after their operation] — Urinary tract anomalies will be evaluated via a morphological examination (using ultrasound and / or tomodensitometry).; Surgical complications and impact on the patient's quality of life: cytometry [3 -16 years after their operation] — Urinary tract anomalies will be evaluated via cytometry; Surgical complications and impact on the patient's quality of life: creatinine clearance [3 -16 years after their operation] — Urinary tract anomalies will be evaluated according to the patient's creatinine clearance; Surgical complications and impact on the patient's quality of life: operative indications [3 -16 years after their operation] — The indications for the initial surgery will be recorded.; Surgical complications and impact on the patient's quality of life: mictional mode [3 -16 years after their operation] — The patient's initial mictional mode will be recorded.; Surgical complications and impact on the patient's quality of life: surgical set-up [3 -16 years after their operation] — The patient's surgical set-up will be recorded.; Surgical complications and impact on the patient's quality of life: immediate or later complications [3 -16 years after their operation] — All immediate or later complications will be recorded.</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4430,6 +5616,17 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -4467,6 +5664,17 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4508,6 +5716,17 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4549,6 +5768,13 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Description of the voiding phase [1 day] — assessment of the voiding phase in multiple sclerosis patients with description of the existing parameters in urodynamic tests</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4590,6 +5816,17 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4631,6 +5868,20 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4672,6 +5923,17 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4713,6 +5975,20 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4754,6 +6030,25 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4803,6 +6098,17 @@
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>bladder sensation ( area under the sensation-capacity curve (AUC)) [Day 1] — The areas under the sensation-capacity curve (AUC) will be calculated for individual participants using the trapezoidal rule for specific capacity ranges.</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>bladder sensitivity [Day 1] — Bladder sensitivity assessed by the number of steps in the evolution of the need to urinate reported by the patient (number of times the cursor of the analogical scale is moved), during the filling.</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4844,6 +6150,25 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4885,6 +6210,25 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4926,6 +6270,13 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4975,6 +6326,17 @@
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Endothelial dysfunction [6 weeks] — Surrogate marker of endothelial dysfunction : Signifiant FMD variation on ICIs as defined by the International Cardio-Oncology Society</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Correlation of blood biomarkers to endothelial dysfunction (surrogate marker: Flow Mediated Dilatation variation) [6 weeks] — Increase in microparticles (CD144+, CD31+/41-, CD62e+, CD235a+, CD41+, CD11+, CD3+); cytokines (e.g., IL-1b, IFNg, TNFa, VEGF-A, C, D, HGF); single-cell profiling and deep immunophenotyping.; Major cardiovascular event (MACE) [6 months] — Collection of clinically relevant MACE at clinical follow-up: acute coronary syndrome; coronary angioplasty; stroke; cardiac suddent death, myocarditis, myositis.</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5012,6 +6374,13 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>French translation of NBSS SF [14 days] — good or very good psychometric properties of the questionnaire</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5057,6 +6426,17 @@
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>concordance diagnosis of detrusor overactivity between lying and sitting position [24 months] — Measurement concordance of detrusor pressures using the intraclass correlation coefficient statistic</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>position influence on the overactive detrusor gravity between the 2 positions [24 months] — Measurement of the concordance of detrusor overactivity diagnostic gravities during urodynamic assessments, between those performed in the supine position and those performed in the seated position. Concordance will be assessed using Cohen's Kappa statistic.; Evaluation of the diagnosis quality of the detrusor overactivity between the 2 position [24 months] — Measurement of the diagnostic quality of urodynamic testing performed in the supine position in neurological patients to detect detrusor activity, with the seated position being the gold standard: estimation of sensitivity and specificity.; comparison of the distribution of detrusor overactivity diagnoses according to position. [24 months] — Measurement of the association between position during urodynamic assessment and diagnosis of detrusor overactivity: comparison of the distribution of diagnoses of detrusor overactivity according to position.</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5098,6 +6478,17 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5139,6 +6530,17 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Gait speed [1 Day: at strong desire to void and just after void] — Gait speed calculated from 10 meter walk test. Only the 6 intermediate meters are recorded. Time is recorded by a manual chronometer. 3 records are done, mean time is calculated. Mean time is divided by 6 to obtain mean gait speed</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Time for Timed up and Go [1 Day: at strong desire to void and just after void] — 1 record is done for timed up and go test after a first training. Time is recorded by a manual chronometer; Variation of gait speed [1 Day: for strong desire to void and post void] — Coefficient of variation is calculated from the 3 records of 10 meter walk test. It correspond to standard deviation/average.</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5180,6 +6582,17 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Reproductibility of urodynamic Capacity Cystometric Maximum (CCM) [1 Day : during the urodynamic assessment] — Reproductibility of Capacity cystometric maximum (in ml) in the three cystometries evaluated using an intra class correlation; Reproductibility of urodynamic : Pressure maximum [1 Day : during the urodynamic assessment] — Reproductibility of Pressure Maximum (in cmH2O) in the three cystometries evaluated using an intra class correlation; Reproductibility of urodynamic : Pressure of the first involuntary detrusor contraction (IDC) [1 Day : during the urodynamic assessment] — Reproductibility of pressure of the first involuntary detrusor contraction (in cmH2O) in the three cystometries evaluated using an intra class correlation; Reproductibility of urodynamic : volume of filling for the first IDC [1 Day : during the urodynamic assessment] — Reproductibility of volume of filling for the first involuntary detrusor contraction (in cmH2O) in the three cystometries evaluated using an intra class correlation</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Comparaison of urodynamic parameters between naive treatment patient and non naive treatment patients [1 Day : during the urodynamic assessment] — Comparaison urodynamic parameters (CCM, Maximum pressure, volume filling of the first IDC, pressure of the first IDC) using a T student test</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5221,6 +6634,17 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Total time for TRV [1 day] — The participants have to stand up from a chair with armrests, walk 6 meters to the toilet, open the door and turn on the light, close the door, undress and position themselves to urinate. All the test is timed</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Time for the first stage: "mobility" stage [1 day] — , the "mobility" stage, starting when the examiner gives the starting signal, includes the stand up, the walk to the toilets, and stops when the patient puts his hand on the door handle; Time for the second stage: "settled" stage [1 day] — the "settled" stage starts as soon as the subject has his hand on the door handle, until he is undressed and in his usual and secure position to void</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5262,6 +6686,17 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Variation of volume of rectal constant sensation to need to defecate [1 Day] — Difference between volume of rectal constant sensation to need to defecate at strong desire to void and post void, collected by patient declaration when distending the intra-rectal balloon by manual air insufflation at 5 mL/s during</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Variation of amplitude modulation of the RAIR between strong desire to void and just after [1 Day] — Difference between amplitude modulation of the RAIR at strong desire to void and post void calculated by difference between two non-successive residual pressure values on five successive distension volumes.; Variation of duration modulation of the RAIR between strong desire to void and just after [1 Day] — Difference between duration modulation of the RAIR at strong desire to void and post void calculated by difference between two non-successive residual pressure values on five successive distension volumes.; Variation of external anal sphincter resting pressure between strong desire to void and just after [1 Day] — Difference between external anal sphincter resting pressure at strong desire to void and post void</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5303,6 +6738,21 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Number of falls in the past 3 months [1 day] — Patients were asked about the number of falls in the past three months, and the circumstances in which they occurred (frequency, home, outdoors, going to void, during urinary urgency, nocturia)</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Number of falls in the past year [1 day] — Patients were asked about the number of falls in the past year, and the circumstances in which they occurred (frequency, home, outdoors, going to void, during urinary urgency, nocturia)</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Correlation between number of falls in the past 3 months and in the past year and clinical datas and characteristics of the patient [1 day] — The impact of MS on walking was assessed by the 12-Item Multiple Sclerosis Walking Scale (MSWS12) questionnaire, the EDSS score, and by clinical test with the Time to be Ready to Void (TRV). Fear of falling was assessed by a simple question and with Falls Efficacy Scale-International (FES-I) Questionnaire</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5344,6 +6794,17 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5385,6 +6846,17 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5426,6 +6898,17 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -5463,6 +6946,17 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5504,6 +6998,20 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5545,6 +7053,17 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5586,6 +7105,25 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5627,6 +7165,17 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5668,6 +7217,25 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5709,6 +7277,17 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5746,6 +7325,13 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Accuracy of urinary markers will be evaluated by area under the curve (AUC) [through study completion, an average of 1 year]</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5787,6 +7373,17 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5828,6 +7425,20 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5869,6 +7480,17 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5910,6 +7532,17 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -5947,6 +7580,17 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at Week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during the first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement.</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -5984,6 +7628,17 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6025,6 +7680,25 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6066,6 +7740,25 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6107,6 +7800,20 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6148,6 +7855,20 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6189,6 +7910,17 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6230,6 +7962,17 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Time to onset of a first UTI within one year of treatment. [one year]</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Rate of patients with at least one UTI during the one-year treatment [Determined at M3, M6, M9 and M12]; Number of UTI [Determined at M3, M6, M9 and M12]; Score on Qualiveen® scale [Determined at M3, M6, M9 and M12]; Symptomatology of urinary disorders [Determined at M3, M6, M9 and M12]; EDSS score [Determined at M3, M6, M9 and M12]; Number of multiple sclerosis attacks [Determined at M3, M6, M9 and M12]; Antibiotics consumption [Determined at M3, M6, M9 and M12]; Safety of cranberry [Determined at M3, M6, M9 and M12]; Patients' observance to treatment [Determined at M3, M6, M9 and M12]</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6271,6 +8014,17 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6312,6 +8066,25 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder capacity at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of improvement in neurological bladder, in addition to the secondary clinical objective. It was used as the primary objective in the only prospective study in the literature.
+It is obtained by cystomanometry and is defined by the maximum volume (in mL) measured at the moment when permission to urinate is given to the patient, after filling via urethral catheter. In younger patients, urination occurs spontaneously, and this value is obtained a posteriori by curve analysis.
+If treatment is successful, maximum bladder capacity should increase.</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Evolution of maximal bladder pressure at 4 weeks of treatment (end of follow-up) [4 weeks] — This parameter is considered by experts to be an objective marker of neurological bladder improvement, in addition to the primary objective.
+This data is obtained during cystomanometry. If treatment is effective, it should decrease.; Urinary incontinence [4 weeks] — Time to clinical treatment failure defined by criteria found in literature and marketing authorization of Botox® in a 28-day time frame (at least one of the 3 criteria):
+* Treatment judged as non-effective by either the patient or the practitioner;
+* Reduction of urinary incontinence to less than 50% of the initial occurrences measured in the initial bladder diary;
+* Intolerable side effects reported by the patient.; Evaluation of the number of side effects [4 weeks] — Side effects are recorded by the patient in a treatment follow-up booklet or by the practitioner during follow-up. They include digestive, psychiatric, neurological, cutaneous and urological disorders, pain associated with instillation of the product, and other effects.; Proportion of responders at 4 weeks of treatment [4 weeks] — This corresponds to patients who achieved at least a 50% reduction in urinary incontinence episodes after 4 weeks of treatment, with no intolerable side effects (leading to discontinuation of treatment) at the end of the study. The number of incontinence episodes are collected over 72 consecutive hours in the week preceding each visit (V1, V2 and V3) by the patient on a bladder diary. Side effects are recorded by the patient in the treatment follow-up booklet and by the practitioner at each visit.; Proportion of continent patients at 4 weeks of treatment [4 weeks] — It corresponds to patients who had a 100% reduction in urinary incontinence episodes by the end of the study. This group is part of the responder group at 4 weeks of treatment.; Product usability measured with usability questionnaire [4 weeks] — Ease of use, which improves patient acceptability and compliance, is measured using the short version of the Usability Metric for User Experience scale (UMUX-LITE) containing two positive items with a 7-point response scale, coupled with six ad hoc questions specific to the treatment and the disease. The values of each question range from 0 (totally disagree) to 7 (totally agree).; Standardized difference in patient quality of life calculated according to the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI-SF) questionnaire score between the start and end of the patient's participation in the study. The answers to the 3 items of the questionnaire result in a sum, with minimum score of 0 ("no incontinence"), and maximum score of 21 ("maximum urinary incontinence").; Standardized difference in patient quality of life calculated according to the KIDSCREEN-10 score between the beginning and the end of the study. [4 weeks] — It is calculated on the basis of changes in the KIDSCREEN-10 Index between the start and end of the patient's participation in the study. The KIDSCREEN-10 Index, developed by the project "Screening For and Promotion of Health-Related Quality of Life in Children and Adolescents - a European Public Health perspective", contains 10 items. The sum score is comprised between 10 and 50, where 10 represents the lowest possible value and thus a very low health-related quality of life and 50 the maximum value, i.e. a very high health-related quality of life.; Evolution of the number of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the number of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the volume of urinary catheterizations at 4 weeks of treatment [4 weeks] — This evolution is assessed by comparing the volume of urinary catheterizations over 72 hours during the week preceding each visit (V1, V2 and V3).; Evolution of the bladder compliance at 4 weeks of treatment [4 weeks] — The bladder compliance (mL/cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the minimum filling volume causing uninhibited detrusor contraction at 4 weeks of treatment [4 weeks] — The minimum filling volume causing uninhibited detrusor contraction (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the Detrusor leak point pressure at 4 weeks of treatment [4 weeks] — The Detrusor leak point pressure (cmH2O) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of the volume of bladder filling during urine loss at 4 weeks of treatment [4 weeks] — The volume of bladder filling during urine loss (mL) is measured 2 times using cystomanometry : prior to treatment and at the end of treatment. The 2 values obtained are compared.; Evolution of renal ultrasonography at 4 weeks of treatment [4 weeks] — Renal ultrasonography performed at the end of treatment is compared with the renal ultrasonography performed prior to treatment. This enables an assessment of the impact on the upper urinary tract, and is an indirect marker of bladder condition. The standard parameters assessed are :
+* Anteroposterior diameter of the pyelo (mm);
+* Ureter diameter (mm)</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6353,6 +8126,17 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Number of participants with refractory urinary incontinence [Before surgery] — Participants with urinary incontinence without response to medical treatment or catheterization; Impact of urinary artificial sphincter on the participants' incontinence [Through study completion, an average of 2 years] — Three outcomes are possible: the participant is continent, the participant is continent with catheterization or the patient is incontinent.</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Impact of bladder augmentation on participants' incontinence [Through study completion, an average of 2 years] — Analysing the presence of bladder augmentation in participants with urinary artificial sphincter. Three outcomes are possible: the participant is continent, the participant is continent with catheterization or the patient is incontinent.; Impact of Mitrofanoff procedure on participants' incontinence [Through study completion, an average of 2 years] — Analysing the presence of Mitrofanoff procedure in participants with urinary artificial sphincter. hree outcomes are possible: the participant is continent, the participant is continent with catheterization or the patient is incontinent.; Impact of bladder neck surgery on participants' incontinence [Through study completion, an average of 2 years] — Analysing the presence of bladder neck surgery in participants with urinary artificial sphincter. hree outcomes are possible: the participant is continent, the participant is continent with catheterization or the patient is incontinent.; Complications after urinary artificial sphincter [Through study completion, an average of 2 years] — Medical and surgical complications after urinary artificial sphincter; Operating time [Perioperatively] — Operating time; Length of stay [From the day of hospitalization to the day of discharge home, up to 20 days] — Length of stay; Last follow-up [Through study completion, an average of 2 years] — Follow-up represents the time between the surgery and postoperative consultation dates in days, months, or years. Generally, there are a-month-follow-up, a three month-follow-up, a six month-follow-up, and a year-follow-up. The surgeon can see the patient if there is any problem between these consultations. After a year of follow-up, it is up to the surgeon to decide if the patient needs to be seen yearly or not. The last follow-up date is crucial because it indicates how the patient is and if other follow-up dates need to be applied.</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6394,6 +8178,18 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Number of participants with delayed or incomplete opening of the bladder neck during the voiding phase of micturition impeding urine flow [Baseline (Before surgery)] — Cysto-urethrogram and uroflowmetry help diagnose delayed or incomplete opening of the bladder neck.
+delayed or incomplete opening of the bladder neck; Number of participants with muscular bladder [Baseline (Before surgery)] — The muscular bladder has thicker walls, bladder diverticula and trabecules (diagnosed during abdominal ultrasound, urethro-cystogram and cystoscopy)</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Length of stay [From admission to discharge home, up to 20 days] — Length of stay; The time length between the surgery date and the postoperative consultation date [Through study completion, an average of 2 years] — Follow_up represents the time length between the surgery date and the postoperative consultation date in days, months, or years. Generally, there are a-month-follow-up, a three month-follow-up, a six month-follow-up, and a year-follow-up. The surgeon can see the patient if there is any problem between these consultations. After a year of follow-up, it is up to the surgeon to decide if the patient needs to be seen yearly or not. The last follow-up date is crucial because it indicates how the patient is and if other follow-up dates need to be applied.; Surgical complications after bladder neck procedure [Through study completion, an average of 2 years] — bleeding, bowel obstruction, surgical hernia, urinary stone, urinary infection; Operating time [Intraoperative] — Operating time</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -6431,6 +8227,17 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6472,6 +8279,13 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Difference between the predicted bladder filling level and the actual value [December 2023] — Difference (measured as mean absolute error in percent) of the predicted bladder filling level (measured in ml) and the actual value (determined by measuring the volume of urine in ml with a measuring cup in combination with a kitchen scale).</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -6509,6 +8323,17 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -6546,6 +8371,17 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6587,6 +8423,13 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Percent Change From Baseline in Frequency of Micturition Per Day at 8 Weeks. [Baseline and 8 weeks after randomization.] — Number of micturitions per day was assessed using a patient diary during three days at baseline and after 8 weeks of treatment. The relative change in mean number of micturitions was compared between the groups. The change was calculated as percent change = ((measure at 8 weeks - measure at baseline)/measure at baseline)\*100%.</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6628,6 +8471,17 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -6665,6 +8519,17 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -6702,6 +8567,17 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -6739,6 +8615,17 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -6776,6 +8663,17 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -6813,6 +8711,17 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -6850,6 +8759,17 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -6887,6 +8807,17 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -6924,6 +8855,17 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6965,6 +8907,13 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -7002,6 +8951,17 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -7039,6 +8999,17 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7080,6 +9051,20 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -7117,6 +9102,17 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -7154,6 +9150,17 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7195,6 +9202,17 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7236,6 +9254,17 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Maximum cystometric capacity (MCC) [1 week] — Examined during filling cystometry as measured by changes from baseline following treatment for one week.</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Number of Participants with Adverse Events as a Measure of Safety [1 week] — Safety (physical exam, vital signs, haematology, coagulation parameters, clinical chemistry and urinalysis, ECG, pregnancy test, hand immersion test and PK \[concentrations of SAF312 in blood\]).; Bladder threshold vol, threshold pressure, instilled vol at first leak, detrusor pressure at first leak, vol/detrusor pressure at first sensation and at first desire to void, maximum detrusor pressure during filling/storage, bladder wall compliance [1 week] — All parameters examined during filling cystometry as measured by changes from baseline following treatment for one week; Micturition or catheterization frequency [1 week] — Changes from baseline, as measured by daily diaries.; Incontinence episodes [1 week] — Changes from baseline as measured by daily diaries.</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -7273,6 +9302,17 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -7310,6 +9350,17 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7351,6 +9402,17 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7392,6 +9454,20 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -7429,6 +9505,17 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -7466,6 +9553,17 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -7503,6 +9601,17 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7544,6 +9653,13 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -7581,6 +9697,17 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Change from baseline in volume at first detrusor contraction as determined by urodynamics [At week 4]</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Detrusor pressure at first contraction [At week 4]; Volume at first detectable leakage [At week 4]; Volume at 10/20/30/40 cm H2O [At week 4]; Compliance [At week 4]; Maximum cystometric bladder capacity [At week 4]; 7-day micturition diary: Micturitions [At days 0, 14, 28]; 7-day micturition diary: Urgency episodes [At days 0, 14, 28]; 7-day micturition diary: Urge urinary incontinence episodes [At days 0, 14, 28]</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -7618,6 +9745,17 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -7655,6 +9793,17 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -7692,6 +9841,17 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -7729,6 +9889,17 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7770,6 +9941,17 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Recruitment rate/ retention rate [6 weeks] — The proportion of participants who are recruited to the study and the proportion of participants who are lost to follow up; Adherence rate [6 weeks] — The proportion of participants who adhere to the treatment protocol of 6 weeks; Adverse events [6 weeks] — Number of participants with adverse events as a measure of safety; Acceptability of using TTNS: proportion of participants with MS reporting that TTNS is acceptable [6 weeks] — The proportion of participants with MS reporting that TTNS is acceptable.</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>International Consultation of Incontinence Questionnaire-Overactive bladder (ICIQ-OAB) [6 weeks] — Changes in the severity of scores for bladder storage symptoms experienced by participants measured using ICIQ-OAB. It has grade A for validity, reliability and responsiveness to change established with rigour on one data set. The total score ranges from 0 to 16 with higher values indicating increased symptom severity. Bother scales are not incorporated in the overall score.; Kings Health Questionnaire [6 weeks] — Changes in scores for the effect of urinary symptoms in activity of daily living measured by the Kings Health Questionnaire. Each domain within the Kings Health Questionnaire is scored on a 0 (best) to 100 (worst) scale. A change from baseline of 5 points or higher on most of the King's Health Questionnaire domains represents a clinically meaningful improvement in health-related quality of life after treatment.; 3- day bladder diary [6 weeks] — Number of episodes of frequency, nocturia, and incontinence/ 72 hours will be calculated and compared from baseline with higher values indicating increased symptom severity.; Patient Perception of Intensity of Urgency Scale [6 weeks] — Number of urgency episodes and severity of urgency/72 hours will be calculated and compared from baseline. The total score ranges from 0 to 4 with higher values indicating increased symptom severity.</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -7807,6 +9989,17 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7848,6 +10041,17 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7889,6 +10093,20 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -7926,6 +10144,17 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7963,6 +10192,31 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8004,6 +10258,17 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -8041,6 +10306,17 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at Week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during the first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement.</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -8078,6 +10354,17 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8119,6 +10406,13 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8164,6 +10458,22 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Change of Urinary frequency [at 6th and 22nd day] — mean of voluntary urination episodes daytime during 4 days of bladder diary; Change of Urge score [at 6th and 22nd day] — mean of score evaluating the perception of urge that patient experiences every urination. The subscale scores are:
+* 0, if patient doesn't need to urinate, but urinates before going out from home or concerned about the unavailability of toilet;
+* 1, if patient doesn't experience urgent urination;
+* 2, presence of urgency but disappeared before getting to the toilet;
+* 3, presence of urgency and reached the toilet without leakage of urine
+* 4, presence of urgency and did not reach the toilet with leakage of urine; Change of total score of OAB-q ( Overact Bladder questionnaire) long form [at 3rd and 18th day] — questionnaire evaluates the impact of overactive bladder symptoms on activities of daily living 8 ITEMS SYMPTOM BOTHER (each item has a subscale score from 1 to 6) + 25 ITEMS HEALTH-RELATED QUALITY OF LIFE (each item has a subscale score from 1 to 6)</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Change of Urine volume [at 6th and 22nd day] — Minimum , maximum and mean of urine volume voiding during 4 days of bladder diary; Change of episodes of urinary incontinence [at 6th and 22nd day] — Mean of involuntary leakage of urine during 4 days of bladder diary; Change of episodes of nocturia [at 6th and 22nd day] — Mean of voluntary urination episodes nightime during 4 days of bladder diary; Change of Postvoid Residual Volume [at 3rd and 18th day] — Mean of 3 measurement of Urine residual after voluntary voiding; Change of Pad-test 24 Hours [at 6th and 22nd day] — Mean of numbers and weight of pads; PGI (Patient global impression of improvement) [at 18th day] — Questionnaire on subjective impression of improvement of overactive bladder symptoms; Change of value at Uroflussimetry [at 3rd and 18th day] — Mean of maximum urinary flow rate (Qmax) value at uroflussimetry; Change of value at "H REFLEX" test [at 6th and 22nd day] — Evaluation of H wave mean amplitude and of Ratio of maximum H reflex to maximum M response after a train of stimuli given at 1 and 0.1 Hz; Change of EDSS (Expanded Disability Status Scale) [at 2nd and 22nd day] — Mean of value at EDSS that quantifying disability in multiple sclerosis; Change of Barthel Index Score [at 2nd and 22nd day] — Mean of total score measuring performance in activities of daily living; Change of MAS (Modified Ashworth Scale ) [at 2nd and 22nd day] — Mean of score (0-4) measuring spasticity of plantarflexors and Hamstring muscles</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8205,6 +10515,17 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8246,6 +10567,17 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -8283,6 +10615,17 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8320,6 +10663,31 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8361,6 +10729,17 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -8398,6 +10777,17 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8439,6 +10829,17 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8488,6 +10889,27 @@
         </is>
       </c>
       <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Patient global impression of Improvement (PGI-I) questionnaire [at the end-of-study visit named Visit 2, corresponding at week 12-16 from Visit 1, that is the management start-up visit] — In participants with recorded LUTS, it will be measured the subjective impression of improvement after at least three months of stable urinary disorder management, by means of the PGI-I questionnaire. The PGI-I is a 1-item questionnaire designed to assess the patient's impression of change with values ranging from 1 to 7; higher scores mean a worse outcome. Patient is required to "Check the one number that best describes how you feel now" by entering his answer on a 7-point scale scored as: (1) "very much better," (2) "much better," (3) "a little better," (4) "no change," (5) "a little worse," (6) "much worse," or (7) "very much worse." For this study, investigators will evaluated as primary outcome measure "the percentage of patient gave a response to PGI-I equal to or less than 2".</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Qualiveen-Short Form (SF) questionnaire [at the end of screening period named Visit 0, and at Visit 2 (weeks 12-16 from Visit 1, that is the management start-up visit)] — In participants with recorded LUTS, it will be measured the patient reported urinary-related quality of life by means of the Qualiveen-Short Form (SF) questionnaire. It's a specific health related quality of life (HRQOL) with questionnaire for urinary disorders in patients with neurological conditions, such as Multiple Sclerosis.
+The Qualiveen-SF is an 8-items questionnaire. Response options are framed as 5-point Likert-type scales with 0 indicating no impact of urinary problems on HRQOL and 4 indicating a high adverse impact of urinary difficulty on HRQOL. Qualiveen domain scores are calculated as an average of the scores on items in that domain and, thus, the range is 0 to 4 with an overall score representing the mean of the 4 domains, which also ranges from 0 to 4. Higher scores mean worse outcome.
+For this study investigators will evaluated whether three-months (max 4 months) of urinary disorder stable management may change HRQOL in terms of Qualiveen-SF scores.; Post-void residual volume (PVR) assessment [at visit 0 and Visit 2 (weeks 12-16 from Visit 1, that is the management start-up visit)] — The post-void residual volume (PVR) measured in ml is the urine volume remaining in bladder after a physiological micturition. It will be measured by ultrasound scans and calculated by the radiologist subtracting post-void bladder volume from pre-void bladder volume.
+For this study, the investigators will evaluate whether three months (max 4 months) of urinary disorder stable management may change the amount of PVR.
+Lower volume values mean better outcome.; Micturitions' frequency and episodes of urgency/incontinence at three days frequency/volume chart [at visit 0 and Visit 2 (weeks 12-16 from Visit 1, that is the management start-up visit)] — In participants with recorded LUTS, it will be measured the number of daily micturitions and episodes of urgency or incontinence signed on a three days frequency/volume chart. Frequency/volume chart is a brief diary where patients are asked to record for three days how many times they urinate and the volume of each micturition; they are also asked to record each episode of urinary urgency and incontinence. Higher numbers mean worse outcome.
+As secondary outcome, it will be evaluated whether three months (max 4 months) of urinary disorder stable management may change the numbers of micturitions and numbers of urinary urgency and/or incontinence.</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Prevalence of LUTS [at Visit 0 (screening visit)] — Considering all participants underwent screening visit, it will be estimated the prevalence of Low Urinary Tract Symptoms (LUTS); a new diagnostic screening model consisting of the Urinary Bothersome Questionnaire for Multiple Sclerosis (UBQ-MS), the Actionable Bladder Symptoms Screening Tool (ABSST) questionnaire and the PVR volume is used; LUTS is defined by the presence of at least one diagnostic tool with abnormal finding: UBQ-MS score at least 1, ABSST at least 3, PVR at least 100 ml or more than 30% of pre-void assessed volume.; Demographic, Clinical and instrumental characteristics [at visit 0 (screening visit)] — Evaluating the presence of demographic (age, sex, BMI), clinical (disease duration, phenotype, Expanded Disease Status Scale, spinal lesions and their location, therapy, comorbidities) and instrumental factors (urinalysis with urine culture, radiological imaging, number of urinations and urgency-frequency episodes with frequency / volume chart) predictive of the type of urinary disorders reported.; Patient global impression of Improvement (PGI-I) questionnaire, Qualiveen-Short Form questionnaire, Post-void residual volume (PVR) amount, Micturitions' frequency and episodes of urgency/incontinence at three days frequency/volume chart [at visit 0 (screening visit) and visit 2 (weeks 12-16 from Visit 1, that is the management start-up visit)] — Finally, by means of a subgroup analysis, the investigators will evaluate whether enrolled participants managed by neurologists or by urologists show any difference in scores of Patient global impression of Improvement (PGI-I) questionnaire, Qualiveen-Short Form questionnaire, Post-void residual volume (PVR) assessment, Micturitions' frequency and episodes of urgency/incontinence at three days frequency/volume chart.
+According to the specific MS center clinical practice, patients with MS may be managed by the neurologist or by the urologist by the urologist to whom they will be referred.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8529,6 +10951,17 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8570,6 +11003,17 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -8607,6 +11051,17 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at Week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during the first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement.</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -8644,6 +11099,17 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8685,6 +11151,17 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -8722,6 +11199,17 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -8759,6 +11247,17 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8800,6 +11299,13 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -8837,6 +11343,17 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8878,6 +11395,17 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Maximum cystometric capacity (MCC) [1 week] — Examined during filling cystometry as measured by changes from baseline following treatment for one week.</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>Number of Participants with Adverse Events as a Measure of Safety [1 week] — Safety (physical exam, vital signs, haematology, coagulation parameters, clinical chemistry and urinalysis, ECG, pregnancy test, hand immersion test and PK \[concentrations of SAF312 in blood\]).; Bladder threshold vol, threshold pressure, instilled vol at first leak, detrusor pressure at first leak, vol/detrusor pressure at first sensation and at first desire to void, maximum detrusor pressure during filling/storage, bladder wall compliance [1 week] — All parameters examined during filling cystometry as measured by changes from baseline following treatment for one week; Micturition or catheterization frequency [1 week] — Changes from baseline, as measured by daily diaries.; Incontinence episodes [1 week] — Changes from baseline as measured by daily diaries.</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8919,6 +11447,17 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8960,6 +11499,13 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Percent Change From Baseline in Frequency of Micturition Per Day at 8 Weeks. [Baseline and 8 weeks after randomization.] — Number of micturitions per day was assessed using a patient diary during three days at baseline and after 8 weeks of treatment. The relative change in mean number of micturitions was compared between the groups. The change was calculated as percent change = ((measure at 8 weeks - measure at baseline)/measure at baseline)\*100%.</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9001,6 +11547,17 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9042,6 +11599,21 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Presence of neurogenic detrusor overactivity during cystometry, defined as contractions with amplitudes above 40 cm H2O. [12 months]</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Urodynamic parameters [12 months] — Maximal detrusor pressure (cmH2O), maximal bladder capacity (ml), compliance (ΔcmH2O/Δml), and occurrence of DSD.; Quality of life (QOL) in the treated group compared to the placebo group 12 months after first treatment. [12 months]; Occurrence of complications. [12 months]</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Detrusor pathophysiology [12 months] — Differences in levels of transmitters and receptors relevant to development of bladder dysfunction, measured in urine samples and bladder biopsies, to gain knowledge of the pathophysiology behind neurogenic detrusor overactivity.</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9083,6 +11655,21 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Presence of neurogenic detrusor overactivity during cystometry, defined as contractions with amplitudes above 40 cm H2O. [12 months]</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Urodynamic parameters [12 months] — Maximal detrusor pressure (cmH2O), maximal bladder capacity (ml), compliance (ΔcmH2O/Δml), and occurrence of DSD.; Quality of life (QOL) in the treated group compared to the placebo group 12 months after first treatment. [12 months]; Occurrence of complications. [12 months]</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Detrusor pathophysiology [12 months] — Differences in levels of transmitters and receptors relevant to development of bladder dysfunction, measured in urine samples and bladder biopsies, to gain knowledge of the pathophysiology behind neurogenic detrusor overactivity.</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9120,6 +11707,17 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Bladder pressure [24 hours] — The bladder pressure recorded simultaneously by a conventional clinical system and the prototype will be used for a systemstic comparison analysis in the time-amplitude and the time-frequency domains.</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Advert effects monitoring and resolution [72 hours] — Subjects will be examined for any subjective or objective adverse events. The transurethral technique is well-known, and the complication rates are very low. However, there are known complications such as urinary tract infection, hematuria, pain, retention, and autonomic dysreflexia in tetraplegics. Subjects will be routinely examined for all these conditions, and if any of them occur, adequate treatment will be initiated according to hospital guidelines. The small-sized sensor tube (Ø ≈ 1.2 mm) provides a minimally invasive clinical procedure. In case of perforation, the lesion will be small.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9161,6 +11759,17 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9202,6 +11811,17 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9239,6 +11859,18 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>ICIQ-SF [6 months] — The ICIQ-SF questionnaire is a brief questionnaire that was devised to assess the burden of urinary incontinence in a patient's life, evaluating its impact on patients' QoL. It is composed by four questions that evaluate frequency, severity, and impact of incontinence on QoL and another section evaluating usual urinary loss situations. The minimum and maximum values range between 0-21 points. Higher the score, the greater the severity of the symptoms.
+The ICIQ-SF has been chosen as the validation questionnaire.; Neurogenic Bladder Symptom Score Questionnaire (NBSS) [6 months] — Neurogenic Bladder Symptom Score Questionnaire is a 24 item self-reported questionnaire (0-74 points). The questionnaire includes 4 subgroups; incontinence (0-29 points), storage\&amp;voiding (0-22 points) and consequences (0-23 points). Higher the score, the greater the severity of the symptoms.; Qualiveen [6 months] — The Qualiveen is divided in two major sections-Specific Impact of Urinary Problems on Quality of Life (SIUP) and General Quality of Life (GQoL).
+The first part, specific for urinary problems, has a total of 30 questions and is divided in four domains: inconvenience, restrictions, fears, and impact on daily life (9, 8, 8, and 5 questions, respectively).
+Each answer has five quantified items on a five category ordinal Likert scale with values ranging from 0 (no impact) to 4 (greatest negative impact). The average for each domain is calculated and used to obtain the final SIUP score (average of all domains, range from 0 to 4, 4 being the greatest negative impact).
+The second section, GQoL, has nine questions, also with a five-category ordinal Likert scale. It ranges from Very badly to Very well, with values ranging from -2 to +2, respectively.
+Final general QoL value is calculated as the average for the nine questions, also ranging from -2 to +2.; Short Form Qualiveen (SF-Qualiveen) [6 months] — The SF-Qualiveen is a validated short version of the Qualiveen questionnaire and evaluates urinary-specific quality of life. The SF-Qualiveen consists of eight questions and reports on four domains of two questions each: bother with limitations, fears, feelings, and frequency of limitations. Responses are given on a 5-point Likert like scale, where a score of 0 indicates "no impact" and 4 "high impact." The SF-Qualiveen total score is calculated as the mean of the eight responses and the domain scores are calculated as the mean score of the responses per domain.; The King's Health Questionnaire (KHQ) [6 months] — The King's Health Questionnaire (KHQ) is one of the most widely used for assessing QOL in patients with urinary incontinence (UI).The KHQ consists of two parts and 32 items. The first part (21 items) contains two single-item questions that address General Health Perception and Incontinence Impact and the following seven multi-item domains: Role, Physical, and Social Limitations, Limitations in Personal Relationship, Emotional Problems, Sleep and Energy Disturbances associated with UI, and Severity Measures for UI. The second part has an 11-item Symptom Severity Scale (SSS) that assesses the presence and severity of urinary symptoms. While the entire SSS is scored from 0 (best) to 30 (worst), the minimum possible score is 0 (best health) and the maximum possible score is 100 (worst health) for all other KHQ domains.</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9280,6 +11912,17 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9321,6 +11964,17 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -9358,6 +12012,17 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9411,6 +12076,13 @@
         </is>
       </c>
       <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Urethra sensation [30 days after spinal injury,] — 2 - preserved, 1- reduced, 0 - absent; Urethra sensation [after 3 months of rehabilitation] — 2 - preserved, 1- reduced, 0 - absent; Intravesical pressure [30 days after spinal injury,] — 0- normal, 1- low; Intravesical pressure [after 3 months of rehabilitation] — 0- normal, 1- low; Bladder complaince [30 days after spinal injury,] — 2- high, 1- reduced; Bladder complaince [after 3 months of rehabilitation] — 2- high, 1- reduced; Bladder stability [30 days after spinal injury,] — 0 -stable, 1- hyperactive; Bladder stability [after 3 months of rehabilitation] — 0 -stable, 1- hyperactive; Bladder sensation [30 days after spinal injury] — 2-preserved,1- reduced, 0- absent; Bladder sensation [after 3 months of rehabilitation] — 2-preserved,1- reduced, 0- absent; Bladder capacity [30 days after spinal injury] — ml ( Average, Median, SD); Bladder capacity [after 3 months of rehabilitation] — ml ( Average, Median, SD); Urine volume [30 days after spinal injury] — ml ( Average, Median,SD); Urine volume [after 3 months of rehabilitation] — ml ( Average, Median,SD)</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9452,6 +12124,17 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -9489,6 +12172,21 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Daily Average Frequency of Urinary Incontinence Episodes [Baseline, Week 6] — Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. The number of episodes of urinary incontinence is recorded over a 3-day period the week of the study visit. A negative number change from baseline indicates a reduction in incontinence episodes (improvement) and a positive number change indicates an increase in incontinence episodes (worsening).</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in the maximum volume of urine the bladder holds and a negative number change from baseline represents a worsening (decrease) in the maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure During the First Involuntary Detrusor Contraction (IDC) [Baseline, Week 6] — Maximum detrusor pressure represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. A negative number change from baseline indicates an improvement in pressure and a positive number change from baseline indicates a worsening in pressure.; Change From Baseline in Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Baseline, Week 6] — The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement and a negative change from baseline represents a worsening.</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Duration of Treatment Effect Through Week 52 [Up to 52 Weeks] — The duration of treatment effect is the time to patient request for retreatment.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9530,6 +12228,20 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Daily Incontinence Episode Frequency (IEF) [Baseline and Day 84]</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Urodynamics: Maximum Cystometric Capacity [Baseline, Days 14, 42 and 84] — Maximum Cystometric Capacity is an urodynamic parameter that indicates the volume at which a patient feels he (she) can no longer delay release of urine from the urinary bladder. Baseline urodynamics exams done at screening visit.; Urodynamics:Maximum Detrusor Pressure [Baseline, Days 14, 42 and 84] — Maximum Detrusor Pressure is an urodynamic parameter that is the maximum value of the pressure within the bladder which is measured during the filling phase of the urodynamic exam. Baseline urodynamics exams done at screening visit.; Physician's Global Assessment Score of Treatment Response [Day 14] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 42] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Physician's Global Assessment Score of Treatment Response [Day 84] — The subject's treatment response was assessed by the physician and graded as 'markedly worse', 'much worse', 'worse', 'slightly worse', 'no change', 'slightly improved', 'improved', 'much improved', or 'markedly improved'.; Quality of Life (QoL) Total Summary Score [Baseline, 14, 42 and 84] — Mean Change from Baseline in Short Form (SF)-Qualiveen Questionnaire Calculated Total Score.
+The SF-Qualiveen questionnaire is a specific health related QoL questionnaire validated for urinary disorders in subjects with neurological conditions containing 8 items looking at four scales: limitations (2 items); constraints (2 items); fears (2 items) and feelings (2 items). The 8 items each having a 5-point Likert-type scale ranging from 0="Not at all" to 4="Extremely" for the first 6 items, from 0="Never" to 4="Always" for item 7 and from 0="Always" to 4="Never" for item 8. The score per scale has been calculated as the mean of the two items. In case of one missing item among the 2 items for a given scale, the score has not been calculated.
+Total score has been calculated as the mean of all the items completed among the 8 items.
+Lower scores indicate a better QoL (i.e. no limitations, fears, constraints, or negative feelings) and higher scores indicate poorer QoL.; Pain Visual Analogue Scale (VAS) Score: Before Treatment Injection [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.; Pain Visual Analogue Scale (VAS) Score: During Treatment Injection Procedure [Baseline] — Pain assessment using the VAS. The VAS is a 100-mm (10-cm) scoring scale. Score range on VAS is from 0 to 100 where zero \[0\] indicates no pain and 100 indicates worst possible pain.</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9571,6 +12283,17 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9612,6 +12335,17 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -9649,6 +12383,17 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9690,6 +12435,17 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9731,6 +12487,17 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9772,6 +12539,17 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9813,6 +12591,17 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -9850,6 +12639,17 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at Week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during the first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement.</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -9887,6 +12687,17 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -9924,6 +12735,21 @@
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Daily Average Frequency of Urinary Incontinence Episodes [Baseline, Week 6] — Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. The number of episodes of urinary incontinence is recorded over a 3-day period the week of the study visit. A negative number change from baseline indicates a reduction in incontinence episodes (improvement) and a positive number change indicates an increase in incontinence episodes (worsening).</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in the maximum volume of urine the bladder holds and a negative number change from baseline represents a worsening (decrease) in the maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure During the First Involuntary Detrusor Contraction (IDC) [Baseline, Week 6] — Maximum detrusor pressure represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. A negative number change from baseline indicates an improvement in pressure and a positive number change from baseline indicates a worsening in pressure.; Change From Baseline in Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Baseline, Week 6] — The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement and a negative change from baseline represents a worsening.</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Duration of Treatment Effect Through Week 52 [Up to 52 Weeks] — The duration of treatment effect is the time to patient request for retreatment.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9965,6 +12791,17 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10006,6 +12843,17 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10047,6 +12895,17 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Incidence of treatment-emergent adverse events [Day 28] — Treatment-emergent adverse events occurred with treatment with Rec 0/0438</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Maximum Plasma Concentration (Cmax) [Day 1 and Day 7] — Peak Plasma Concentration (Cmax); Area Under the Curve (AUC) [Day 1 and Day 7] — Area under the plasma concentration versus time curve (AUC); Change from baseline in Maximum Cystometric Capacity [Day 28] — The volume at which uncontrollable voiding begins during filling Cystometry</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10088,6 +12947,17 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10129,6 +12999,17 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10170,6 +13051,17 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10211,6 +13103,17 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10252,6 +13155,17 @@
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -10289,6 +13203,17 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -10326,6 +13251,17 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -10363,6 +13299,17 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10416,6 +13363,17 @@
         </is>
       </c>
       <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Degree of urinary continence [Through study completion, for an average of 6 weeks] — Urinary continence will be assessed daily by the nursing staff as either complete, partial or incontinence</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Presence of urinary-disorders-related complications [Through study completion, for an average of 6 weeks] — Pressure ulcers, falls and urinary infections caused by urinary disorders will be recorded</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10457,6 +13415,17 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -10494,6 +13463,17 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -10531,6 +13511,17 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Characteristics of responders and non responder with respect to the electrophysiological (skin sympathetic response, bulbocavernosus reflex and somatosensory and pudendal evoked potential), urodynamical and clinical (ASIA group) tests [4 treatment days] — Responders are defined as subjects with rigidity ≥ 60% in the base measured with RigiScan during at least 5 minutes after withdrawing the vibrator and/or finishing manual stimulation.</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Duration of an erection ≥ 60% in the base induced by an erectogenic stimulus (vibrator and/or manual) in each subject after administering a 10 mg dose of vardenafil or placebo [4 treatment days]; Duration of an erection ≥ 60% in the base induced by an erectogenic stimulus (vibrator and/or manual) in each subject after administering a 20 mg dose of vardenafil or placebo [4 treatment days]; Number of participants with adverse events [Approximately 4 weeks]</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10572,6 +13563,17 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Videocystometry [week 4, 12, 26, 38, 52 after SCI]</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Neurophysiological measurements (NCV, BCR, SSR) [week 2, 4, 12, 26, 38, 52 after SCI]</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10613,6 +13615,17 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10654,6 +13667,17 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10695,6 +13719,17 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -10732,6 +13767,17 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10773,6 +13819,17 @@
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Change of Urinary Incontinence status after prompted voiding program (PVP) [at admission, at discharge (about 30 to 60 days), 1 , 3 and 6 month post discharge] — To value the efficacy of prompted voiding therapy to recovery urinary continence in elderly hospitalized at functional recovery ward. Data wil be collected from nursing assessment at admission, at discharge and telephone call.; Improve urinary incontinence episodes/symptoms after prompted voiding program. [at admission, each 15 days along admission, at discharge (about 30 to 60 days).] — To value the efficacy of prompted voiding therapy to improve urinary incontinence episodes/symptoms (episodes frequency, volume loss, type pad used) in elderly hospitalized at functional recovery ward. It Will be measure with assistance nurse record.</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Change of Urinary Incontinence status after PVP in admitted patients with Stress Urinary Incontinence [at admission, at discharge.(about 30 to 60 days)] — Assessment will be with IU4 questionnaire and NANDA diagnosis. Data will be collected from nursing assessment at admission and nursing assesment at discharge records.; Change of Urinary Incontinence status after PVP in admitted patients with Emergency Urinary Incontinence [at admission, at discharge.(about 30 to 60 days)] — Assessment will be with IU4 questionnaire and NANDA diagnosis. Data will be collected from nursing assessment at admission and nursing assesment at discharge records.; Change of Urinary Incontinence status after PVP in admitted patients with Mixed Urinary Incontinence [at admission, at discharge.(about 30 to 60 days)] — Assessment will be with IU4 questionnaire and NANDA diagnosis. Data will be collected from nursing assessment at admission and nursing assesment at discharge records.; Change of Urinary Incontinence status after PVP in admitted patients with Functional Urinary Incontinence [at admission, at discharge.(about 30 to 60 days)] — Assessment will be with IU4 questionnaire and NANDA diagnosis. Data will be collected from nursing assessment at admission and nursing assesment at discharge records.; Change from Urinary Incontinence status after PVP in admitted patients with Reflects Urinary Incontinence [at admission, at discharge.(about 30 to 60 days)] — Assessment will be with IU4 questionnaire and NANDA diagnosis. Data will be collected from nursing assessment at admission and nursing assesment at discharge records.; Change of Urinary Incontinence status after PVP in admitted patients with Total Urinary Incontinence [at admission, at discharge.(about 30 to 60 days)] — Assessment will be with IU4 questionnaire and NANDA diagnosis. Data will be collected from nursing assessment at admission and nursing assesment at discharge records.; Urinary Incontinence (UI) status reached related with aged. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records.; Urinary Incontinence (UI) status reached related with cognitive ability. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records. Cognitive impairments will be measure with Pfeiffer test.; Urinary Incontinence (UI) status reached related with Functional ability. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records. Functional ability will be measure with Barthel Scale.; Urinary Incontinence (UI) status reached related with risk diseases presence. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records. Risk diseases: Diabetes Mellitus, Parkinson Disease, Heart Failure, Obesity, Urinary Tract infection, Nervous System Diseases, Stroke, Abdomen and pelvis surgery.; Urinary Incontinence (UI) status reached related with risk drugs. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records and drug prescriptions. Risk drugs: Diuretics; sedatives; hypnotics; anticholinergics; amitriptyline; opioid analgesics, cholinesterase inhibitors.; Urinary Incontinence (UI) status reached related with overweigth. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records. Body Mass Index greater than or equal to 25; Urinary Incontinence (UI) status reached related with caregiver presence. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records.; Urinary Incontinence (UI) status reached related to diagnosis of admission [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records. 3 groups will be assigned: Femoral Fractures, stroke, functional disability.; Urinary Incontinence (UI) status reached related to risk of Skin Ulcer [at admission, at discharge (about 30 to 60 days)] — Data will be collected from clinical history records. It will be valuated with Norton Scale.; Urinary Incontinence (UI) status reached related to fall risk. [at admission, at discharge (about 30 to 60 days)] — Data will be collected from clinical history records. It will be valuated with Sytratify Scale.; Urinary Incontinence (UI) status reached related to days of hospitalization. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records.; Urinary Incontinence (UI) status reached related with time of UI. [at admission, at discharge (about 30 to 60 days)] — To Identify promoting/difficulty continence factors. Data will be collected from clinical history records.</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -10810,6 +13867,17 @@
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10851,6 +13919,17 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -10888,6 +13967,17 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10929,6 +14019,17 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -10966,6 +14067,17 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at Week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during the first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement.</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -11003,6 +14115,17 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -11040,6 +14163,17 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Characteristics of responders and non responder with respect to the electrophysiological (skin sympathetic response, bulbocavernosus reflex and somatosensory and pudendal evoked potential), urodynamical and clinical (ASIA group) tests [4 treatment days] — Responders are defined as subjects with rigidity ≥ 60% in the base measured with RigiScan during at least 5 minutes after withdrawing the vibrator and/or finishing manual stimulation.</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>Duration of an erection ≥ 60% in the base induced by an erectogenic stimulus (vibrator and/or manual) in each subject after administering a 10 mg dose of vardenafil or placebo [4 treatment days]; Duration of an erection ≥ 60% in the base induced by an erectogenic stimulus (vibrator and/or manual) in each subject after administering a 20 mg dose of vardenafil or placebo [4 treatment days]; Number of participants with adverse events [Approximately 4 weeks]</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11081,6 +14215,17 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11134,6 +14279,21 @@
         </is>
       </c>
       <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Continence rate (Objective) assessed by an effort test [Month 1] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.; Continence rate (Objective) assessed by an effort test [Month 6] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.; Continence rate (Objective) assessed by an effort test [Year 1] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.; Continence rate (Objective) assessed by an effort test [Year 2] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.; Continence rate (Objective) assessed by an effort test [Year 3] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.; Continence rate (Objective) assessed by an effort test [Year 4] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.; Continence rate (Objective) assessed by an effort test [Year 5] — For the analysis of the objective cure of incontinence, an effort test will be carried out through three strokes of cough, with bladder volume between 200-300 ml in a lithotomy position.</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>Continence rate (Subjective) assessed by Incontinence Questionnaire-Urinary Short Form (ICQ-SF) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — Incontinence Questionnaire-Urinary Short Form (ICQ-SF): continent patient when the reduction is equal to or greater than 50% of the value prior to the intervention.; Pad test [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — 1 hour pad test: After a spontaneous urination the patient will place a compress that will be weighed previously.
+After, the patient has to drink a half liter of water in 15 minutes sitting. Between the minute 15 to 45 has to walk and / or go up / down stairs. From minute 45-60 the patient has to get up and sit 10 times, cough 10 times, run 1 minute, lift an object from the ground 10 times and washes his/her hands 1 minute.
+According to the difference in weight of the compress, it will be cataloged as follows:
+≤ 1 gram -\&gt; continent. 1.1-9.9 grams -\&gt; mild incontinence. 10-49.9 grams -\&gt; moderate incontinence. \&gt; 50 grams -\&gt; severe incontinence; Patient satisfaction assessed by PGI-I (Patient Global Impression of Improvement) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — PGI-I consider a patient satisfied when the patient answer " better or much better".; Patient satisfaction assessed by the "Global Satisfaction Test" [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — Global satisfaction assessment will be required, with a rank 1-5, being 1 very satisfied and 5 very dissatisfied.; Patient satisfaction assessed by the "Recommendations questionnarie" [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — The recommendation grade will be assessed through the question "will you recommend this surgical treatment for other patients?", the possible answer are Yes or No.; Evaluation of life quality improvement assessed by I-QoL questionnaire (Urinary Incontinence-Specific Quality of Life Instrument) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — To assess the life quality impact, I-QoL questionnaire (Urinary Incontinence-Specific Quality of Life Instrument) will be used , this questionnaire, is composed by 22 items. The highest punctuation mean better life quality. The modification of 2.5 points, which has been considered in this questionnaire, is the minimum clinically significant modification in patients presenting SUI. This questionnaire is validated in Spanish.; Evaluation of sexual life, assessed by PSIQ 12 questionnaire (Pelvic Organ Prolapse/Urinary Incontinence Sexual Questionnaire ) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — To assess the impact on sexual life, the PSIQ 12 questionnaire (Pelvic Organ Prolapse/Urinary Incontinence Sexual Questionnaire ) will be used. It is composed of 12 items graded from "never" to "always". This questionnaire is validated in heterosexual women who have urinary incontinence and / or pelvic organ prolapse. Scores are calculated for each item with a value of "always = 0" and for "never = 4". It is used inversely in items 1-4.; Early complications assessed by Post-Mictional Residue [Day 0, 7-10 days after the intervention, Month 1] — Are considered by the urgency of urination, the inability to void, the presence of PMR greater than 50% of the total volume after spontaneous voiding or the presence of pain that prevents ambulation, in the first 30 days after the intervention.
+For the elevated PMR assessment, perineal ultrasound measurement will be carried out after spontaneous micturition. If the PMR measurement will be higher or equal, probing would be performed to obtain the exact residue. If it is pathological, proceed according to the usual practice.; Early complications assessed by OAB-q questionnaire (Overactive Bladder symptom and health-related quality of life questionnaire) [Day 0, 7-10 days after the intervention, Month 1] — OAB-q questionnaire (Overactive Bladder symptom and health-related quality of life questionnaire). Individual answer punctuation: lowest 0, highest 5 .If the score ≥8 will proceed according to the usual practice.; Long term complications assessed by OAB-q questionnaire (Overactive Bladder symptom and health-related quality of life questionnaire) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — OAB-q questionnaire (Overactive Bladder symptom and health-related quality of life questionnaire). Individual answer punctuation: lowest 0, highest 5 .If the score ≥8 will proceed according to the usual practice.; Early complications assessed by VAS (Visual Analogue Scale) [Day 0, 7-10 days after the intervention, Month 1] — Only when the patient has a pain that prevents ambulation. VAS: Pain scale for quantification of pain. Range 0 to 10. 0: No pain 5: Distressing pain 10: Unbearable pain; Long term complications assessed by "Extrusion" (integrity of the vaginal mucus) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — Extrusion: The integrity of the vaginal mucus will be checked in all the visits that are made. If there is evidence of mesh extrusion, it is classified as asymptomatic / symptomatic and according to its size (greater or less than 1 cm).; Long term complications assessed by emergence of recurrent urinary tract infections (UTIs) [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — Urinary tract infection: in the presence of at least 1 monthly urinary tract infections (UTI), the patient will be considered to have developed repeat UTIs.; Long term complications assessed by "Emptying dysfunction" [Month 1, month 6, year 1, year 2, year 3, year 4 and year 5.] — Persistent urinary retention at 30 days will be considered as a long term complication.</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11175,6 +14335,17 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Decrease in the number of urinary leakages from baseline [12 weeks] — Difference in the mean number of leakages (Registered for 3 days with a bladder diary)</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>Decrease of urinary incontinence severity from baseline [4,8 and 12 weeks] — Comparison of the results: Questions 1, 2 and 3 of the International Consultation on Incontinence Questionnaire (ICIQ-SF) between the group 1 and 2; Change in quality of life from baseline [4,8 and 12 weeks] — Comparison of the results (Question 3 of the questionnaire ICIQ-SF and second part (13 questions) of the Overactive Bladder questionnaire (OABQ-SF) between the group 1 and 2; Decrease in the number of urinary leakages from baseline [4 and 8 weeks] — Comparison of the results (Registered for 3 days with a bladder diary) between the group 1 and 2; Lower urinary tract symptoms from baseline [4,8 and 12 weeks] — Comparison of de results (First part (6 questions) of the questionnaire OABQ-SF) between the group 1 and 2; Adherence [12 weeks] — Comparison of the results (Registered with exercise diary)between the group 1 and 2</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11216,6 +14387,17 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Proportion of patients with bacteriuria &lt;10^3 CFU/ml [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The proportion of patients with at least one sample \&lt;10\^3 CFU/ml within the 7 day treatment period will be evaluated.</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Time (number of days) to reduction of bacteriuria (&lt;10^3 CFU/ml) [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The number of days until reduction of bacteriuria (\&lt;10\^3 CFU/ml) will be evaluated. Maximum treatment period is 7 days.</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11257,6 +14439,17 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Proportion of patients with bacteriuria &lt;10^3 CFU/ml [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The proportion of patients with at least one sample \&lt;10\^3 CFU/ml within the 7 day treatment period will be evaluated.</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Time (number of days) to reduction of bacteriuria (&lt;10^3 CFU/ml) [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The number of days until reduction of bacteriuria (\&lt;10\^3 CFU/ml) will be evaluated. Maximum treatment period is 7 days.</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11298,6 +14491,17 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Proportion of patients with bacteriuria &lt;10^3 CFU/ml [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The proportion of patients with at least one sample \&lt;10\^3 CFU/ml within the 7 day treatment period will be evaluated.</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Time (number of days) to reduction of bacteriuria (&lt;10^3 CFU/ml) [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The number of days until reduction of bacteriuria (\&lt;10\^3 CFU/ml) will be evaluated. Maximum treatment period is 7 days.</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11339,6 +14543,17 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Proportion of patients with bacteriuria &lt;10^3 CFU/ml [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The proportion of patients with at least one sample \&lt;10\^3 CFU/ml within the 7 day treatment period will be evaluated.</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>Time (number of days) to reduction of bacteriuria (&lt;10^3 CFU/ml) [7 days] — Bacteriuria will be followed by daily urinary cultures, 3 hours after morning irrigation. The number of days until reduction of bacteriuria (\&lt;10\^3 CFU/ml) will be evaluated. Maximum treatment period is 7 days.</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11376,6 +14591,31 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11429,6 +14669,32 @@
         </is>
       </c>
       <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>The occurrence of neurogenic DO jeopardizing the upper urinary tract [up to 12 months after SCI] — Defined as composite measure: Urodynamic assessment establishing DO amplitude ≥40 cmH2O; or else initiation of DO treatment (with antimuscarinics and/or intradetrusor onabotulinumtoxinA injections)</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Maximum DO amplitude \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bowel diary; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Changes in International Spinal Cord Society (ISCoS) Female / Male sexual function data sets and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in Neurogenic Bowel Dysfunction (NBD) score and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).The NBD score is assessed by using the international spinal cord injury (ISCoS) bowel function basic data set.; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Basal internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[%, mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types of manometric patterns (I-IV) that are identified through manometric assessments; Changes International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) assessment to quantify the severity of the spinal cord injury; Changes in Lower Extremities Motor Scale (LEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — LEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the lower limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Upper Extremities Motor Scale (UEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — UEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the upper limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Spinal Cord Independence Measure III (SCIM-III) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCIM-III ("Spinal Cord Independence Measure III") score is based on questions concerning independence of persons with a spinal cord injured. It consists of 19 items covering 3 domains, self-care, respiration and sphincter management, and mobility. The self-care subscale ranges from 0 to 20. The respiration and sphincter management subscale ranges from 0 to 40. The mobility subscale ranges from 0 to 40. Total score ranges from 0 (symptomatic) to 100 (asymptomatic). Higher scores reflect higher levels of independence.; Changes in spasticity in the knee and elbow flexors and extensors from the Modified Ashworth Scale (MAS) assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The MAS is a 5-point nominal scale that uses subjective clinical assessments of muscle tone ranging from 0 - 'No increases in tone' to 4 - 'Limb rigid in flexion or extension'. A grade of (1+) indicates resistance in the movement.; Changes in spasticity in daily life as assessed by the Spinal Cord Injury Spasticity Evaluation Tool (SCI-SET) questionnaire and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCI-SET ("Spinal Cord Injury Spasticity Evaluation Tool ") score is based on questions concerning the positive and negative effects of spasticity on different areas of daily life. Each of the 35 items are rated on a 7-point scale (-3=extremely problematic; 0=no effect; 3=extremely helpful). Calculations include counts and sum scores of areas of daily life where spasticity is problematic (count range: 0 to 35, sum score range: 35 to 0) or helpful (counts range: 0 to 35, sum score range: 0 to +35) as well as a mean score of all applicable items (range: -3 to +3); Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in lower urinary tract (LUT) neurophysiology: Current perception thresholds (CPTs) and LUT sensory evoked potentials (LUTSEPs) with their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in frequency power of surface electromyography (EMG) and electroencephalography (EEG) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Fast Fourier Transformation analysis for delta, theta, alpha, beta, and gamma band power as assessed via EEG of the cortex and EMG of the muscle; Changes in EMG and EEG coherence measures and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Coherence for EEG and EMG signals computed as cortico-muscular, inter- and intra-muscular coherence for typical EEG/EMG frequency bands (delta, theta, alpha, beta, and gamma).; Changes in white and gray matter area in the lumbosacral enlargement (LSE) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter areas are obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the level of LSE; Changes in white and gray matter area in upper cervical cord (at C2/C3) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the vertebral level C2/C3.; Changes in white and gray matter volume of the conus medullaris (CM) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter volume are obtained by segmenting the T2\*-weighted MRI images for white and gray matter in the CM; Changes in gray and white matter volume in the brain and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gray and white matter volume in the brain are computed by feeding the whole-brain T1-weighted MRI images into a voxel-based morphometry algorithm. Changes in the gray and white matter volume will be evaluated in urologically relevant brain areas.; Changes in fractional anisotropy (FA) in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — FA is a common dimensionless measure used in Diffusion Tensor Imaging (DTI) studies and ranges from 0, isotropic movement of water molecules (e.g., cerebrospinal fluid), to 1, fully anisotropic movement of water molecules (e.g., fiber bundles).; Changes in diffusivity in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Mean, axial, and radial diffusivity (MD, AD, RD) are common measures used in DTI studies providing information about the integrity of the underlying tissue.; Changes in brain and spinal cord tissue microstructure and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Quantitative tissue parameters assessed using MRI Multi-Parameter Mapping.; Expression profile of microRNA (miRNA) in urine and blood as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — MicroRNA (miRNA) sequencing is used to identify regulated miRNAs specific to TTNS intervention in urine and blood.; Changes in inflammatory markers in bladder tissue, blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in levels of neurotransmitters (neurotrophins) in blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Analysis will be performed using ELISA to detect molecules likely to be involved in the underlying molecular mechanisms of neuromodulation.; Changes in the composition of urinary and stool microbiome and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gut and bladder microbial patterns are determined from stool and urine samples; Changes in bladder tissue and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of adverse events (AEs) and serious adverse events (SAEs) for the following categories: [During complete study period, up to 12 months] — * infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* irritation-related symptoms (e.g. dysuria, hematuria) immediately following a LUT intervention
+* neuro-urological deterioration
+* pressure ulcer
+* neurological deterioration
+* increase in pain
+* increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11466,6 +14732,31 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11503,6 +14794,31 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11544,6 +14860,13 @@
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Establishment of mRNA targets and pathways defining a disease state and/or potentially amendable to pharmacological evaluation. [8 years] — Next generation sequencing of bladder wall tissue to determine changes in mRNAs and their targets and pathways</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11581,6 +14904,31 @@
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11618,6 +14966,13 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>Number of patients with successful sacral neuromodulation [2 months] — success versus failure (yes/no variable)</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11659,6 +15014,29 @@
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Magnitude of effect - Number of micturitions per 24h [6 weeks] — The difference in mean values of \[the number of micturitions / 24 h for the last 3 days\] at T0 (inclusion) and T6W (6 weeks after start of the treatment).</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Other parameters of effects - Number of urgent urinations per 24h [2, 6 and 12 weeks after treatment start] — The difference in mean values of \[the number of episodes of urgent urination / 24 h for the last 3 days\] at T0 (inclusion) and T2W (2 weeks after start of the treatment).
+The difference in mean values of \[the number of episodes of urgent urination / 24 h for the last 3 days\] at T0 (inclusion) and T6W (6 weeks after start of the treatment).
+The difference in mean values of \[the number of episodes of urgent urination / 24 h for the last 3 days\] at T0 (inclusion) and T12W (12 weeks after start of the treatment).; Other parameters of effects - Number of urgency urinary incontinence episodes per 24h [2, 6 and 12 weeks after treatment start] — The difference in mean values of \[the number of urgency urinary incontinence episodes / 24 h for the last 3 days\] at T0 (inclusion) and T2W (2 weeks after start of the treatment).
+The difference in mean values of \[the number of urgency urinary incontinence episodes / 24 h for the last 3 days\] at T0 (inclusion) and T6W (6 weeks after start of the treatment).
+The difference in mean values of \[the number of urgency urinary incontinence episodes / 24 h for the last 3 days\] at T0 (inclusion) and T12W (12 weeks after start of the treatment).; Other parameters of effects - Number of nocturnal micturition episodes per 24h [2, 6 and 12 weeks after treatment start] — The difference in mean values of \[the number of nocturnal micturition episodes / 24 h for the last 3 days\] at T0 (inclusion) and T2W (2 weeks after start of the treatment).
+The difference in mean values of \[the number of nocturnal micturition episodes / 24 h for the last 3 days\] at T0 (inclusion) and T6W (6 weeks after start of the treatment).
+The difference in mean values of \[the number of nocturnal micturition episodes / 24 h for the last 3 days\] at T0 (inclusion) and T12W (12 weeks after start of the treatment).; Other parameters of effects - Number of 100% dry patients [6 and 12 weeks after treatment start] — The difference in mean values of \[the number of 100% dry patients / 24 h for the last 3 days\] at T0 (inclusion) and T6W (6 weeks after start of the treatment).
+The difference in mean values of \[the number of 100% dry patients / 24 h for the last 3 days\] at T0 (inclusion) and T12W (12 weeks after start of the treatment).; Other parameters of effects - Urodynamic parameter : cystomanometric capacity [6 weeks after treatment start] — The difference in cystomanometric capacity at 6 weeks after the start of the treatment, as compared to inclusion values.; Other parameters of effects - Urodynamic parameter : reflex volume at first contraction [6 weeks after treatment start] — The difference in reflex volume at first contraction at 6 weeks after the start of the treatment, as compared to inclusion values.; Other parameters of effects - Urodynamic parameter : bladder compliance [6 weeks after treatment start] — Bladder compliance describes the relationship between change in bladder volume (ΔV) and change in detrusor pressure (Δpdet).
+Compliance is calculated by dividing the volume change (∆V) by the change in detrusor pressure (∆pdet) during that change in bladder volume (C= ΔV/∆pdet). It is expressed in ml/cm H2O.; Other parameters of effects - Urodynamic parameter : maximum detrusor pressure [6 weeks after treatment start] — The difference in maximum detrusor pressure at 6 weeks after the start of the treatment, as compared to inclusion values.; Other parameters of effects - Urodynamic parameter : post-void residual after flowmetry [6 weeks after treatment start] — The difference in post-void residual after flowmetry at 6 weeks after the start of the treatment, as compared to inclusion values.</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>Patients reported outcomes - Patients' satisfaction [2, 6 and 12 weeks] — Patients' satisfaction, measured by the Patient Global Impression of Improvement (PGI-I), at 2, 6 and 12 weeks after the start of the treatment, as compared to inclusion values.; Patients reported outcomes - Patients' specific quality of life [2, 6 and 12 weeks] — Patients' specific quality of life, measured by the Urinary Incontinence Quality of Life Scale (I-QOL), at 2, 6 and 12 weeks after the start of the treatment, as compared to inclusion values.; Patients reported outcomes - Subjective improvement [2, 6 and 12 weeks] — Patients' subjective improvement, measured by a Visual Analog Scale (VAS), at 2, 6 and 12 weeks after the start of the treatment, as compared to inclusion values.; Security - Self-catheterizations [Any time during the 12 weeks of the trial] — Need for self-catheterizations according to pre-specified criteria, at any time during the trial; Security - Urinary tract infections [Any time during the 12 weeks of the trial] — Number of urinary tract infections episodes, at any time during the trial; Security - Adverse drug reactions due to anticholinergic drugs [Any time during the 12 weeks of the trial] — Number of adverse drug reactions due to anticholinergic drugs, at any time during the trial; Security - Adverse drug reactions due to Botox [Any time during the 12 weeks of the trial] — Number of adverse drug reactions due to Botox, at any time during the trial</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11712,6 +15090,22 @@
         </is>
       </c>
       <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Occurrence of serious adverse events and adverse events. [From enrolment through study completion, an average of 10 months.] — Occurrence of serious adverse events and adverse events that are deemed related or possibly related to the use of the investigational.</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>ASIA impairment scale - International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) [Pre-implantation (up to 3 weeks pre-implantation) and at the End of Study phase (lasting up to 1 week at 9 months)] — Clinical examination used to assess the motor and sensory impairment and severity of a spinal cord injury.; Spasticity assessment (Modified Ashworth Scale - MAS) [Pre-implantation (up to 2 weeks pre-implantation) and at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — Resistance of a muscle to a passive range of motion about a single joint, measured using the Modified Ashworth Scale (MAS), a 6-point scale with scores of 0, 1, 1+, 2, 3, and 4. A score of 0 indicates no increase in muscle tone, while a score of 4 indicates the affected part is rigid in flexion or extension. Higher scores indicate worse spasticity.; Daily Bladder related diary [Pre-implantation (up to 2 weeks pre-implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), at Follow-up phase and End of Study phase (at months 3 and 6 post-implantation and lasting up to 1 week)] — Self-reported measures including urinary related events (voiding volume by catheterization and electrical stimulation, frequency, daytime and during night frequency, catheterization and volume of residual volume after stimulation, symptomatic urinary tract infection, use of stimulation) reported on a tracking app to quantify changes before and after implantation.; Renal ultrasound [Pre-implantation (up to 3 weeks before implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — Renal ultrasound is used to monitor the kidneys, ureters, and bladder, providing valuable information about kidney size, shape, and position.; Urine sampling [Pre-implantation (up to 3 weeks pre-implantation) and upon suspicion] — Urine sampling is taken to confirm the absence of any urinary tract.; 24 hours urine collection [Pre-implantation (up to 3 weeks pre-implantation) and at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — 24 hours urine collection is taken to quantify the spot albumin and creatinine in the urine. These parameters are used to confirm the absence of any renal dysfunctions.; Blood samples [Pre-implantation (up to 3 weeks pre-implantation) and at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — Blood sampling (max 20mL) is taken to quantify creatinine, aspartate aminotransferase (AST), alanine aminotransferase (ALT) and cystatin C. These parameters are used to confirm the absence of any renal dysfunctions.; Cystometry [Pre-implantation (up to 3 weeks and up to 2 weeks pre-implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — A catheter is inserted into the bladder to measure intravesical pressure while the bladder is filled with sterile fluid at a controlled rate. Simultaneously, abdominal pressure is monitored to assess detrusor pressure and bladder compliance. Cystometry helps identify neurogenic detrusor overactivity, bladder capacity, and compliance.; Imaging (with contrast agent) [Pre-implantation (up to 3 weeks and up to 2 weeks pre-implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — X-Ray (or fluoroscopy) can be taken, with imaging contrast agents, to provide visualization of the urinary tract and/or catheter placements (optional).; Pressure-flow study [Pre-implantation (up to 3 weeks and up to 2 weeks pre-implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — During voiding, simultaneous measurements of detrusor pressure and urinary flow rate are recorded. This aids in diagnosing detrusor-sphincter dyssynergia (DSD), evaluating voiding efficiency, and identifying obstructive patterns.; Electromyography (EMG) [Pre-implantation (up to 3 weeks and up to 2 weeks pre-implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — Surface electrodes or specialized catheters are used to record electrical activity in the bladder and external urethral sphincter muscles. EMG helps detect detrusor-sphincter dyssynergia (DSD) by assessing the coordination between detrusor and sphincter activity during filling and voiding.; Flowmetry - Urethral pressure profile (UPP) [Pre-implantation (up to 3 weeks and up to 2 weeks pre-implantation), Mapping phase (1 week post-implantation and lasting up to 1 month), at Follow-up phase and End of Study phase (at months 3, 6 and 9 post-implantation and lasting up to 1 week)] — A catheter-mounted pressure sensor is withdrawn slowly from the bladder through the urethra, recording pressure changes along the urethral length. UPP assists in evaluating sphincter function and diagnosing urethral obstruction.</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>NBDS (Neurogenic Bowel Dysfunction Score) [Pre-implantation (up to 2 weeks pre-implantation) and monthly for 9 months post-implantation] — 10-item questionnaire that is associated with impaired QoL caused by bowel symptoms. The NBD weighted score ranges between 0 and 47 points. A higher overall NBD score indicates more severe bowel symptoms.; NBSS (Neurogenic Bladder Symptom Score) [Pre-implantation (up to 2 weeks pre-implantation) and monthly for 9 months post-implantation] — The NBSS consists of 24 items across three domains: Incontinence (scored 0-29); Storage and Voiding (scored 0-22); and Consequences (scored 0-23). For all domains, a higher score represents a worse symptom burden or QoL (quality of life).; SF-Qualiveen (QUALIVEEN Short Form) [Pre-implantation (up to 2 weeks pre-implantation) and monthly for 9 months post-implantation] — To assess health-related quality of life of patients with urinary disorders in neurologic conditions. The 8-item questionnaire include bother with limitations (2 items), frequency of limitations (2 items), fears (2 items), and feelings (2 items). Items 1-6 are scored on a 5-point scale (0 to 4), with higher scores indicating a greater negative impact on quality of life. Items 7-8 are scored on a 5-point reverse scale (0 to 4), where higher scores indicate less impact on quality of life.; IIEF/FSFI (International Index of Erectile Function-5/Female Sexual Function Index) [Pre-implantation (up to 2 weeks pre-implantation) and monthly for 9 months post-implantation] — IIEF-15: A 15-item questionnaire covering five domains: erectile function (6 items), orgasmic function (2 items), sexual desire (2 items), intercourse satisfaction (3 items), and overall satisfaction (2 items). Scores range from 5 to 25, with erectile dysfunction (ED) classified as severe (5-7), moderate (8-11), mild to moderate (12-16), mild (17-21), and no ED (22-25). Higher scores indicate better erectile function.
+FSFI: A 19-item self-reported measure assessing six domains: desire, subjective arousal, lubrication, orgasm, satisfaction, and pain. Each item is scored on a 5-point scale (1 to 5), with higher scores indicating better sexual function.; ADFSCI (Autonomic Dysreflexia following SCI) [Pre-implantation (up to 3 weeks pre-implantation) and monthly for 9 months post-implantation] — The ADFSCI is a 24-item questionnaire consisting of four parts: demographics, medication, AD (Autonomic Dysreflexia) and hypotension. The AD section (10 items) and hypotension section (7 items) assess the severity and frequency of hyper- or hypotensive symptoms, such as headache, goosebumps, dizziness, and light-headedness, in different circumstances. Each item is scored on a 5-point scale (0 to 4), with higher scores indicating greater severity and frequency of symptoms.</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11749,6 +15143,31 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -11790,6 +15209,17 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume (mL) [Baseline and Week 24] — The patients will have their bladder filling volume measured during a urodynamic exam.; Change from baseline of detrusor pressure amplitude (cmH2O) [Baseline and Week 24] — The patients will have their detrusor pressure measured during an urodynamic exam.</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Change from baseline of cystometric capacity (mL) [Baseline and Week 24] — The patients will have their cystometric capacity measured during an urodynamic exam.; Change from baseline of bladder compliance (mL/cmH2O) [Baseline and Week 24] — The patients will have their bladder compliance assessed during an urodynamic exam.; Change from baseline of maximum detrusor pressure (cmH20) during storage phase [Baseline and Week 24] — The patients will have their maximum detrusor pressure during storage phase measured during an urodynamic exam.; Change from baseline of maximum detrusor pressure (cmH20) during voiding phase [Baseline and Week 24] — The patients will have their maximum detrusor pressure during voiding phase measured during an urodynamic exam.; Change from baseline of voided urine volume (mL) [Baseline and Week 24] — The patients will have their voided urine volume measured during an urodynamic exam.; Change from baseline of maximum urine flow rate (mL/s) [Baseline and Week 24] — The patients will have the maximum urine flow rate measured during an urodynamic exam.; Change from baseline of post void residual urine (mL) [Baseline and Week 24] — The patients will have the post void residual urine measured during an urodynamic exam.; Change from baseline of pelvic floor electromyographic activity [Baseline and Week 24] — The patients will have presence or absence of pelvic floor activity recorded during an urodynamic exam.; Change from baseline of vesico-uretero-renal reflux [Baseline and Week 24] — The patients will have presence or absence of vesico-uretero-renal reflux assessed during an urodynamic exam.; Change from baseline to 4, 12, and 24 weeks of bladder voiding assessed by means of a 3-day voiding diary [Baseline and Week 4, 12, 24] — The patients will self-record their bladder voiding during three consecutive days at each time point including the number of voids/day, volume voided/void, number of leaks per day, degree of urgency prior to void (none, mild, moderate, severe, incontinence), number of self-catheterization needed through the day.; Change from baseline to 4, 12, and 24 weeks of overactive bladder symptoms scores using the short form of the overactive bladder questionnaire OAB-q [Baseline, Week 4, 12, 24] — The patients will rate their overactive bladder symptoms using the OAB-qSF questionnaire. It is self-administered and asks about how much a patients is bothered by selected bladder symptoms. It contains 6 questions about symptom severity and 13 on coping, sleeping, social life each to be rated on a 6-point scale (none of the time, a little of the time, some of the time, a good bit of the time, most of the time, all of the time). Symptom severity ranges from 6 (not bothered) to 36 (extremely bothered), impact on health related quality of life ranges from 13 (not bothered) to 78 (extremely bothered).; Change from baseline to 4, 12, and 24 weeks of MSQOL54 scores. [Week -8, 4, 12, 24] — The patients will assess their health related quality of life using the short form of the MSQOL 54 questionnaire. This is a self-administered multidimensional questionnaire on health-related quality of life with generic and multiple sclerosis specific questions on physical and mental health. The summary scores are derived from 12 subscales (physical function, physical role limitations, emotional role limitations, pain, emotional well-being, energy, health perceptions, social function, cognitive function, health distress, overall quality of life, sexual function). A low score indicates bad quality of life, a higher score improved quality of life (range 0-100).; Treatment satisfaction, as measured on a composite visual analogue scale (VAS) score ranging from 0-100 [Week 24] — The patients will mark a point on a 100 mm long line with a pencil to indicate their treatment satisfaction. 0 (not satisfied at all), 100 (very satisfied).; Incidence of adverse events [Week 0, 5, 12, 24] — Number and proportion of patients experiencing device related adverse events during the study period will be recorded.</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -11827,6 +15257,18 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Change in bladder volume [6 months] — filling volume at the time of the first uninhibited detrusor contraction during cystometry</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>Cystometric capacity (mL) [6 months] — Video-urodynamic parameter; Compliance (ml/cmH20) [6 months] — Video-urodynamic parameter; Maximum detrusor pressure (cmH20) during storage phase [6 months] — Video-urodynamic parameter; Maximum detrusor pressure (cmH20) during voiding phase [6 months] — Video-urodynamic parameter; Voided volume (mL) [6 months] — Video-urodynamic parameter; Maximum flow rate (mL/s) [6 months] — Video-urodynamic parameter; Post void residual [6 months] — Video-urodynamic parameter; Pelvic floor electromyographic activity (normal/detrusor sphincter dyssynergia/non-relaxing pelvic floor) [6 months] — Video-urodynamic parameter; Number of voids/day [3, 4.5, 6 months] — 3-day voiding diary; Volume voided/void [3, 4.5, 6 months] — 3-day voiding diary; Number of leaks per day [3, 4.5, 6 months] — 3-day voiding diary; Degree of urgency prior to void [3, 4.5, 6 months] — 3-day voiding diary; Number of CISC through the day [3, 4.5, 6 months] — 3-day voiding diary; Residual urine volume [3, 4.5, 6 months] — 3-day voiding diary; Multiple Sclerosis Quality of Life-54 (MSQOL-54) [3, 4.5, 6 months] — 54 items, two summary scores: physical health and mental health, range 0-100, a higher score indicates a better quality of life; Over active bladder questionnaire (OAB) [3, 4.5, 6 months] — Symptom severity of OAB range 6-36, higher score values indicate greater symptom severity or bother, lower scores indicate minimal symptom severity.
+Health related quality of life (HRQL) subscales (coping, sleep, and social), range 13-78, Higher scores indicate better HRQL.</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -11868,6 +15310,17 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Videocystometry [week 4, 12, 26, 38, 52 after SCI]</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Neurophysiological measurements (NCV, BCR, SSR) [week 2, 4, 12, 26, 38, 52 after SCI]</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -11917,6 +15370,26 @@
         </is>
       </c>
       <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Incontinence event(s) [through study completion, an average of 3 months] — Daily patient-reported events of urinary incontinence</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>Ovulation [through study completion, an average of 3 months] — To confirm the occurrence of ovulation, urine samples are tested with luteinizing hormone (LH) stripes at following days of the menstrual cycle: 11, 12, 13, 14 and 15, where 1 is the first day of menstruation.; Recruitment rate [at study completion, an average of 2 years] — The number of eligible patients who are enrolled; Positive screening rate [at study completion, an average of 2 years] — Proportion of eligible patients who are screened; Retention rate [at study completion, an average of 2 years] — Rate of participants who finish study protocol; Assessment completion rate [at study completion, an average of 2 years] — Proportion of planned assessments that are completed; Type of urinary incontinence event [through study completion, an average of 3 months] — Daily patient-reported incontinence event: stress, urge or mixed urinary incontinence; Symptoms of urinary tract infection [through study completion, an average of 3 months] — Measured through a custom-made questionnaire at following days of the menstrual cycle: 3, 15 and 28, where 1 is the first day of menstruation.</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Maximal detrusor pressure during storage phase [Baseline] — Measured during urodynamic examination.; Bother by urinary incontinence [Baseline] — Evaluted using a numeric rating scale from 0 (no bother) to 10 (fully bothered); Menstrual cycle anamnesis [Baseline] — Information about last menstruation, average length of the menstruation, the average length of the cycle; Bladder domain from the Australian Pelvic Floor Questionnaire [through study completion, an average of 3 months] — Impact of bladder on quality of life and overall well-being, APFQ range 0 to 48, where higher scores mean more severe symptoms: on following days of the menstrual cycle: 3, 15 and 28, where 1 is the first day of menstruation.; Bladder compliance [Baseline] — Measured during storage phase, ml/cmH2O; Bladder capacity [Baseline] — Measured during urodynamic examination.; Age [Baseline] — Time from birth to inclusion into study (years); Date of spinal cord injury/disease onset [Baseline]; Neurological level of injury [Baseline] — Highest intact spinal cord segment; ASIA score [Baseline] — The American Spinal Injury Association (ASIA) Impairment Scale (AIS) is a standardized system for assessing the severity of spinal cord injuries (SCI). It classifies the level and completeness of an injury based on motor and sensory function.
+ASIA Impairment Scale (AIS) Classification:
+A (Complete): No sensory or motor function preserved below the injury level, including the sacral segments (S4-S5).
+B (Sensory Incomplete): Sensory function preserved below the injury level, including S4-S5, but no motor function.
+C (Motor Incomplete): Some motor function preserved below the injury level, with more than half of key muscles below the level having a muscle grade \&lt;3 (not strong enough to move against gravity).
+D (Motor Incomplete): Motor function preserved below the injury level, with more than half of key muscles below the level having a muscle grade ≥3 (can move against gravity).</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11958,6 +15431,17 @@
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>amount of residual urine [change from self-catheterization 10 minutes before and 10 minutes after urodynamic assessment] — determined by ultrasound</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>bacterial prostate infection [5-10 minutes before and after prostate massage] — urinary culture; bacteriuria [5-10 minutes before and after prostate massage] — urine dip stick; number of leucocytes in urine [5-10 minutes before and after prostate massage] — urine dip stick; number of erythrocytes in urine [5-10 minutes before and after prostate massage] — urine dip stick; patient characteristics [day 0] — age; type of neurogenic bladder dysfunction [day 0]; type of catheter used for intermittent catheterization [day 0]; annual rate of symptomatic urinary tract infections [day 0]; patient characteristics [day 0] — sex; patient characteristics [day 0] — time since spinal cord injury; patient characteristics [day 0] — level and degree of spinal cord injury (ASIA impairment score)</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11995,6 +15479,17 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>urinary concentration of nerve growth factor [day 0]</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>serum concentration of nerve growth factor [day 0]; demographics [day 0]; urodynamics [day 0] — only participants with spinal cord injury; International Prostate Symptom Score (I-PSS) [day 0]</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12032,6 +15527,13 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>bladder innervation quality [day 0] — bladder innervation is illustrated using diffusion tensor imaging fiber tracking with magnetic resonance imaging</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12073,6 +15575,21 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>occurrence of somatosensory evoked potentials from the bladder [within 1 week after enrollment into study]</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>latency of somatosensory evoked potentials [within 1 week after enrollment into study]; peak-to-peak amplitude of somatosensory evoked potentials [within 1 week after enrollment into study]; nerve fiber density around bladder [within 1 week after enrollment into study]; fractional anisotropy of nerve fibers around bladder [within 1 week after enrollment into study]; apparent diffusion coefficient of nerve fibers around bladder [within 1 week after enrollment into study]</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>age [1st day]; gender [1st day]; severity of spinal cord injury [1st day] — American Association of Spinal Cord Injury Impairment Score</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12114,6 +15631,17 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>urine tumor mRNA concentration [1 day]</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>cystoscopic findings of bladder wall [1 day] — findings suspicious of bladder cancer present: yes / no; microscopic identification of cells in bladder fluid sample [1 day]; histopathologic examination of the bladder wall biopsy [1 day] — diagnosis of bladder cancer: yes / no</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12155,6 +15683,17 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>change in functional network connectivity [baseline; 30 minutes during nerve stimulation] — change in brain network activity identified by independent component analysis</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>gender [baseline] — male or female; age [baseline] — time since birth in years</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12208,6 +15747,32 @@
         </is>
       </c>
       <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>The occurrence of neurogenic DO jeopardizing the upper urinary tract [up to 12 months after SCI] — Defined as composite measure: Urodynamic assessment establishing DO amplitude ≥40 cmH2O; or else initiation of DO treatment (with antimuscarinics and/or intradetrusor onabotulinumtoxinA injections)</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Maximum DO amplitude \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bowel diary; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Changes in International Spinal Cord Society (ISCoS) Female / Male sexual function data sets and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in Neurogenic Bowel Dysfunction (NBD) score and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).The NBD score is assessed by using the international spinal cord injury (ISCoS) bowel function basic data set.; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Basal internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[%, mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types of manometric patterns (I-IV) that are identified through manometric assessments; Changes International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) assessment to quantify the severity of the spinal cord injury; Changes in Lower Extremities Motor Scale (LEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — LEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the lower limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Upper Extremities Motor Scale (UEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — UEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the upper limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Spinal Cord Independence Measure III (SCIM-III) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCIM-III ("Spinal Cord Independence Measure III") score is based on questions concerning independence of persons with a spinal cord injured. It consists of 19 items covering 3 domains, self-care, respiration and sphincter management, and mobility. The self-care subscale ranges from 0 to 20. The respiration and sphincter management subscale ranges from 0 to 40. The mobility subscale ranges from 0 to 40. Total score ranges from 0 (symptomatic) to 100 (asymptomatic). Higher scores reflect higher levels of independence.; Changes in spasticity in the knee and elbow flexors and extensors from the Modified Ashworth Scale (MAS) assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The MAS is a 5-point nominal scale that uses subjective clinical assessments of muscle tone ranging from 0 - 'No increases in tone' to 4 - 'Limb rigid in flexion or extension'. A grade of (1+) indicates resistance in the movement.; Changes in spasticity in daily life as assessed by the Spinal Cord Injury Spasticity Evaluation Tool (SCI-SET) questionnaire and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCI-SET ("Spinal Cord Injury Spasticity Evaluation Tool ") score is based on questions concerning the positive and negative effects of spasticity on different areas of daily life. Each of the 35 items are rated on a 7-point scale (-3=extremely problematic; 0=no effect; 3=extremely helpful). Calculations include counts and sum scores of areas of daily life where spasticity is problematic (count range: 0 to 35, sum score range: 35 to 0) or helpful (counts range: 0 to 35, sum score range: 0 to +35) as well as a mean score of all applicable items (range: -3 to +3); Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in lower urinary tract (LUT) neurophysiology: Current perception thresholds (CPTs) and LUT sensory evoked potentials (LUTSEPs) with their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in frequency power of surface electromyography (EMG) and electroencephalography (EEG) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Fast Fourier Transformation analysis for delta, theta, alpha, beta, and gamma band power as assessed via EEG of the cortex and EMG of the muscle; Changes in EMG and EEG coherence measures and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Coherence for EEG and EMG signals computed as cortico-muscular, inter- and intra-muscular coherence for typical EEG/EMG frequency bands (delta, theta, alpha, beta, and gamma).; Changes in white and gray matter area in the lumbosacral enlargement (LSE) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter areas are obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the level of LSE; Changes in white and gray matter area in upper cervical cord (at C2/C3) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the vertebral level C2/C3.; Changes in white and gray matter volume of the conus medullaris (CM) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter volume are obtained by segmenting the T2\*-weighted MRI images for white and gray matter in the CM; Changes in gray and white matter volume in the brain and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gray and white matter volume in the brain are computed by feeding the whole-brain T1-weighted MRI images into a voxel-based morphometry algorithm. Changes in the gray and white matter volume will be evaluated in urologically relevant brain areas.; Changes in fractional anisotropy (FA) in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — FA is a common dimensionless measure used in Diffusion Tensor Imaging (DTI) studies and ranges from 0, isotropic movement of water molecules (e.g., cerebrospinal fluid), to 1, fully anisotropic movement of water molecules (e.g., fiber bundles).; Changes in diffusivity in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Mean, axial, and radial diffusivity (MD, AD, RD) are common measures used in DTI studies providing information about the integrity of the underlying tissue.; Changes in brain and spinal cord tissue microstructure and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Quantitative tissue parameters assessed using MRI Multi-Parameter Mapping.; Expression profile of microRNA (miRNA) in urine and blood as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — MicroRNA (miRNA) sequencing is used to identify regulated miRNAs specific to TTNS intervention in urine and blood.; Changes in inflammatory markers in bladder tissue, blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in levels of neurotransmitters (neurotrophins) in blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Analysis will be performed using ELISA to detect molecules likely to be involved in the underlying molecular mechanisms of neuromodulation.; Changes in the composition of urinary and stool microbiome and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gut and bladder microbial patterns are determined from stool and urine samples; Changes in bladder tissue and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of adverse events (AEs) and serious adverse events (SAEs) for the following categories: [During complete study period, up to 12 months] — * infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* irritation-related symptoms (e.g. dysuria, hematuria) immediately following a LUT intervention
+* neuro-urological deterioration
+* pressure ulcer
+* neurological deterioration
+* increase in pain
+* increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12245,6 +15810,13 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Number of patients with successful sacral neuromodulation [2 months] — success versus failure (yes/no variable)</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12286,6 +15858,17 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>correlation bladder wall thickness and detrusor compliance [calculated from maximum bladder filling] — measurement of detrusor compliance at maximum bladder volume; measurement of bladder wall thickness at maximum bladder volume</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>correlation bladder wall thickness and maximum detrusor pressure [measurement at maximum bladder capacity] — correlation between bladder wall thickness and maximum detrusor pressure during the urodynamic storage phase</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12323,6 +15906,31 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12376,6 +15984,32 @@
         </is>
       </c>
       <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>The occurrence of neurogenic DO jeopardizing the upper urinary tract [up to 12 months after SCI] — Defined as composite measure: Urodynamic assessment establishing DO amplitude ≥40 cmH2O; or else initiation of DO treatment (with antimuscarinics and/or intradetrusor onabotulinumtoxinA injections)</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Maximum DO amplitude \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bowel diary; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Changes in International Spinal Cord Society (ISCoS) Female / Male sexual function data sets and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in Neurogenic Bowel Dysfunction (NBD) score and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).The NBD score is assessed by using the international spinal cord injury (ISCoS) bowel function basic data set.; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Basal internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[%, mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types of manometric patterns (I-IV) that are identified through manometric assessments; Changes International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) assessment to quantify the severity of the spinal cord injury; Changes in Lower Extremities Motor Scale (LEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — LEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the lower limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Upper Extremities Motor Scale (UEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — UEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the upper limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Spinal Cord Independence Measure III (SCIM-III) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCIM-III ("Spinal Cord Independence Measure III") score is based on questions concerning independence of persons with a spinal cord injured. It consists of 19 items covering 3 domains, self-care, respiration and sphincter management, and mobility. The self-care subscale ranges from 0 to 20. The respiration and sphincter management subscale ranges from 0 to 40. The mobility subscale ranges from 0 to 40. Total score ranges from 0 (symptomatic) to 100 (asymptomatic). Higher scores reflect higher levels of independence.; Changes in spasticity in the knee and elbow flexors and extensors from the Modified Ashworth Scale (MAS) assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The MAS is a 5-point nominal scale that uses subjective clinical assessments of muscle tone ranging from 0 - 'No increases in tone' to 4 - 'Limb rigid in flexion or extension'. A grade of (1+) indicates resistance in the movement.; Changes in spasticity in daily life as assessed by the Spinal Cord Injury Spasticity Evaluation Tool (SCI-SET) questionnaire and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCI-SET ("Spinal Cord Injury Spasticity Evaluation Tool ") score is based on questions concerning the positive and negative effects of spasticity on different areas of daily life. Each of the 35 items are rated on a 7-point scale (-3=extremely problematic; 0=no effect; 3=extremely helpful). Calculations include counts and sum scores of areas of daily life where spasticity is problematic (count range: 0 to 35, sum score range: 35 to 0) or helpful (counts range: 0 to 35, sum score range: 0 to +35) as well as a mean score of all applicable items (range: -3 to +3); Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in lower urinary tract (LUT) neurophysiology: Current perception thresholds (CPTs) and LUT sensory evoked potentials (LUTSEPs) with their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in frequency power of surface electromyography (EMG) and electroencephalography (EEG) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Fast Fourier Transformation analysis for delta, theta, alpha, beta, and gamma band power as assessed via EEG of the cortex and EMG of the muscle; Changes in EMG and EEG coherence measures and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Coherence for EEG and EMG signals computed as cortico-muscular, inter- and intra-muscular coherence for typical EEG/EMG frequency bands (delta, theta, alpha, beta, and gamma).; Changes in white and gray matter area in the lumbosacral enlargement (LSE) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter areas are obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the level of LSE; Changes in white and gray matter area in upper cervical cord (at C2/C3) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the vertebral level C2/C3.; Changes in white and gray matter volume of the conus medullaris (CM) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter volume are obtained by segmenting the T2\*-weighted MRI images for white and gray matter in the CM; Changes in gray and white matter volume in the brain and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gray and white matter volume in the brain are computed by feeding the whole-brain T1-weighted MRI images into a voxel-based morphometry algorithm. Changes in the gray and white matter volume will be evaluated in urologically relevant brain areas.; Changes in fractional anisotropy (FA) in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — FA is a common dimensionless measure used in Diffusion Tensor Imaging (DTI) studies and ranges from 0, isotropic movement of water molecules (e.g., cerebrospinal fluid), to 1, fully anisotropic movement of water molecules (e.g., fiber bundles).; Changes in diffusivity in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Mean, axial, and radial diffusivity (MD, AD, RD) are common measures used in DTI studies providing information about the integrity of the underlying tissue.; Changes in brain and spinal cord tissue microstructure and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Quantitative tissue parameters assessed using MRI Multi-Parameter Mapping.; Expression profile of microRNA (miRNA) in urine and blood as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — MicroRNA (miRNA) sequencing is used to identify regulated miRNAs specific to TTNS intervention in urine and blood.; Changes in inflammatory markers in bladder tissue, blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in levels of neurotransmitters (neurotrophins) in blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Analysis will be performed using ELISA to detect molecules likely to be involved in the underlying molecular mechanisms of neuromodulation.; Changes in the composition of urinary and stool microbiome and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gut and bladder microbial patterns are determined from stool and urine samples; Changes in bladder tissue and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of adverse events (AEs) and serious adverse events (SAEs) for the following categories: [During complete study period, up to 12 months] — * infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* irritation-related symptoms (e.g. dysuria, hematuria) immediately following a LUT intervention
+* neuro-urological deterioration
+* pressure ulcer
+* neurological deterioration
+* increase in pain
+* increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12413,6 +16047,13 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>Number of patients with successful sacral neuromodulation [2 months] — success versus failure (yes/no variable)</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12450,6 +16091,31 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12491,6 +16157,17 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Videocystometry [week 4, 12, 26, 38, 52 after SCI]</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Neurophysiological measurements (NCV, BCR, SSR) [week 2, 4, 12, 26, 38, 52 after SCI]</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12544,6 +16221,17 @@
         </is>
       </c>
       <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>Cross-sectional study: lumbosacral functional fMRI [Baseline only] — Activations in the gray matter of the lumbosacral cord, as a response to sensory, motor, and somatosensory stimulations, or no stimulation (resting state). Spatiotemporal components of the BOLD signal as well as the couplings and anti-couplings between these components; Longitudinal study: lumbosacral functional fMRI [Change from baseline at 2-month, 6-month, and 12-month] — Activations in the gray matter of the lumbosacral cord, as a response to sensory, motor, and somatosensory stimulations, or no stimulation (resting state). Spatiotemporal components of the BOLD signal as well as the couplings and anti-couplings between these component; Cross-sectional study: brain functional MRI [Baseline only] — Activations in the cortical and subcortical areas of the brain as a response to sensory, motor, and somatosensory stimulations, or no stimulation (resting state); Longitudinal study: brain functional MRI [Change from baseline at 2-month, 6-month, and 12-month] — Activations in the cortical and subcortical areas of the brain as a response to sensory, motor, and somatosensory stimulations, or no stimulation (resting state)</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>Cross-sectional study: diffusion MRI in the spinal cord [Baseline only] — Directional diffusivities in the spinal cord (units of mm2/s); Cross-sectional study: diffusion MRI in the spinal cord [Baseline only] — Fractional anisotropy in the spinal cord (unitless); Longitudinal study: diffusion MRI in the spinal cord [Change from baseline at 2-month, 6-month, and 12-month] — Directional diffusivities in the spinal cord, measured (units of mm2/s); Longitudinal study: diffusion MRI in the spinal cord [Change from baseline at 2-month, 6-month, and 12-month] — Fractional anisotropy in the spinal cord (unitless); Cross-sectional study: structural MRI in spinal cord [Baseline only] — Cross-sectional areas of the spinal cord gray and white matter (units of mm2); Longitudinal study: structural MRI in spinal cord [Change from baseline at 2-month, 6-month, and 12-month] — Cross-sectional areas of the spinal cord gray and white matter (units of mm2); Cross-sectional study: magnetic resonance neurography of the lumbosacral plexus [Baseline only] — Thickness of nerves and nerve roots (units of mm2); Cross-sectional study: magnetic resonance neurography of the lumbosacral plexus [Baseline only] — Nerve entry points into the spinal cord (for determining neurological levels); Longitudinal study: magnetic resonance neurography of the lumbosacral plexus [Change from baseline at 2-month, 6-month, and 12-month] — Thickness of nerves and nerve roots (units of mm2); Longitudinal study: magnetic resonance neurography of the lumbosacral plexus [Change from baseline at 2-month, 6-month, and 12-month] — Nerve entry points into the spinal cord (for determining neurological levels); Cross-sectional study: diffusion MRI in the brain [Baseline only] — Directional diffusivities in the brain (units of mm2/s); Cross-sectional study: diffusion MRI in the brain [Baseline only] — Fractional anisotropy in the brain (unitless); Longitudinal study: diffusion MRI in the brain [Change from baseline at 2-month, 6-month, and 12-month] — Directional diffusivities in the brain (units of mm2/s); Longitudinal study: diffusion MRI in the brain [Change from baseline at 2-month, 6-month, and 12-month] — Fractional anisotropy in the brain (unitless); Cross-sectional study: structural MRI in the brain [Baseline only] — Cortical thickness (units of mm); Cross-sectional study: structural MRI in the brain [Baseline only] — Volumes of the brain gray and white matter (units of mm3); Longitudinal study: structural MRI in the brain [Change from baseline at 2-month, 6-month, and 12-month] — Cortical thickness (units of mm); Longitudinal study: structural MRI in the brain [Change from baseline at 2-month, 6-month, and 12-month] — Volumes of the brain gray and white matter (units of mm3); Cross-sectional study: nerve conduction study [Baseline only] — Latencies of F waves (units of ms). Period between initial stimulation and F wave elicitation in the tibial and peroneal motor nerves.; Cross-sectional study: nerve conduction study [Baseline only] — Amplitudes of F waves in the tibial and peroneal motor nerves (units of microV); Cross-sectional study: nerve conduction study [Baseline only] — Duration of F waves in the tibial and peroneal motor (units of ms); Longitudinal study: nerve conduction study [Change from baseline at 2-month, 6-month, and 12-month] — Latencies of F waves (units of ms). Period between initial stimulation and F wave elicitation in the tibial and peroneal motor nerves.; Longitudinal study: nerve conduction study [Change from baseline at 2-month, 6-month, and 12-month] — Amplitudes of F waves in the tibial and peroneal motor nerves (units of microV); Longitudinal study: nerve conduction study [Change from baseline at 2-month, 6-month, and 12-month] — Duration of F waves in the tibial and peroneal motor (units of ms); Cross-sectional study: motor evoked potentials (MEP) [Baseline only] — Latencies (units of ms); Cross-sectional study: motor evoked potentials (MEP) [Baseline only] — Amplitudes (units of mV); Longitudinal study: motor evoked potentials (MEP) [Change from baseline at 2-month, 6-month, and 12-month] — Latencies (units of ms); Longitudinal study: motor evoked potentials (MEP) [Change from baseline at 2-month, 6-month, and 12-month] — Amplitudes (units of mV); Cross-sectional study: American Spinal Injury Association Impairment Scale (AIS) from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline only] — AIS quantifies the severity of the spinal cord injury. AIS (ASIA Impairment Scale) grades from A-E, whereas grade A (complete spinal cord injury) is worse than grade E (no impairment); Cross-sectional study: Lower Extremities Motor Scale (LEMS) from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline only] — LEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the lower limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic); Cross-sectional study: Upper Extremities Motor Scale (UEMS) from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline only] — UEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the upper limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total UEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic); Cross-sectional study: Light touch (LT) score from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline only] — The LT score is based on assessments of ISNCSCI and represents the sum of sensory function of 28 dermatome pairs in terms of light touch sensation. It consists of a 2-point scale (0=absent sensation; 1=altered (impaired or partial sensation, including hyperesthesia); 2 = normal or intact sensation) for each dermatome and body site. The lowest and highest possible LT score for one body site is 0 and 56, respectively; Cross-sectional study: Pin prick (PP) score from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline only] — The PP score is based on assessments of ISNCSCI and represents the sum of sensory function of 28 dermatome pairs in terms of pin prick discrimination. It consists of a 2-point scale (0=absent discrimination; 1=altered (impaired or partial discrimination); 2 = normal or intact discrimination) for each dermatome and body site. The lowest and highest possible PP score for one body site is 0 and 56, respectively; Longitudinal study: American Spinal Injury Association Impairment Scale (AIS) from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Change from baseline at 2-month, 6-month, and 12-month] — AIS quantifies the severity of the spinal cord injury. AIS (ASIA Impairment Scale) grades from A-E, whereas grade A (complete spinal cord injury) is worse than grade E (no impairment).; Longitudinal study: Lower Extremities Motor Scale (LEMS) from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Change from baseline at 2-month, 6-month, and 12-month] — LEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the lower limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic); Longitudinal study: Upper Extremities Motor Scale (UEMS) from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Change from baseline at 2-month, 6-month, and 12-month] — UEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the upper limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total UEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic); Longitudinal study: Light touch (LT) score from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Change from baseline at 2-month, 6-month, and 12-month] — The LT score is based on assessments of ISNCSCI and represents the sum of sensory function of 28 dermatome pairs in terms of light touch sensation. It consists of a 2-point scale (0=absent sensation; 1=altered (impaired or partial sensation, including hyperesthesia); 2 = normal or intact sensation) for each dermatome and body site. The lowest and highest possible LT score for one body site is 0 and 56, respectively; Longitudinal study: Pin prick (PP) score from the International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Change from baseline at 2-month, 6-month, and 12-month] — The PP score is based on assessments of ISNCSCI and represents the sum of sensory function of 28 dermatome pairs in terms of pin prick discrimination. It consists of a 2-point scale (0=absent discrimination; 1=altered (impaired or partial discrimination); 2 = normal or intact discrimination) for each dermatome and body site. The lowest and highest possible PP score for one body site is 0 and 56, respectively; Cross-sectional study: Graded and Redefined Assessment of Strength, Sensation and Prehension (GRASSP) [Baseline only] — GRASSP measures sensorimotor and prehension function through three domains (strength, sensation and prehension) which are important in describing arm and hand function. The total GRASSP score ranges from 0 to 116 points, where a higher score indicates a better outcome; Longitudinal study: Graded and Redefined Assessment of Strength, Sensation and Prehension (GRASSP) [Change from baseline at 2-month, 6-month, and 12-month] — GRASSP measures sensorimotor and prehension function through three domains (strength, sensation and prehension) which are important in describing arm and hand function. The total GRASSP score ranges from 0 to 116 points, where a higher score indicates a better outcome; Cross-sectional study: European Multicenter Study about SCI (EMSCI) pain questionnaire [Baseline only] — The EMSCI pain questionnaire rates various aspects of pain (e.g., current pain intensity, mean and maximal pain intensity during the last week before the assessment, location and quality of pain, intensity of allodynia and paresthesia). Pain intensity is quantified on an 11-point numeric scale (0=no pain; 10=worst imaginable pain); Longitudinal study: European Multicenter Study about SCI (EMSCI) pain questionnaire [Change from baseline at 2-month, 6-month, and 12-month] — The EMSCI pain questionnaire rates various aspects of pain (e.g., current pain intensity, mean and maximal pain intensity during the last week before the assessment, location and quality of pain, intensity of allodynia and paresthesia). Pain intensity is quantified on an 11-point numeric scale (0=no pain; 10=worst imaginable pain); Cross-sectional study: sympathetic skin response including hand, sole and perineum recordings [Baseline only] — Latencies (units of ms); Cross-sectional study: sympathetic skin response including hand, sole and perineum recordings [Baseline only] — Amplitudes (units of microV); Longitudinal study: sympathetic skin response including hand, sole and perineum recordings [Change from baseline at 2-month, 6-month, and 12-month] — Latencies (units of ms); Longitudinal study: sympathetic skin response including hand, sole and perineum recordings [Change from baseline at 2-month, 6-month, and 12-month] — Amplitudes (units of microV); Cross-sectional study: Spinal Cord Independence Measure (SCIM III) [Baseline only] — The SCIM-III ("Spinal Cord Independence Measure III") score is based on questions concerning independence of persons with a spinal cord injured. It consists of 19 items covering 3 domains, self-care, respiration and sphincter management, and mobility. The self-care subscale ranges from 0 to 20. The respiration and sphincter management subscale ranges from 0 to 40. The mobility subscale ranges from 0 to 40. Total score ranges from 0 (symptomatic) to 100 (asymptomatic). Higher scores reflect higher levels of independence.; Longitudinal study: Spinal Cord Independence Measure (SCIM III) [Change from baseline at 2-month, 6-month, and 12-month] — The SCIM-III ("Spinal Cord Independence Measure III") score is based on questions concerning independence of persons with a spinal cord injured. It consists of 19 items covering 3 domains, self-care, respiration and sphincter management, and mobility. The self-care subscale ranges from 0 to 20. The respiration and sphincter management subscale ranges from 0 to 40. The mobility subscale ranges from 0 to 40. Total score ranges from 0 (symptomatic) to 100 (asymptomatic). Higher scores reflect higher levels of independence; Cross-sectional study: Walking index for Spinal Cord Injury (WISCI) [Baseline only] — WISCI is an ordinal 20-point scale (0=unable to stand and/or participate in walking; 20=ambulates with no devices, with brace and no assistance) to assess walking function; Longitudinal study: Walking index for Spinal Cord Injury (WISCI) [Change from baseline at 2-month, 6-month, and 12-month] — WISCI is an ordinal 20-point scale (0=unable to stand and/or participate in walking; 20=ambulates with no devices, with brace and no assistance) to assess walking function; Longitudinal study: International Prostate Symptom Score (IPSS) (only in patients with neurogenic lower urinary tract dysfunction) [Change between baseline and follow-up (6-12 weeks of tibial nerve stimulation)] — The IPSS score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible"; Longitudinal study: Qualiveen questionnaire (only in patients with neurogenic lower urinary tract dysfunction) [Change between baseline and follow-up (6-12 weeks of tibial nerve stimulation)] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL); Longitudinal study: Urinary Symptom Profile (USP) (only in patients with neurogenic lower urinary tract dysfunction) [Change between baseline and follow-up (6-12 weeks of tibial nerve stimulation)] — The USP score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic); Longitudinal study: Overactive Bladder (ICIQ-OAB) questionnaire (only in patients with neurogenic lower urinary tract dysfunction) [Change between baseline and follow-up (6-12 weeks of tibial nerve stimulation)] — International Consultation on Incontinence Questionnaire Overactive Bladder Quality of Life ICIQ-OAB-QoL is a 26-item questionnaire evaluating quality of life (QoL) in patients with overactive bladder. Scores range from 25-160, with greater values indicating increased impact on quality of life</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12581,6 +16269,13 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Number of patients with successful sacral neuromodulation [2 months] — success versus failure (yes/no variable)</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12618,6 +16313,31 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Success of TTNS [study week 8 / study end] — Success of TTNS defined as:
+* ≥50% reduction in incontinence rates per 24 hours and/or ≥50% reduction in micturition/catheterization frequency per 24 hours in patients with neurogenic overactive bladder (OAB)
+* Reduction of post void residual (PVR) below 25% of bladder capacity if bladder capacity
+  * 100 mL, or below 50% of bladder capacity if bladder capacity \&lt;100 mL in patients with neurogenic voiding dysfunction
+* In patients with combined neurogenic OAB and neurogenic voiding dysfunction: The success criteria of leading symptom/dysfunction will be chosen</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; study week 1-8 / study end] — Maximum DO pressure \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; study week 8 / study end] — Assessed by a bowel diary; Goal attainment scaling assessed by a self-assessment goal achievement (SAGA) questionnaire [Baseline; study week 8 / study end] — The baseline SAGA module asks patients to rate the importance of 9 prespecified (fixed) treatment goals that describe reducing the following LUTS: frequency (daytime and nighttime); sensation of pressure; primary sensation to use the bathroom; bladder voiding; starting or maintaining a urine stream; urine loss when coughing, laughing, exercising, or sneezing; urine leakage; and urgency. In addition to the 9 fixed goals, patients can list up to 5 additional (open) treatment goals. Patients rate the importance of each goal using a 5-point scale ranging from "not very important goal" to "very important goal." In the SAGA follow-up module, patients rate their achievement of each individualized goal and overall goal achievement with a 5-point scale ranging from "did not achieve goal" to "greatly exceeded goal."; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Variability and validity of University of South Australia Urinary Symptom Assessment questionnaire (USA2) for treatment follow-up [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The USA2 ("University of South Australia Urinary Symptom Assessment") assesses multiple dimensions of urgency sensation. 10 items are rated on a 6-point Likert-type scale from 0 to 5. Lower scores are reflecting lesser urgency symptoms. Domain scores are computed by summing the sores for individual items in each domain.; Changes in Neurogenic Bowel Dysfunction (NBD) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).; Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; study week 8 / study end]; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end] — Basal Internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; study week 8 / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; study week 8 / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types manometric patterns (I-IV) that are identified through manometric assessments.; Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of AEs and SAE [During complete study period] — Categories:
+* infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* pressure ulcer
+* severe neurological deterioration
+* severe or sudden increase in pain
+* severe or sudden increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* urgent (unexpected) transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12671,6 +16391,32 @@
         </is>
       </c>
       <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>The occurrence of neurogenic DO jeopardizing the upper urinary tract [up to 12 months after SCI] — Defined as composite measure: Urodynamic assessment establishing DO amplitude ≥40 cmH2O; or else initiation of DO treatment (with antimuscarinics and/or intradetrusor onabotulinumtoxinA injections)</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Volumetric changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Cystometric capacity \[mL\], volume at first DO \[mL\], voided volume \[mL\] and post void residual \[mL\] as assessed by urodynamic measurement; Changes in bladder compliance [mL/cmH2O] during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Pressure changes during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Maximum DO amplitude \[cmH2O\], detrusor leak-point pressure \[cmH2O\], maximum detrusor pressure \[cmH2O\] during storage phase, maximum detrusor pressure \[cmH2O\] during voiding phase, detrusor pressure at maximum flow rate \[cmH2O\] as assessed by urodynamic measurement; Changes in maximum flow rate [mL/s] as assessed by urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in vesicoureterorenal reflux (VUR) as assessed by videography during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in pelvic floor activity as assessed by electromyography (EMG) during urodynamics and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in bladder storage and voiding parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bladder diary; Changes in bowel diary parameters and their relation to clinical outcomes [Baseline; once every 2 weeks during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Assessed by a bowel diary; Changes in International Prostate Symptom (IPSS) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IPSS ("International Prostate Symptom Questionnaire") score is based on questions concerning urinary symptoms and quality of life (QoL). It consists of 8 items covering 7 urinary symptoms related dimensions (subscales) and 1 additional item assessing quality of life. Each item is rated on a 6-point scale (0=not at all; 5=almost always). The lowest possible score in the total IPSS score is 0 (asymptomatic); the highest possible score is 35 (symptomatic). The QoL index is rated on a 7-point scale, with 0 indicating "delighted" and 6 "terrible."; Changes in urinary symptoms as assessed by the Urinary Symptom Profile (USP) questionnaire and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The USP ("Urinary Symptom Profile") score is based on questions concerning urinary symptoms and their severity in males and females. It consists of 13 items covering 3 dimensions (subscales) with 7 overactive bladder (OAB), 3 stress urinary incontinence (SUI), and 3 low stream (LS) related items. Each item is rated on a 4-point scale. The lowest score is 0 (asymptomatic); the highest score is 3 (symptomatic).; Changes in Qualiveen questionnaire scores and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Qualiveen-30 assesses the Specific Impact of Urinary Problems (SIUP) on Quality of Life. It consists of 30 items covering 4 domains, namely inconvenience (9 questions), restrictions (8 questions), fears (8 questions), and impact on daily life (5 questions). Each item is rated on a 5-point ordinal scale (0=asymptomatic; 4=symptomatic). The index of the SIUP on Quality of Life is the mean of the four individual scores. The lowest possible overall score in the Qualiveen-30 is 0 (Urinary problems have no specific impact on QoL); the highest possible score is 30 (Urinary problems have a huge specific impact on QoL).; Changes in Female Sexual Function Index (FSFI) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The FSFI ("Female Sexual Function Index") is based on questions concerning female sexual functions. It consists of 19 items covering 6 domains, namely sexual desire, arousal (both subjective and physiologic), lubrication, orgasm, satisfaction, and pain. The lowest possible score in the total FSFI is 2 (asymptomatic); the highest possible score is 36 (symptomatic).; Changes in International Index of Erectile Function (IIEF) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The IIEF ("International Index of Erectile Function") is based on questions concerning erectile dysfunction. It consists of 15 items covering 5 domains, namely erectile functioning, orgasmic functioning, sexual desire, and intercourse satisfaction along with a fifth component which encompasses the concept of overall sexual satisfaction. While items 1-10 are rated on a 6-point Likert-type scale from 0 to 5, items 11-15 are rated on a 5-point Likert-type scale from 1 to 5. Higher scores are reflecting less dysfunction. Domain scores are computed by summing the sores for individual items in each domain.; Changes in International Spinal Cord Society (ISCoS) Female / Male sexual function data sets and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in Neurogenic Bowel Dysfunction (NBD) score and their relation to clinical outcomes [Baseline; once per week during the TTNS intervention period; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The NBD ("Neurogenic Bowel Dysfunction") score is based on questions concerning constipation and fecal incontinence and was developed for and validated in the spinal cord injury population. It consists of 10 items. The lowest possible score in the total NBD is 0 (asymptomatic); the highest possible score is 47 (symptomatic). The interpretation of the total NBD score is very minor NBD (0-6), minor NBD (7-9), moderate NBD (10-13), and severe NBD (≥14).The NBD score is assessed by using the international spinal cord injury (ISCoS) bowel function basic data set.; Volumetric changes during rectal sensitivity testing and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Initial sensation \[mL\], volume at urge to defecate \[mL\], maximum tolerated volume \[mL\] as assessed by rectal sensitivity testing; rectal capacity \[mL\] assessed by barostat assessment; Pressure changes during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Basal internal anal sphincter pressure \[mmHg\], squeeze external anal sphincter pressure \[mmHg\], relaxation internal anal sphincter pressure during defecation \[%, mmHg\], intraabdominal pressure during defecation \[mmHg\]; Changes in rectal compliance [mL/cmH2O] during anorectal manometry and barostat assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in defecatory disorder [Rao's classification] identified during anorectal manometry and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Anorectal manometry is the preferable test for defecatory disorder. Rao's classification describes the four types of manometric patterns (I-IV) that are identified through manometric assessments; Changes International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) assessment to quantify the severity of the spinal cord injury; Changes in Lower Extremities Motor Scale (LEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — LEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the lower limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Upper Extremities Motor Scale (UEMS) from International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) protocol [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — UEMS is based on assessments of ISNCSCI and composed from the sum of muscle function grading of the five key muscles of the upper limbs. It consists of a 6-point scale (0=no; 5=normal activity) for each muscle and body site. The lowest possible score in the total LEMS score for one body site is 0 (symptomatic); the highest possible score is 50 (asymptomatic).; Changes in Spinal Cord Independence Measure III (SCIM-III) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCIM-III ("Spinal Cord Independence Measure III") score is based on questions concerning independence of persons with a spinal cord injured. It consists of 19 items covering 3 domains, self-care, respiration and sphincter management, and mobility. The self-care subscale ranges from 0 to 20. The respiration and sphincter management subscale ranges from 0 to 40. The mobility subscale ranges from 0 to 40. Total score ranges from 0 (symptomatic) to 100 (asymptomatic). Higher scores reflect higher levels of independence.; Changes in spasticity in the knee and elbow flexors and extensors from the Modified Ashworth Scale (MAS) assessment and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The MAS is a 5-point nominal scale that uses subjective clinical assessments of muscle tone ranging from 0 - 'No increases in tone' to 4 - 'Limb rigid in flexion or extension'. A grade of (1+) indicates resistance in the movement.; Changes in spasticity in daily life as assessed by the Spinal Cord Injury Spasticity Evaluation Tool (SCI-SET) questionnaire and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — The SCI-SET ("Spinal Cord Injury Spasticity Evaluation Tool ") score is based on questions concerning the positive and negative effects of spasticity on different areas of daily life. Each of the 35 items are rated on a 7-point scale (-3=extremely problematic; 0=no effect; 3=extremely helpful). Calculations include counts and sum scores of areas of daily life where spasticity is problematic (count range: 0 to 35, sum score range: 35 to 0) or helpful (counts range: 0 to 35, sum score range: 0 to +35) as well as a mean score of all applicable items (range: -3 to +3); Changes in neurophysiology measurements of evoked potentials (EPs) as well as nerve conduction measurements and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in lower urinary tract (LUT) neurophysiology: Current perception thresholds (CPTs) and LUT sensory evoked potentials (LUTSEPs) with their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in frequency power of surface electromyography (EMG) and electroencephalography (EEG) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Fast Fourier Transformation analysis for delta, theta, alpha, beta, and gamma band power as assessed via EEG of the cortex and EMG of the muscle; Changes in EMG and EEG coherence measures and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Coherence for EEG and EMG signals computed as cortico-muscular, inter- and intra-muscular coherence for typical EEG/EMG frequency bands (delta, theta, alpha, beta, and gamma).; Changes in white and gray matter area in the lumbosacral enlargement (LSE) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter areas are obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the level of LSE; Changes in white and gray matter area in upper cervical cord (at C2/C3) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Obtained by segmenting the T2\*-weighted MRI images for white and gray matter at the vertebral level C2/C3.; Changes in white and gray matter volume of the conus medullaris (CM) and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — White and gray matter volume are obtained by segmenting the T2\*-weighted MRI images for white and gray matter in the CM; Changes in gray and white matter volume in the brain and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gray and white matter volume in the brain are computed by feeding the whole-brain T1-weighted MRI images into a voxel-based morphometry algorithm. Changes in the gray and white matter volume will be evaluated in urologically relevant brain areas.; Changes in fractional anisotropy (FA) in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — FA is a common dimensionless measure used in Diffusion Tensor Imaging (DTI) studies and ranges from 0, isotropic movement of water molecules (e.g., cerebrospinal fluid), to 1, fully anisotropic movement of water molecules (e.g., fiber bundles).; Changes in diffusivity in the brain and spinal cord and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Mean, axial, and radial diffusivity (MD, AD, RD) are common measures used in DTI studies providing information about the integrity of the underlying tissue.; Changes in brain and spinal cord tissue microstructure and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Quantitative tissue parameters assessed using MRI Multi-Parameter Mapping.; Expression profile of microRNA (miRNA) in urine and blood as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — MicroRNA (miRNA) sequencing is used to identify regulated miRNAs specific to TTNS intervention in urine and blood.; Changes in inflammatory markers in bladder tissue, blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]; Changes in levels of neurotransmitters (neurotrophins) in blood, and urine, as well as their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Analysis will be performed using ELISA to detect molecules likely to be involved in the underlying molecular mechanisms of neuromodulation.; Changes in the composition of urinary and stool microbiome and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end] — Gut and bladder microbial patterns are determined from stool and urine samples; Changes in bladder tissue and their relation to clinical outcomes [Baseline; 3 months after SCI; 6 months after SCI; 12 months after SCI / study end]</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>Incidence of side effects as well as number and intensity/severity (mild/moderate/severe) of adverse events (AEs) and serious adverse events (SAEs) for the following categories: [During complete study period, up to 12 months] — * infection - Urinary Tract Infection (UTI)
+* infection - other than UTI
+* skin irritation at the electrode site
+* irritation-related symptoms (e.g. dysuria, hematuria) immediately following a LUT intervention
+* neuro-urological deterioration
+* pressure ulcer
+* neurological deterioration
+* increase in pain
+* increase in spasticity
+* deep vein thrombosis / pulmonary embolism
+* autonomic dysreflexia
+* transfer/admittance to an acute care facility</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12708,6 +16454,17 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Increase of detrusor pressure in cmH20 [60 minutes] — Increase of detrusor pressure during the verum ice-water-test and the placebo ice-water-test (intravesical pressure increase during the filling of the bladder with 4°C or 36°C water)</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>Sensations (yes/no) [60 minutes] — Coldness, Urgency, Pain, Information with yes or no; Urinary incontinence [60 minutes] — Urinary incontinence during the test; Heart rate [60 minutes] — Assessment of the heart rate during the test</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12749,6 +16506,19 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Bold signal [baseline and 4 weeks] — During fMRI measurements the changes of BOLD signal intensity in respect to certain supraspinal areas (e.g. pons, insula, anterior cingulate cortex, thalamus, supplementary motor area, prefrontal cortex) will be evaluated.
+Variables are age, bladder volume, urgency and attention.; Structural and functional connectivity [baseline and after potential OAB treatment] — Acquired data from the above mentioned measurements will be used to analyze structural and functional connectivity between supraspinal areas involved in the LUT control, especially between prefrontal, thalamus, insula, and anterior cingulate cortex.
+Variables are age, bladder volume, urgency and attention. Correlations of neuronal activity from the fMRI-data will be estimated using SPM8, brain connectivity tool box.</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Side effects [3 years] — Pain, Lower urinary tract infection</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12790,6 +16560,17 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Maximum cystometric capacity (MCC) [1 week] — Examined during filling cystometry as measured by changes from baseline following treatment for one week.</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>Number of Participants with Adverse Events as a Measure of Safety [1 week] — Safety (physical exam, vital signs, haematology, coagulation parameters, clinical chemistry and urinalysis, ECG, pregnancy test, hand immersion test and PK \[concentrations of SAF312 in blood\]).; Bladder threshold vol, threshold pressure, instilled vol at first leak, detrusor pressure at first leak, vol/detrusor pressure at first sensation and at first desire to void, maximum detrusor pressure during filling/storage, bladder wall compliance [1 week] — All parameters examined during filling cystometry as measured by changes from baseline following treatment for one week; Micturition or catheterization frequency [1 week] — Changes from baseline, as measured by daily diaries.; Incontinence episodes [1 week] — Changes from baseline as measured by daily diaries.</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -12831,6 +16612,13 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Establishment of somatosensory evoked potentials of lower urinary tract stimulations [3 times on an average period of three months] — EEG recording during electrical stimulation of different locations of the lower urinary tract as well as during electrical and heat stimulation at the tibial and pudendal nerve and S3 dermatome.</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -12884,6 +16672,13 @@
         </is>
       </c>
       <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Survival of the patients [first visit to death]</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -12921,6 +16716,17 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Incidence of urinary tract infection following urodynamic investigation [3 days after urodynamic investigation] — every patient receives the urine examination before the urodynamic investigation and hospitalized patients additionally 3 days later and ambulatory patients in case of urinary tract infection</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>Name and number of identified bacterial species [30 minutes before examination]; Number of hospitalized and number of ambulatory patients with infection of the lower urinary tract [3 days after examination]; Incidence of urinary tract infection before urodynamic investigation [30 minutes before urodynamic investigation] — every patient receives the urine examination before the urodynamic investigation to detect a potentially urinary tract infection</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -12962,6 +16768,17 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>Urodynamic evaluation [5 years after SCI, yearly thereafter (participants are followed until death)] — Max. cystometric capacity, compliance, detrusor leak point pressure</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>secondary complications [5 years after SCI, yearly thereafter (participants are followed until death)] — recurrent tract infection, deterioration of the upper urinary tract; imaging of the upper urinary tract [5 years after SCI, yearly thereafter (participants are followed until death)] — videocystography, ultrasound</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -12999,6 +16816,17 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Incidence and degree of vesico ureter renal reflux [average: yearly scheduled control] — video urodynamic, ultrasound examination</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>pdet (cmH2O) [average: yearly scheduled control] — urodynamic parameter, detrusor pressure; Medication [average: yearly scheduled examination] — name of drugs and applied dosis; possible complications [average: yearly scheduled examination] — urinary tract infection, pyelonephritis, renal dysfunction; maximum cystometric capacity [average: yearly scheduled control] — the volume at which a patient, with normal sensation, fells he/she can no longer delay micturition; compliance mL/cmH2O [average: yearly scheduled control] — Compliance is the change in volume divided by change in detrusor pressure expressed as mL/cmH2O.; bladder management [average: yearly scheduled control] — most common: intermittent catheterisation, indwelling catheter, external condom urinal for male patients</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13036,6 +16864,17 @@
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>Changes in frequency and time [The outcome measures (VLF, LF and HF, SDNN and RMSSD are measured with an ECG recording during 10 minutes, at four different time points (two times before, and two times following the BoNT/A application] — Changes in frequency (low frequency (LF), high frequency (HF), low frequency/highfrequency (LF/HF)) and time (domain parameters. This include the root mean square of differences of successive NN (normal to normal, i.e. interval between two R peaks) intervals (RMSSD), and the standard deviation of the NN intervals (SDNN)</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>Adverse events related to BoNT/A injection (urinary tract infection, urinary retention, increasing postvoiding urine, need for intermittend catheterization [This outcome measured will be evaluated at visit 4 (six weeks, following the BoNT/A application]</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13077,6 +16916,19 @@
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Bold signal [baseline and 4 weeks] — During fMRI measurements the changes of BOLD signal intensity in respect to certain supraspinal areas (e.g. pons, insula, anterior cingulate cortex, thalamus, supplementary motor area, prefrontal cortex) will be evaluated.
+Variables are age, bladder volume, urgency and attention.; Structural and functional connectivity [baseline and after potential OAB treatment] — Acquired data from the above mentioned measurements will be used to analyze structural and functional connectivity between supraspinal areas involved in the LUT control, especially between prefrontal, thalamus, insula, and anterior cingulate cortex.
+Variables are age, bladder volume, urgency and attention. Correlations of neuronal activity from the fMRI-data will be estimated using SPM8, brain connectivity tool box.</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>Side effects [3 years] — Pain, Lower urinary tract infection</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13126,6 +16978,18 @@
         </is>
       </c>
       <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Change from baseline Danish Scale at 15th day and 8th week [up to 8th week] — The questionnaire consists of 12 questions about lower urinary tract symptoms (LUTS). It is a questionnaire study that questions the frequency and severity of their symptoms (symptom score) and its effect on their daily life (discomfort score) from the participants. It is one of the reliable methods that questions the frequency and severity of lower urinary tract symptoms and disturbing factors.; Change from baseline International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form (ICIQ-UI SF) at 15th day and 8th week [up to 8th week] — Evaluates the severity of urinary incontinence symptoms and their impact on health-related quality of life. When using the ICIQ-UI SF, an overall ICIQ score in the range of 0-21 is obtained from the first three questions. A score of zero means no urine leakage and no impact on quality of life. Question 1 (Q1) measures the frequency of urinary incontinence, question 2 (Q2) evaluates the amount of leakage, and question 3 (Q3) evaluates how much urinary incontinence affects daily life.</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Change from baseline Uroflowmetry and residual urine at 15th day and 8th week [up to 8th week] — It is one of the ideal follow-up methods due to its ease and non-invasiveness in the evaluation of lower urinary system dysfunction. The maximum flow rate, mean flow rate, voided volume, and the corresponding postvoid residual urine are evaluated.; Change from baseline Overactive Bladder Symptom Score (OABSS) at 15th day and 8th week [up to 8th week] — It includes questions that address the four symptoms of overactive bladder (daytime frequency, nighttime frequency, urgency, urge to incontinence) designed to measure overactive bladder symptoms as a single score. It is a test consisting of questions such as how many times the need to urinate after waking up in the morning before going to sleep, how many times the need to wake up to urinate from sleep to wake up in the morning, how often the urge to urinate is difficult to postpone, and how often urine is leaked because the sudden urge to urinate cannot be delayed.; Change from baseline Urinary Incontinence Quality Of Life Scale at 15th day and 8th week [up to 8th week] — It has been shown to be useful in clinical practice to evaluate the effects of lower urinary system dysfunction on individuals, the discomfort, embarrassment, withdrawal from social life and deterioration in interpersonal relationships on individual lives; It is an assessment consisting of 22 questions that can cover different areas and characterize symptom severity as well as deterioration in lifestyle.; Change from baseline Barthel İndex at 15th day and 8th week [up to 8th week] — It is a measure of independence in activities of daily living. It is a daily life activity index consisting of 10 questions consisting of nutrition, transfer from wheelchair, self-care, sitting on the toilet, bathing, walking on the right floor, using a wheelchair, going up and down stairs, dressing, undressing, bowel care, bladder care.; Change from baseline Beck's Depression Inventory at 15th day and 8th week [up to 8th week] — t is a self-assessment scale that can be used in healthy patient groups to determine the risk of depression in the individual and to measure the level and severity of depressive symptoms. It includes a total of 21 self-assessment questions.
+It provides a four-point Likert-type measurement. Each item gets progressively increasing points between 0 and 3, and the total score is obtained by summing them up. The total score ranges from 0 to 63; Change from baseline Quality of Life (Short Form 36 (SF-36)) at 15th day and 8th week [ [up to 8th week] — This is a self-administered scale, which is widely used to measure the quality of life. It was developed to measure the quality of life in patients who have physical illnesses; however, it can also be successfully used in healthy individuals and patients who have psychiatric diseases. SF-36 includes 36 items and surveys eight domains of health, such as physical functionality, physical role limitations, pain, general health, vitality, social functionality, emotional role limitations, and mental health. Total score was between 0 ( disability) and 100 (no disability). Every subgroup of the questionnaire has a score scale between 0 and 100. Every increase in the subgroup of SF-36 questionnaire, which is a positive scoring system, indicates increase in quality of life related to health.</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13163,6 +17027,17 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Change from baseline modified Barthel index at 3rd and 6th months [Up to 6 th months] — Modified Barthel Index; is used to measure the disability experienced by the patient in performing activities of daily living. It comprises 10 items regarding activities of daily living and mobility and assesses feeding, transfer from wheelchair to bed and back, self-care, bathing, walking, climbing stairs, dressing, and bladder and bowel continence. Scoring is based on whether the patient requires help or not in performing any of the above mentioned activities.; Change from baseline mini mental test score at 3rd and 6th months [Up to 6 th months] — Mini mental test measures cognitive functions such as sense of direction, memory, attention, linguistic function, and visual-spatial abilities, as well as the ability to count, recall things, repeat, and carry out orders.\[19\] The possible score ranges from 0 to 30, with lower scores indicating more severe cognitive function disorders.; Change from baseline incontinence quality of life questionnaire score at 3rd and 6th months [Up to 6 th months] — Incontinence quality of life questionnaire assessed differences in disease-specific health related quality of life between urinary symptom subgroups. It is comprised of 22 statements designed to elicit subjective evaluations of urinary incontinence (UI)- related effects and concerns.</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>Change from baseline Danish Prostatic Symptom Score at 3rd and 6th months [Up to 6 th months] — Danish Prostatic Symptom Score consists of 12 questions that focus on the frequency of the LUTD symptoms and to evaluate the impact of each symptom on the quality of life of the subject. Four questions deal with voiding symptoms (hesitancy, weak stream, bladder emptying and straining), four with storage functions (frequency, nocturia, urgency and urge incontinence) and four with miscellaneous symptoms (pain, post-micturition dribbling, stress incontinence and 'other' incontinence). All answers are classified in a four-ranked scale from zero to three, zero being the absence of symptoms or trouble, three the maximal frequency or trouble.</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -13200,6 +17075,17 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13241,6 +17127,21 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>1. WHOQOL-BREF(World Health Organization Quality of Life questionnaire), [Patients fill the scale "before discharge" and 12 weeks after discharge.] — This study want to evaluate quality of life with 2 scales. WHOQOL-BREF(World Health Organization Quality of Life Scale):The WHO Quality of Life Assessment (WHOQOL) is a generic quality of life instrument that was designed to be applicable to people living under different circumstances, conditions, and cultures. The short version known as WHOQOL-BREF with 26 items. Turkish version is 27 items. It is based on a Likert-type scale and is scored from 1 to 5, with higher scores indicating a better quality of life.; 2. Intermittent Self-Catheterization Questionnaire (ISC-Q) [Patients fill the scale "before discharge" and 12 weeks after discharge.] — This is a 24-item self-administered questionnaire. Each item is scored on a 5-point Likert-type scale ranging from 0 (strongly disagree) to 4 (strongly agree), and after the conversion of the 14 reverse-coded items to give a common range of 0-100, the scores are calculated by multiplying the mean value of all items within each domain by 25. The total ISC-Q score is then calculated from the simple average from across the four domains (0-100), with higher scores indicating a higher quality of life.</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>Intermittent Catheterization Adherence Scale (ICAS) [Patients fill the scale "before discharge" and 12 weeks after discharge.] — This study want to evaluate compliance with one scale. ICAS (IntermittentCatheterization Adherence Scale) is used to assess long-term patient adherence to prescribed ISC treatment. Binary answers were used for the first seven questions:yes = 1, no = 0, whereas the response options for the eighth question were graded on a 5-point Likert-type scale: 0 indicating "never," 0.25 "sometimes," 0.5 "often,"0.75 "regularly," and 1 "always," leading to a maximum possible score of 8. A patient's score is empirically classified in to three intervals: strong adherence = 0; average adherence = 1-2; low adherence = 3-8.</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>Mobile Application Usability Scale (MAUS) [Only the experimental group completes this scale 12 weeks after discharge.] — The scale measures mobile application usability which is formed with 10 constructs/factors which includes four items each (40 items at total). The scale measures using a 7-point Likert-type scale (1=strongly disagree...7=strongly agree)</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13290,6 +17191,17 @@
         </is>
       </c>
       <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Incontinence symtoms [change from baseline at 8 weeks] — Urinary incontinence symptoms will be evaluated with The International Consultation of Incontinence Questionnaire - Short Form; Overactive bladder symptoms [change from baseline at 8 weeks] — Overactive bladder symptoms will be evaluated with Overactive Bladder Questionnaire-Version8</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>bladder functions [change from baseline at 8 weeks] — bladder functions will be evaluated with voiding diary; Quality of life level [change from baseline at 8 weeks] — Quality of life will be evaluated with King's Health Questionnaire; subjective perception of improvement [after treatment (8th week)] — subjective perception of improvement will be evaluated with a 4-item Likert-type scale; patient satisfaction [after treatment (8th week)] — patient satisfaction will be evaluated with a 5-item Likert-type scale</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13331,6 +17243,17 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13372,6 +17295,17 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Urodynamic Study Parameters [6 weeks] — Maximum Cystometric Capacity (mL); Overactive Bladder Symptom Scoring [6 weeks] — A validated symptom scoring to detect the patients with overactive bladder symptoms and classifying them as low/moderate/high OABS. Higher results mean worse outcome</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>ICIQ-SF [6 weeks] — a subjective measure of severity of urinary loss and quality of life for those with urinary incontinence. Higher results mean worse outcome.; King's Health Questionaire [6 weeks] — Subjective measure of severity of urinary incontinence consists of nine domains: two single-item domains (general health perceptions and incontinence impact), and seven multi-item domains (role limitations, physical limitations, social limitations, personal relationships, emotions, sleep/energy, and severity/coping. Higher results mean worse outcome</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13413,6 +17347,17 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13454,6 +17399,17 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13499,6 +17455,17 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Decreased frequency of increased voiding [Change from baseline positive response rate at the 4th week after the treatment] — The effectiveness of the treatment is evaluated based on the daily voiding frequency post-treatment compared to the daily voiding frequency pre-treatment. The expected outcome is a reduction in the frequency of increased voiding.</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>Frequency of voiding [Change from baseline Frequency of voiding, nocturia, number of pads at the 4th week after the treatment] — The frequency of voiding used will be calculated from the patient's 3-day voiding frequency.; The Quality of Life [Change from baseline the Quality of Life at the 4th week after the treatment] — The Quality of Life-Incontinence Impact Questionnaire (IIQ7) will be used to assess specific QoL related to incontinence; Barthel Index for Activities of Daily Living (ADL) [Change from baseline Barthel Index for Activities of Daily Living at the 4th week after the treatment] — The Barthel Index assesses activities of daily living (ADLs), documenting what a patient does daily without determining capabilities. The 10 items to score are: feeding, bathing, grooming, dressing, bowel control, bladder control, toileting, chair transfer, ambulation, and stair climbing. Scores reflect independence, with lower scores indicating less independence. A score above 60 typically denotes independence.; The Overactive Bladder Symptom Score (OABSS) [Change from baseline The Overactive Bladder Symptom Score at the 4th week after the treatment] — OABSS (Overactive Bladder Symptom Score), four questions assessing daytime frequency (OABSS-1), nocturia frequency (OABSS-2), urgency frequency (OABSS-3), and urgency urinary incontinence (OABSS-4). Severity is rated on a Likert scale from 0-2, 0-3, 0-5, and 0-5, respectively. The total score ranges from 0 to 15, with higher scores indicating more severe symptoms.; Treatment Satisfaction Level [Change from baseline Treatment Satisfaction Level at the 4th week after the treatment] — At the end of the treatment, participants will be asked to evaluate their satisfaction level with the administered treatment using a Likert scale ranging from 1 to 5 (5=very satisfied, 4=satisfied, 3=neither satisfied nor dissatisfied, 2=dissatisfied, 1=very dissatisfied).; Cystometric value [Change from baseline Cystometric value at the 4th week after the treatment] — Cystometric value are useful in defining the voiding characteristics of patients.</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13548,6 +17515,13 @@
         </is>
       </c>
       <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Spasticity Assessment [Change from MAS scale at one week] — The Modified Ashworth Scale (MAS), the most common test used in clinical and research, will be used to assess spasticity. The reliability of the scale has been proven among raters in the lower extremities. According to the resistance to passive movement, the lowest score of the manual scale is 0 and the highest score is 4. The higher the score, the higher the spasticity.; Evaluation of Pelvic Floor Muscle Activity [Change from Muscle Activity scale at one week] — easurements are performed with surface electrodes and a device similar to a biofeedback device (NeuroTrac ETS™; Verity Medical, Romsey, UK) to evaluate pelvic floor muscle activity. The biofeedback device is used to train and test the pelvic floor muscles. As the values increase, so does the muscular activity.; International Consultation on Incontinence Questionnaire Short Form ICIQ-SF [Change from ICIQ-SF at one week] — To evaluate urinary incontinence and the effect of urinary incontinence on quality of life, Avery et al. The Turkish validity and reliability of the scale developed by Çetinel et al. Made by in 2004. The scale has four dimensions, in the first dimension how often urinary incontinence is, in the second dimension the amount of urinary incontinence, in the third dimension the effects of urinary incontinence on daily life and in the fourth dimension the conditions that cause urinary incontinence are questioned. The first three dimensions are scored in the evaluation. The answers given to the fourth dimension, which is not scored, are used to determine the type of urinary incontinence based on the individual's complaints. A score between 0 and 21 is obtained from the scale. A low score indicates that urinary incontinence affects the quality of life little, while a high score indicates that it affects the quality of life very much.; Constipation Quality of Life Scale: Constipation Quality of Life Scale (CIQS) [Change from CIQS at one week] — CIQS is a self-assessment scale consisting of 28 items in total, consisting of "anxiety/anxiety" (11 items), "physical discomfort" (4 items), "psycho-social discomfort" (8 items), "satisfaction" (five items). The highest score that can be obtained from the five-point Likert scale is 140, and the lowest score is 28. It is thought that the quality of life is negatively affected as the scores obtained from the scale increase.</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13589,6 +17563,13 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>relationship with between urinary incontinence and motor symptoms [4 months] — correlation analysis was done.</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13642,6 +17623,17 @@
         </is>
       </c>
       <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>Incontinence Quality of Life (I-QOL) [6 weeks (Before and after the treatment)] — I-QOL is used for evaluation of quality of life in patients with incontinence. It comprises 22 questions presented under three subscales: limiting behavior, psychosocial impact, and social embarrassment. All the questions are based on a five-point Likert scale (1 = a lot, 2 = quite a bit, 3 = moderate, 4 = a little, and 5 = not at all). Points obtained by each question are added together which results in a total point of 0 to 110. This total point is then recalculated to take a value between 0-100 for better understand. Higher scores indicate a better quality of life. Validation of turkish version is available.</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>Post-void residue (PVR) [6 weeks (Before and after the treatment)] — Post-void residue (PVR) will be calculated with ultrasonography. Evaluation will be made by same person in all patients after urination, in supine position transabdominally with 2-5 Mhz convex probe using E-Saote Mylab Seven (Italy) device.; Bladder diary [6 weeks (Before and after the treatment)] — 2 or 3 day bladder diary is recommended by European Association of Urology in patients with lower urinary track symptoms. Urination frequency, urgency, incontinence and nocturia will be evaluated using 3 day bladder diary.; International Consultation on Incontinence Questionnaire Short Form (ICIQ-SF) [6 weeks (Before and after the treatment)] — ICIQ-SF allows the assessment of incontinence's severity, frequency and its impact on quality of life. ICIQ-SF scoring is also a practical and reliable method for baseline and post-treatment evaluation of patients with urge incontinence. It contains six questions. First and second questions are about demographics and the sixth question is about conditions that lead to incontinence. First, second and sixth questions have no point value. Total score varies between 0 and 21 and is obtained by adding third, fourth and fifth question's points. Higher scores indicate greater problems with incontinence. Validation of turkish version is available.</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13683,6 +17675,17 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13724,6 +17727,13 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Urodynamics Test ["10 days" the amount of change after 10 days from the baseline] — While the bladder is being filled, it will be carried out to measure the pressures in the bladder and in the abdomen, to examine the nerves that provide bladder contractions, and to explain the cases of urinary incontinence or inability by examining the bladder contraction pressures and electrical activity during urination.; Extended Disability Status Scale (EDSS) ["10 days" the amount of change after 10 days from the baseline] — It is the most commonly used scale to assess disability in MS. EDSS scoring is based on the neurological examination results of eight functional systems and the patient's ambulation status. Functional systems are listed as pyramidal, cerebellar, brainstem, sensory, bladder and intestinal, visual, cerebral, and others. A score of 0-10 is given.0 denotes normal neurological examination, 10 denotes death due to MS. 1.0-4.5 refers to fully ambulatory, 5.0-9.5 refers to impaired ambulation. From 7.0 onwards there is wheelchair use and increasingly bed dependency.; Overactive Bladder Questionnaire-V8 (OAB-V8) ["10 days" the amount of change after 10 days from the baseline] — The severity of the patients' complaints, none (0); very few (1); a little (2); quite a few (3); many (4); and too many (5) it consists of 8 questions that can be graded. The total score can vary between 0 and 40.; Incontinence Quality of Life -I-QOL ["10 days" the amount of change after 10 days from the baseline] — It consists of a total of 22 questions with three sub-dimensions. Sub-dimensions; limitation of behaviors (1,2,3,4,10,11,13,20 items), psychosocial influence (5,6,7,9,15,16,17,21,22 items) and social isolation (8,12 ,14,18,19 items). All items are evaluated with a five-point Likert type (1= too much, 2= a quite, 3= moderately, 4= a little, 5= not at all) and the Likert types are recalculated to take a value between 0-100 points in order to better understand the total score calculated. Higher scores indicate better quality of life.; Voiding Diary ["10 days" the amount of change after 10 days from the baseline] — It is recommended to present the information given by the patients in an objective way. Although not entirely diagnostic, diary data can reveal normal and abnormal conditions. The 3-day voiding diary is a viable, reliable and valid tool in the evaluation of patients with lower urinary tract symptoms.; Incontinence Severity Index (ISI) ["10 days" the amount of change after 10 days from the baseline] — It consists of 2 questions, and the total score is obtained by multiplying the frequency of urinary incontinence and the amount of urine leaked, and the score range varies between 1-12. According to their score, 1-2 points are light; 3-6 points average; 8-9 points indicate severe and 12 points very severe urinary incontinence.</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13765,6 +17775,17 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>Short Form-36 (SF-36) [15 minutes] — Short Form-36 (SF-36) was used to evaluate the quality of life of the patients. The form consists of 36 items, which measure 8 dimensions. These include (1) Physical function, (2) Social function, (3) Pain, (4) Energy/vitality, (5) Role limitation due to emotional problems , (6) Role limitation due to physical health problems, (7) Mental health and (8) General perception of health. Each subscale is evaluated between 0-100 points. A higher score indicates the better health.</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>Beck Depression Inventory [15 minutes] — Beck Depression Inventory was used to assess depressive signs. The scale consists of 21 items and the items are ordered from mild to severe. Evaluation is performed in a range of 0-63 points. The lower score indicates the better psychological profile.; Mini Mental Test (MMT) [15 minutes] — Mini Mental Test (MMT) was used to evaluate the extent of cognitive impairment. MMT is divided into 5 main categories: orientation (10 points), memory (3 points), attention and calculation (5 points), recalling (3 points) and language (9 points). Total points is 30. Total score between 0-9 points is considered as severe cognitive impairment. Total score between 10-19 points is considered as moderate cognitive impairment. Total score between 20-23 points is considered as mild cognitive impairment. Total score between 24-30 points is considered as normal.; Brunnstrom scale [15 minute] — Brunnstrom scale is used to evaluate separately upper extremity, lower extremity or hand functions. Six stages are defined. Stage 1: No active movement, Stage 2: Mild spasticity, weak flexor-extensor synergy patterns, Stage 3: Marked spasticity, synergy patterns are evident, Stage 4: Some isolated movements other than synergy patterns can be seen, Stage 5: Decreased spasticity, most muscle activities are isolated, Stage 6: Phasic and well-coordinated isolated movements are performed. A higher point indicates the better status.; Functional Ambulation Category [15 minute] — Functional Ambulation Category (FAC) was used to evaluate the functional status. FAC assesses human support for ambulation rather than assistive devices. FAC 0: nonfunctional ambulation, FAC 1: Ambulator- dependent for physical assistance level II FAC 2: Ambulator- dependent for physical assistance level I, FAC 3: Ambulator-dependent for supervision FAC 4: Ambulator-independent level surfaces only FAC 5: Ambulator-independent. A higher score indicates the better status.; Barthel Index (BI) [15 minute] — Barthel Index (BI) evaluates functional independence in term of daily living activity. Total score is 100 points. A higher point indicates better functional status.</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -13818,6 +17839,13 @@
         </is>
       </c>
       <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Changes in Questionnaire Scores [every 3 months] — Bladder dysfunction; Changes in Urodynamics [every 3 months] — Bladder dysfunction</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -13859,6 +17887,17 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -13908,6 +17947,17 @@
         </is>
       </c>
       <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Uroflowmetry [Baseline] — It provides a valuable non-invasive assessment of voiding functions. It is the measurement of urine flow rate in ml/sec with the help of a flow meter. Since it is non-invasive among urodynamic tests, it can be used for screening purposes. Pattern and rate of flow depend on detrusor function and bladder outlet resistance.; Uroflowmetry [After the 6-week intervention] — It provides a valuable non-invasive assessment of voiding functions. It is the measurement of urine flow rate in ml/sec with the help of a flow meter. Since it is non-invasive among urodynamic tests, it can be used for screening purposes. Pattern and rate of flow depend on detrusor function and bladder outlet resistance.; Post voiding residue (PVR) [Baseline] — PVR will be measured using a 5-13-MHz convex ultrasound probe.; Post voiding residue (PVR) [After the 6-week intervention] — PVR will be measured using a 5-13-MHz convex ultrasound probe.</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>Overactive bladder form (OAB-v8) [Baseline] — OAB-v8 is an eight-item screening test for overactive bladder (OAB) symptoms and has been validated in Turkish. The total score is between 0 and 40. Higher scores indicate OAB symptom burden and severity.; Three-day bladder diary (BD) [Baseline] — BD contains the most critical parameters for measuring the frequency and severity of LUTS according to International Continence Society (ICS) recommendations and definitions. The 3-day bladder diary measures the frequency of urination, nocturia, urgency, and urge incontinence for 3 consecutive days. The average frequency of each symptom over three days will be considered the final result.; King's Quality of Life Questionnaire (KHQ) [Baseline] — One of the commonly used quality of life measures for urinary dysfunction is the King's Quality of Life Questionnaire. It is one of the most valid and widely used questionnaires that targets the quality of life in patients with urinary incontinence and precisely measures the impact of urinary incontinence symptoms on the quality of life.; Incontinence Severity Index (ISI) [Baseline] — Developed for use in epidemiological and clinical studies to identify women suffering from urinary incontinence, ISI, used in many different urinary incontinence studies, consists of two questions and the total score obtained by multiplying the frequency of urinary incontinence and the amount of urinary incontinence varies between 1 and 12.; Neurogenic Bladder Symptom Score (NBSS) [Baseline] — The Neurogenic Bladder Symptom Score (NBSS) is a discriminatory tool developed for use in patients with spinal cord injuries, multiple sclerosis, and spina bifida. There are a total of 22 questions covering incontinence, storage and voiding symptoms, as well as urinary complications associated with neurogenic bladder dysfunction.; Overactive bladder form (OAB-v8) [After the 6-week intervention] — OAB-v8 is an eight-item screening test for overactive bladder (OAB) symptoms and has been validated in Turkish. The total score is between 0 and 40. Higher scores indicate OAB symptom burden and severity.; Three-day bladder diary (BD) [After the 6-week intervention] — BD contains the most critical parameters for measuring the frequency and severity of LUTS according to International Continence Society (ICS) recommendations and definitions. The 3-day bladder diary measures the frequency of urination, nocturia, urgency, and urge incontinence for 3 consecutive days. The average frequency of each symptom over three days will be considered the final result.; King's Quality of Life Questionnaire (KHQ) [After the 6-week intervention] — One of the commonly used quality of life measures for urinary dysfunction is the King's Quality of Life Questionnaire. It is one of the most valid and widely used questionnaires that targets the quality of life in patients with urinary incontinence and precisely measures the impact of urinary incontinence symptoms on the quality of life.; Incontinence Severity Index (ISI) [After the 6-week intervention] — Developed for use in epidemiological and clinical studies to identify women suffering from urinary incontinence, ISI, used in many different urinary incontinence studies, consists of two questions and the total score obtained by multiplying the frequency of urinary incontinence and the amount of urinary incontinence varies between 1 and 12.; Neurogenic Bladder Symptom Score (NBSS) [After the 6-week intervention] — The Neurogenic Bladder Symptom Score (NBSS) is a discriminatory tool developed for use in patients with spinal cord injuries, multiple sclerosis, and spina bifida. There are a total of 22 questions covering incontinence, storage and voiding symptoms, as well as urinary complications associated with neurogenic bladder dysfunction.</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -13945,6 +17995,20 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Feasibility of the methods-minimum recruitment rate [Through Study Completion, an Average of 8 Weeks] — A minimum recruitment rate of 10 participants per month will be accepted as feasible.; Feasibility of the methods-minimum retention rate [Through Study Completion, an Average of 8 Weeks] — A target retention rate of 80% will be accepted as feasible.; Feasibility of the methods-minimum adherence rate [Through Study Completion, an Average of 8 Weeks] — A target minimum adherence rate of 70% of the overall practice sessions will be accepted as feasible.; Feasibility of the methods-adverse events [Through Study Completion, an Average of 8 Weeks] — A record sheet was prepared for possible adverse events during the tests and intervention. It includes information about seriousness, expectedness, severity, causality, time, duration of the event and clinical action taken. The numbers of adverse events will be reported.; Change in Leakage Episodes [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — The bladder diary is a form that is used to objectively evaluate the frequency and severity of urinary incontinence. It will be used to determine the leakage episodes. It will be filled in three days by the patients. The amount of fluid taken in the diary, the amount of urine, the number of incontinence and pad change are recorded.</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>Expanded Disability Status Scale (EDSS) [The assessment will be applied at baseline.] — EDSS is the most frequently used scale in evaluating the disability of individuals with MS. Scoring based on neurological examination findings takes a value between 0-10. While 0 shows normal neurological findings, 10 means death due to MS. In this scale in which pyramidal, cerebral, cerebellar, visual, sensory, brainstem, bladder and bowel functions are scored, the best performance of the patient without any special effort is evaluated.; Change in Patient-Determined Disease Steps Scale (PDDS) Score [The assessments will be applied at baseline and 8 weeks.] — PDDS was designed in 1995 as a self-reported outcome measure to enable neurologists without EDSS evaluator certification to measure the level of disability of people with MS. It consists of one question. In PDDS, the patient is asked to choose one of the 9 items that best describes his current walking ability.; Change in Brief International Cognitive Assessment for MS-Symbol Digit Modalities Test Score [The assessments will be applied at baseline and 8 weeks.] — Brief International Cognitive Assessment for MS (BICAMS) has been proposed by an expert panel as a tool for brief cognitive monitoring of individuals with MS in clinical settings.
+Processing speed will be assessed with the Symbol Digit Modalities Test, a subsection of BICAMS.; Change in Brief International Cognitive Assessment for MS-California Verbal Learning Test-Second Edition Score [The assessments will be applied at baseline and 8 weeks.] — Brief International Cognitive Assessment for MS (BICAMS) has been proposed by an expert panel as a tool for brief cognitive monitoring of individuals with MS in clinical settings.
+Verbal learning and memory will be assessed with the California Verbal Learning Test-Second Edition, a subsection of BICAMS.; Change in Brief International Cognitive Assessment for MS-Brief Visuospatial Memory Test-Revised Score [The assessments will be applied at baseline and 8 weeks.] — Brief International Cognitive Assessment for MS (BICAMS) has been proposed by an expert panel as a tool for brief cognitive monitoring of individuals with MS in clinical settings.
+Visual-spatial learning and memory will be assessed with the Brief Visuospatial Memory Test-Revised, a subsection of BICAMS.; Change in Pad Usage [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — The bladder diary is a form that is used to objectively evaluate the frequency and severity of urinary incontinence. It will be used to determine the pad usage. It will be filled in three days by the patients. The amount of fluid taken in the diary, the amount of urine, the number of incontinence and pad change are recorded.; Change in International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form Score [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — International Consultation on Incontinence Questionnaire-Urinary Incontinence Short Form was developed to evaluate the effect of urinary incontinence and urinary incontinence on quality of life. The scale has four dimensions. The first dimension questions the frequency of urinary incontinence, the second dimension questions the amount of incontinence, the third dimension questions the effect of urinary incontinence on daily life, and the fourth dimension questions the conditions that cause urinary incontinence. In the evaluation, the first three dimensions are scored. Responses to the fourth dimension are used to determine the type of urinary incontinence based on the individual's complaints. The scores that can be obtained from the scale range from 0-21; a low score indicates that urinary incontinence affects the quality of lifeless, while a high score indicates that it affects a lot.; Change in Overactive Bladder-Validated 8-Question (OAB-V8) Score [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — The OAB-V8 is a screening and awareness test that is used to evaluate the symptoms of urgency, urination, frequent urination and feeling of urine at night and waking up in the overactive bladder. The scale consists of 8 items and answers are scored on a 6-level Likert scale. A maximum score of 40 can be obtained from the scale, and a score below 8 eliminates overactive bladder.; Change in EuroQOL 5-Dimension 3-Level Questionnaire Score [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — EuroQOL 5-Dimension 3-Level is a self-report scale developed to evaluate the quality of life and consists of two parts. The first part contains five dimensions. These dimensions are mobility, self-care, usual daily activities, pain/discomfort, and anxiety/depression. These five dimensions are evaluated with one question each. Answers to each dimension; It is scored between 1 and 3. The second part includes a visual analog scale in which the respondents evaluate their current health status between 0 and 100.; Change in Multiple Sclerosis Intimacy and Sexuality Questionnaire-19 (MSISQ-19) Score [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — MSISQ-19 is a test that standardizes primary (direct result of demyelinating lesions), secondary (consequence of other symptoms) and tertiary (related to psychological, emotional, social and cultural factors) sexual dysfunction in the MS population in the last 6 months. It consists of 19 questions and is based on self-assessment in sexual activity and satisfaction. It is scored between 1 and 5.; Change in Hospital Anxiety and Depression Scale (HADS) Score [The assessments will be applied at baseline, 4, 8, and 12 weeks.] — HADS is used to determine the risk of anxiety and depression in the patient and to measure its level and severity. It is a self-report scale consisting of 7 anxiety and 7 depression related questions in total and two subscales. Items are scored with a 3-level Likert-type scale. Higher scores indicate more symptoms.; Change in the number of falls due to a sense of urgency [The assessments will be applied at baseline and 8 weeks.] — The number of falls will be questioned because of the sensing of impingement in the last three months.</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -13986,6 +18050,17 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14027,6 +18102,17 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14064,6 +18150,17 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>Core Lower Urinary Tract Symptoms Score [10 minuttes] — The questionnaire was developed by Homma et al. in 2008 to assess lower urinary tract symptoms. The Turkish validity and reliability study of the questionnaire was conducted by Erbay et al. in 2022. The first 5 questions in the 13-question questionnaire are about storage problems, the next 3 questions are about urination problems, and the next 2 questions are about lower urinary tract pain. The first 10 questions are scored on a Likert-type scale from 0 to 3. The Core Lower Urinary Tract also includes a question asking participants to list three core symptoms (question 11) and a question about the primary core symptom (question 12). It also includes a question about quality of life (question 13). The last question is about the patients\&amp;#39; satisfaction with their current urinary status, scored from 0 to 6.</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>Overactive Bladder Questionnaire-V8 [5 minutes] — Overactive Bladder Questionnaire was first developed in English by Coyne and colleagues in 2002. In later studies, Overactive Bladder Questionnaire short form and shorter forms such as Overactive Bladder Questionnaire-V8 were developed. Overactive Bladder Questionnaire-V8 consists of the first 8 questions of Overactive Bladder Questionnaire and was recommended as an Overactive Bladder Questionnaire screening and awareness test. The validity and reliability of the questionnaire in Turkish was conducted by Tarcan et al. in 2012. Today, it is frequently used to evaluate lower urinary tract symptoms. The Overactive Bladder Questionnaire-V8 uses a Likert-type scale of 0-5 to determine the severity of individuals\&amp;#39; complaints: None (0); a little (1); a little (2); a lot (3); a lot (4); a lot (5). The total score is between 0 and 40. If the total score obtained from the questionnaire is more than 8, individuals are considered to have possible lower urinary tract symptoms.</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14105,6 +18202,17 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14146,6 +18254,17 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Evaluation of Urinary Symptoms [8 week] — Urinary symptoms will be assessed with the International Incontinence Questionnaire Short Form. The International Incontinence Questionnaire Short Form consists of a total of six questions. The total score is obtained by summing the scores of questions 3, 4 and 5. Scores that can be obtained from the scale vary between 0-21; a low score indicates that urinary incontinence affects quality of life a little, while a high score indicates that it affects it a lot.; Evaluation of Bladder Functions [8 week] — A bladder diary will be used to assess bladder function for lower urinary tract symptoms. Patients will be asked to complete a 24-hour bladder diary on three non-consecutive days. Average day-night voiding frequency, voiding volume and number of urinary incontinence will be calculated by averaging the three daily urinary diaries.</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>Evaluation of the degree of urinary symptoms [8 week] — Overactive Bladder-Version8 will be used to assess the degree of lower urinary system symptoms due to overactive bladder. The score to be obtained from the scale ranges from "0" the best to "40" the worst. If the total score on the scale is more than 8, the subjects are considered to have possible lower urinary tract symptoms.; Evaluation of Pelvic Floor Muscle Function [8 week] — Pelvic floor muscle function will be evaluated with the 632 Myomed biofeedback device. The pressure probe and device will be disinfected in each individual before the application and the probe will be used with a condom to ensure the hygiene of the individual. During the assessment, the pressure probe will be inserted intravaginally while the individual is supine, knees bent and slightly apart. Assessment results will be recorded in hectopascal.; Evaluation of pelvic floor muscle strength [8 week] — Vaginal palpation method will be used to measure pelvic floor muscle strength. The assessment will be performed in supine position, with hips and knees flexed and soles of the feet in contact with the bed. After taking the necessary hygiene measures, the physiotherapist will place the index and middle finger intravaginally. The individual will then be asked to pinch the physiotherapist's fingers and pull upwards for pelvic floor muscle contraction. The outcome value will be scored with the Modified Oxford grading system.; Evaluation of the endurance of the lateral core muscles [8 week] — The lateral bridge test will be used to assess the endurance of the lateral core muscles. Individuals will be asked to place their forearms and feet on the side of one side in a position to carry their body weight, then they will be asked to maintain this position by lifting their hips from the bed. The test will be terminated when the proper posture is broken or the pelvis falls on the bed, and the time from maintaining the proper position to breaking the position will be recorded in seconds. The test will be performed separately on the right and left side.; Evaluation of the endurance of the anterior core muscles [8 week] — Flexor endurance test will be used to assess the endurance of the anterior core muscles. Individuals will be placed on the bed with their trunk at 60°, knees and hips at 90° flexion and supported by their feet. In this position, the time in seconds will be recorded until they lose 60° of trunk flexion.; Evaluation of endurance of the posterior core muscles [8 week] — The extensor endurance test will be used to evaluate the endurance of the posterior core muscles. Individuals will lie in a prone position with pelvis, hips and knees supported on the bed and the upper trunk will be positioned on the edge of the bed in a straight, slightly extended position. Individuals will be stabilized by their feet. The test will be terminated when the trunk falls from the horizontal position to flexion and the time in this position will be recorded in seconds.; Evaluation of Deep Lumbar Muscular Strength [8 week] — Stabilizer Pressure Biofeedback device will be used to assess deep lumbar muscular strength. Individuals will be asked to lie in a prone position and keep their knees in a straight position, their spine straight and their head in a comfortable position. The cushion of the measuring device will be placed under their abdominal area with the air completely deflated. After the manometer needle is set to 70 mm/Hg, the individuals will be asked to contract the transversus abdominous muscles for 5 seconds as taught. The test will be performed for 10 s and 3 repetitions and the average of the results of the 3 tests will be recorded in mm/Hg.; Evaluation of Quality of Life [8 week] — King Health Questionnaire will be used to assess quality of life. The questionnaire consists of two parts and includes 32 items. . On the complaint severity scale, the best score is "0" and the worst score is "30". In other subsections of the King Health Questionnaire, the best score is "0" and the worst score is "100".; Evaluation of Subjective Perception of Recovery [8 week] — The Global Perceived Impact scale will be used to assess the subjective perception of improvement after the training. Participants will be asked to rate on a scale of 1 to 9 the extent to which their complaints have improved compared to before the training. The description of the scores is; '1' 'much improved', '2' 'much improved', '3' 'moderately improved', '4' 'slightly improved', '5' 'unchanged', '6' 'slightly worsened', '7' 'moderately worsened', '8' 'much worsened', '9' 'much worsened'.; Evaluation of Perceived Health Problem [8 week] — The health problem perceived by individuals will be assessed with the Patient-specific complaints instrument. The numbered classification scale-11 (0-10) will be used for scoring. The individual will be asked to give a score between 0-10 for the severity of the problem caused by lower urinary tract symptoms as perceived by the individual. 0 means "no complaint at all" and 10 means "very severe complaint".; Evaluation of Compliance with Training [8 week] — The compliance of the individuals with the training will be evaluated using a 10-centimeter visual analog scale. At the end of the study, the individuals in the control and experimental groups will be asked to evaluate the training program given to them by marking the place that best expresses themselves on a 10 cm line between 0 (I did not apply the treatment given at all) and 10 (I applied the treatment given completely). The distance between the marked point and the starting point will be recorded.</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14183,6 +18302,13 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Index of severity incontinence (ISI) [4 weeks] — The total score is between 0-12. A score of "0" indicates that there is no incontinence. The scale score is then categorized into 4 different levels of incontinence severity: 1-2: mild, 3-6: moderate, 8-9: severe, 10-12: very serious.; nternational Consultation on Incontinence Questionnaire Short Form(ICIQ-SF) [4 weeks] — The scores that can be obtained from the scale range from 0 to 21; A low score indicates that urinary incontinence has little effect on quality of life, while a high score indicates that it affects the quality of life very much.; Incontinence quality of life (IQOL) [4 weeks] — The total score ranges from 0 to 100. High scores indicate better quality of life than low scores.</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14224,6 +18350,17 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic (filling cystometry) assessment at baseline (screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Number of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Number of Subjects With No IDCs During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — All subjects had a standardised urodynamic filling cystometry assessment at baseline (screening) and again at Week 6 to determine the occurrence of IDCs. The number of subjects without IDCs at 6 weeks after the first study treatment was recorded and the percentage of subjects was also calculated from the total number of subjects with data available for analysis at Week 6.; Mean Change From Baseline in Incontinence Quality of Life (I-QoL) Questionnaire Total Summary Score at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The I-QoL questionnaire is a validated, disease-specific questionnaire designed to measure the effect of UI on subjects' QoL. It consists of 22 items in 3 domains (avoidance and limiting behaviour, psychosocial impact and social embarrassment). Subjects used a 5-point response scale for each of the 22 items with values ranging from 1 (extremely) to 5 (not at all). The total summary score was transformed to a 100 point scale ranging from 0 to 100, with higher scores indicating a better QoL. The LS mean of the change in the I-QoL total summary score at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Number of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of baseline UI episodes was compared with the number of UI episodes at Week 6 to determine the level of response each subject reached, i.e. a decrease of ≥30%, ≥50% or ≥75% . The number of subjects showing an improvement of ≥30%, ≥50% and ≥75% were recorded and the percentage of subjects was also calculated from the total number of subjects with any number of UI events at Week 6.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Median Time Between Treatments [Day of first treatment (baseline) and day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined based on the Kaplan-Meier method. Subjects with no retreatment were censored at the last visit.</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14265,6 +18402,21 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Urinary Incontinence [Three months] — Urinary incontinence severity and impact will be assessed at baseline and after 3 months using the International Incontinence Questionnaire Short Form (ICIQ-SF).</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>Quality of life in Women with Multiple Sclerosis [Three months] — The impact of incontinence on quality of life will be assessed at baseline and after 3 months using the Incontinence Quality of Life Scale (I-QOL).</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>The Broome Pelvic Floor Muscle Exercise Self-Efficacy [Three months] — Individuals' self-efficacy beliefs regarding performing pelvic floor muscle exercises will be assessed using the Broome Pelvic Floor Muscle Exercise Self-Efficacy Scale at baseline and after 3 months.</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14302,6 +18454,13 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Life quality: Short-form 36 [4 months] — The quality of life of the patients will be determined using Short-form 36. The self-reported questionnaire includes 8 domains (using algorithms) (0-100 points). Higher scores show poorer quality of life.; Neurogenic Bladder Symptom Score Questionnaire [4 months] — Neurogenic Bladder Symptom Score Questionnaire is a 24 item self-reported questionnaire(0-74 points). The questionnaire includes 4 subgroups; incontinence (0-29 points), storage\&amp;voiding (0-22 points) and consequences (0-23 points). Higher the score, the greater the severity of the symptoms.; The King's Health Questionnaire [4 months] — The King's Health Questionnaire (KHQ) is one of the most widely used for assessing QOL in patients with urinary inkontinence.The KHQ consists of two parts and 32 items \[7\]. The first part (21 items) contains two single-item questions that address General Health Perception and Incontinence Impact and the following seven multi-item domains: Role, Physical, and Social Limitations, Limitations in Personal Relationship, Emotional Problems, Sleep and Energy Disturbances associated with UI, and Severity Measures for UI. The second part has an 11-item Symptom Severity Scale (SSS) that assesses the presence and severity of urinary symptoms. While the entire SSS is scored from 0 (best) to 30 (worst), the minimum possible score is 0 (best health) and the maximum possible score is 100 (worst health) for all other KHQ domains.</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14343,6 +18502,19 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Voiding Disorders Symptom Scoring [Change from Baseline at 12th week] — Voiding Disorders Symptom Scoring was developed in 2005 and includes 13 questions about symptoms and 1 question about quality of life .
+The scale is for parents and scoring is done according to the answers from the parents. The total score is between 0-35 points. As the score obtained from the scale increases, the severity of the patient's symptoms also increases.</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>Bladder Diary [Change from Baseline at 12th week] — The bladder diary is a simple and non-invasive method of assessing people with lower urinary tract symptoms. The International Children's Continence Society has proposed a chart to assess lower urinary tract dysfunction, showing 48-hour daytime voiding frequency, voiding volume, voiding duration, presence of urgency, type and amount of fluid intake, and degree of urinary incontinence.; Pediatric Incontinence Quality of Life Scale [Change from Baseline at 12th week] — Pediatric Incontinence Quality of Life Scale is the first continence quality of life scale developed in the pediatric population. It is a continence-specific quality of life scale developed for children and adolescents in 2006. The Turkish validity and reliability study was performed in 2011.
+In the initial development stages of the PINQ scale, it was developed as 28 questions including 7 dimensions that evaluate children's social relations with their peers, self-esteem, family and home relations, body image, independence, mental health and treatment. In the following studies, these dimensions were grouped into two as Extrinsic (extrinsic) and Intrinsic (intrinsic), and finally the number of questions was arranged as 20. Each question is given a score of 0 (no), 1 (almost never), 2 (sometimes), 3 (often), 4 (always), and a total score (0-80) is calculated. An increase in the total score indicates that the patient's quality of life worsens .; Rome IV Criteria [Change from Baseline at 12th week] — Rome IV criteria allow to detect the presence of constipation in toilet trained or untrained children. Abdominal pain that recurs at least once a week in the last 3 months; If defecation is associated with at least two of the symptoms of a change in the frequency of pooping and a change in the form of poop, constipation is present according to the Rome 4 criteria.; Bristol Stool Scale [Change from Baseline at 12th week] — The Bristol Stool Scale (BSS) was developed by Lewis and Heaton at the University of Bristol in 1990 and classifies human faeces into 7 groups. The shape of the stool changes according to the time it stays in the colon. The BSS is a fast and reliable indicator of transit time. There are 7 different poop forms on the Bristol stool scale. Types 3 and 4 correspond to the normal poop form. Types 1 and 2 show that the person has symptoms of constipation. Tip 5,6,7 corresponds to (in order) lack of fiber, mild diarrhea and severe diarrhea.</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14384,6 +18556,17 @@
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -14421,6 +18604,17 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14462,6 +18656,17 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -14499,6 +18704,17 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14540,6 +18756,17 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14581,6 +18808,17 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Checklist or consensus guideline which can be used to measure a symptomatic urinary tract infection and Practicality of carrying out a definitive randomised controlled clinical study [23 months]</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>Number of participants willing to participate [14 months]; Number of successfully collected urine samples via courier [14 months]; Drug compliance [14 months] — Measured by the number of un-used drug packs that the participants will return upon each hospital visit</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14622,6 +18860,18 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Frequency of reported episodes of urinary incontinence as a measure of effectiveness. [Up to 16 months] — Positive response to International Consultation on Incontinence Questionnaire-Urinary Incontinence Short-Form (ICIQ-UI SF).
+This outcome will be the primary outcome for a future full evaluation trial, should it prove feasible.</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>Changes in the severity of urinary incontinence episodes experienced. [Up to 16 months]; Number of participants with adverse events as a measure of safety and tolerability. [Up to 16 months]; Changes in severity of urinary urgency, frequency and nocturia. [Up to 16 months] — By completion of AUASI; Urinary symptoms experienced on the American Urological Association Symptom Index [Up to 16 months]; Mean Urgency Perception Scores recorded on a 3 day bladder diary [Up to 16 months]; Patient Perception of Bladder Condition [Up to 16 months]; Severity of bowel symptoms [Up to 16 months]; Patient Perception of Bowel Condition [up to 16 months]; Changes in post-void residual urine volume. [Up to 16 months]; Amount of urine leakage in 24 hours [Up to 16 months]; Participants perception of independence from any help with activities of daily living [Up to 16 months] — Measured by completion of the Barthel Index Score and Modified Rankin Score.</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14663,6 +18913,17 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14704,6 +18965,17 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14745,6 +19017,17 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -14782,6 +19065,17 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -14823,6 +19117,17 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -14864,6 +19169,17 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>What proportion of patients with 'scan negative' CES have a functional disorder by clinical consensus. [Nov 15-Aug 18] — Percent of patients with 'scan negative' CES and a functional disorder.</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>Demographics (age, gender, work status) in patients with 'scan positive' and 'scan negative' CES. [Nov 15-Aug 18] — Demographics; Neurological examination findings, using Medical Research Council (MRC) grading and standardised sensory and reflex examinations in patients with 'scan positive' and 'scan negative' CES. [Nov 15-Aug 18] — MRC grading of strength (0-5, from no power to full power); Hospital Anxiety and Depression (HADs) scores and Structured clinical interview for DSM (SCID) findings in patients with 'scan positive' and 'scan negative' CES at onset of symptoms and HADs scores three months after symptom onset. [Nov 15-Aug 18] — Hospital Anxiety and Depression (HADs) scores (\&lt;8 negative, 8-10 mild, 8-14 moderate, 15-21 severe).; Patient priorities after discharge rated using a visual analogue scale. Options will be pain, bladder symptoms, bowel symptoms, sexual function, sensory disturbance, financial, worry/stress/low mood. [Nov 15-Aug 18] — visual analogue scale from 1 would most value help with to 8 would least value help required; The number of patients with 'scan negative' CES have other neurological disease causing their symptoms. [Nov 15-Aug 18] — Number of patients who have a neurological diagnosis explaining their symptoms at up to one year after discharged with CES symptoms.; The number of patients with 'scan negative' CES who have sacral nerve dysfunction found on EMG. [Nov 15-Aug 18] — with 'scan negative' CES who have sacral nerve dysfunction found on EMG.; Bladder function using Urinary Symptom Profile (USP) in patients with 'scan positive' and 'scan negative' CES at symptom onset and at three months after discharge. [Nov 15-Aug 18] — Urinary Symptom Profile splits symptoms up into stress incontinence(0 none to 9 severe), overactive bladder (0 none to 21 severe), low stream (0 none to nine severe); Bowel function using The Neurogenic Bowel Dysfunction score in patients with 'scan positive' and 'scan negative' CES at symptom onset and at three months after discharge. [Nov 15-Aug 18] — 10-13 is moderate dysfunction, 14 or over is severe dysfunction; Sexual function using the Arizona Sexual Experiences Questionnaire in patients with 'scan positive' and 'scan negative' CES at symptom onset and at three months after discharge. [Nov 15-Aug 18] — Abnormal is \&gt;19 or 5 or more on any item or 4 or more on three items</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -14905,6 +19221,18 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>Frequency of reported episodes of urinary incontinence as a measure of effectiveness. [Up to 16 months] — Positive response to International Consultation on Incontinence Questionnaire-Urinary Incontinence Short-Form (ICIQ-UI SF).
+This outcome will be the primary outcome for a future full evaluation trial, should it prove feasible.</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>Changes in the severity of urinary incontinence episodes experienced. [Up to 16 months]; Number of participants with adverse events as a measure of safety and tolerability. [Up to 16 months]; Changes in severity of urinary urgency, frequency and nocturia. [Up to 16 months] — By completion of AUASI; Urinary symptoms experienced on the American Urological Association Symptom Index [Up to 16 months]; Mean Urgency Perception Scores recorded on a 3 day bladder diary [Up to 16 months]; Patient Perception of Bladder Condition [Up to 16 months]; Severity of bowel symptoms [Up to 16 months]; Patient Perception of Bowel Condition [up to 16 months]; Changes in post-void residual urine volume. [Up to 16 months]; Amount of urine leakage in 24 hours [Up to 16 months]; Participants perception of independence from any help with activities of daily living [Up to 16 months] — Measured by completion of the Barthel Index Score and Modified Rankin Score.</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -14942,6 +19270,17 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). A positive change from baseline represents an improvement</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -14979,6 +19318,17 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 1] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 2] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 3] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 4] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).; Change From Study Baseline in the Daily Average Number of Urinary Incontinence Episodes [Study Baseline, Week 6 Treatment Cycle 5] — Urinary incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary in the 3 consecutive days prior to each study visit for study 191622-094 (or 7 days prior to each visit in study 191622-515 or 191622-516). The number of incontinence episodes are averaged daily during this period. The initial study baseline is obtained from the patient bladder diary in the 7 consecutive days prior to the first treatment in either study 191622-515 or 191622-516. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 1] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 2] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 3] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 4] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in the Incontinence Quality of Life Instrument (I-QOL) Total Summary Score [Study Baseline, Week 6 Treatment Cycle 5] — The I-QOL questionnaire is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure the impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0 = worst QOL and 100= best QOL). The I-QOL total score is calculated by combining the 22-item subscores from the 3 I-QOL domains: Avoidance Limiting Behavior, Psychological Impact, and Social Embarrassment. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improved QOL.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 1] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 2] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 3] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 4] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.; Change From Study Baseline in Volume Per Void [Study Baseline, Week 6 Treatment Cycle 5] — The total volume voided (voluntary or by catheterization) is recorded by the patient over a 24-hour period preceding the study visit. The average volume per voiding episode is derived by dividing the total volume collected in a 24-hour period by the total number of urinary episodes with volume recorded in the same 24-hour period. The initial study baseline is obtained from data collected prior to the first treatment in Study 191622-515 or 191622-516. Positive number changes from baseline indicate improvement.</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15020,6 +19370,17 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15061,6 +19422,17 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15102,6 +19474,13 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>Functional Bladder Capacity [Baseline, 4 weeks after implant, 8 weeks after implant] — Functional Bladder capacity is measured as the average passed volume per episode, in milliliters, as recorded in the patient's voiding diary during the observation period. Due to the small number of patients in each group, the summary on the functional bladder capacity was provided for the combined groups.</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr"/>
+      <c r="N362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15143,6 +19522,17 @@
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>Number of participants reporting adverse events as recorded using a customised diary [12 weeks] — Adverse events are recorded by patients using a compliance diary</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>Improvement in overactive bladder symptoms as evaluated using a Global Response Assessment (GRA) scale [12 weeks] — The Global Response Assessment (GRA) scale assesses the response to treatment using an ordinal scale of 0 to 3, referring to none, mild, moderate or marked improvement, respectively</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15184,6 +19574,17 @@
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15225,6 +19626,17 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>Change in average voided volume [At 0, 4, 10 and 14 weeks] — The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>Change in average 24-hour frequency [At 0, 4, 10 and 14 weeks] — The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in visual acuity and colour vision [At 0, 4, 10 and 14 weeks] — Employs logMAR based and Farnsworth-Munsell 100 Hue testing. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in average 24-hour incontinence [At 0, 4, 10 and 14 weeks] — The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in urgency score [At 0, 4, 10 and 14 weeks] — The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in I-QOL score [At 0, 4, 10 and 14 weeks] — The Incontinence - Quality of Life questionnaire is administered at the beginning and end of each four week treatment phase. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in Whittington Urgency Score [At 0, 4, 10 and 14 weeks] — The Whittington Urgency Score is administered at the beginning and end of each four week treatment phase. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in Kurtzke EDS [At 0, 4, 10 and 14 weeks] — The Kurtzke EDS assessment is undertaken at the beginning and end of each four week treatment phase. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in MSIS-29 [At 0, 4, 10 and 14 weeks] — The Multiple Sclerosis Impact Scale is administered at the beginning and end of each four week treatment phase. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in MS FC [At 0, 4, 10 and 14 weeks] — The The Multiple Sclerosis Functional Composite assessment is undertaken at the beginning and end of each four week treatment phase. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.; Change in MS WS [At 0, 4, 10 and 14 weeks] — The Multiple Sclerosis Walking Scale is assessed at the beginning and end of each four week treatment phase. The change is calculated as the value at the later time point minus the value at the earlier time point for weeks 0 to 4 and weeks 10 to 14 respectively.</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15266,6 +19678,13 @@
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>Percent Change From Baseline in Frequency of Micturition Per Day at 8 Weeks. [Baseline and 8 weeks after randomization.] — Number of micturitions per day was assessed using a patient diary during three days at baseline and after 8 weeks of treatment. The relative change in mean number of micturitions was compared between the groups. The change was calculated as percent change = ((measure at 8 weeks - measure at baseline)/measure at baseline)\*100%.</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr"/>
+      <c r="N366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15307,6 +19726,17 @@
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -15344,6 +19774,17 @@
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>Change from baseline in maximum cystometric capacity [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>Change from baseline in bladder volume at first involuntary contraction [4 Weeks]; Change from baseline in pressure at first leak [4 Weeks]; Change from baseline in volume at first leak [4 Weeks]; Change from baseline in maximum detrusor pressure [4 Weeks]; Change from baseline in micturition or catheterization frequency [4 Weeks]; Change from baseline in incontinence episodes [4 Weeks]; Incidence and severity of adverse events [4 Weeks]</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15385,6 +19826,13 @@
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>Relative incidence of symptomatic antibiotic-treated UTI [12 months] — Relative incidence of symptomatic antibiotic-treated Urinary Tract Infection between the trial groups over 12 months</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr"/>
+      <c r="N369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15426,6 +19874,17 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15467,6 +19926,17 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>Checklist or consensus guideline which can be used to measure a symptomatic urinary tract infection and Practicality of carrying out a definitive randomised controlled clinical study [23 months]</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>Number of participants willing to participate [14 months]; Number of successfully collected urine samples via courier [14 months]; Drug compliance [14 months] — Measured by the number of un-used drug packs that the participants will return upon each hospital visit</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15512,6 +19982,17 @@
         </is>
       </c>
       <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>Bladder Pressure [2-3 hours] — Urodynamics testing - High frequency SARS; Rectal Pressure [2-3 hours] — Urodynamics- High frequency SARS; Detrusor Pressure [2-3 hours] — Urodynamics- High frequency SARS; Sphincter Pressure [2-3 hours] — Urodynamics1- High frequency SARS; Volume voided [2-3 hours] — urodynamics- High frequency SARS; Post-void residual volume [2-3 hours] — Urodynamics- High frequency SARS; Voiding Flow Rate [2-3 hours] — Urodynamics- High frequency SARS</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>Bladder pressure [2-3 hours] — Urodynamics - Low frequency SARS; Bladder Capacity [2-3 hours] — Urodynamics - Low frequency SARS; Reflex incontinence [2-3 hours] — Urodynamics - Low frequency SARS</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr"/>
@@ -15549,6 +20030,17 @@
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Number of Weekly Episodes of Urinary Incontinence [Baseline, Week 6] — Change from baseline in the weekly frequency of incontinence episodes at Week 6 after the first treatment. Incontinence is defined as involuntary loss of urine as recorded in a patient bladder diary. A negative number change from baseline indicates a reduction in incontinence episodes (improvement).</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>Change From Baseline in Maximum Cystometric Capacity (MCC) [Baseline, Week 6] — Change from baseline in MCC at Week 6. MCC represents the maximum volume of urine the bladder holds. A positive number change from baseline represents an improvement (increase) in maximum volume of urine the bladder holds.; Change From Baseline in Maximum Detrusor Pressure (MDP) [Baseline, Week 6] — Change from baseline in MDP during the first involuntary detrusor contraction at week 6. MDP represents the maximum pressure (peak amplitude) in the bladder during the first involuntary contraction of the bladder muscle. The greater the negative number change from baseline, the better the improvement.; Change From Baseline in Total Score on Incontinence Quality of Life (I-QOL) Questionnaire [Baseline, Week 6] — Change from baseline in I-QOL questionnaire total score at Week 6, as completed by the patient. The I-QOL is a validated, disease-specific quality of life (QOL) questionnaire containing 22 questions designed to measure impact of urinary incontinence on patients' lives. Each question is answered on a 5-point scale (1 = worst QOL, and 5 = best QOL). The scores are totaled over the 22 questions and normalized to a score of 0-100 (0=worst QOL and 100=best QOL). A positive change from baseline represents an improvement.</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15590,6 +20082,17 @@
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15631,6 +20134,17 @@
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15672,6 +20186,17 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15713,6 +20238,17 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>Change from baseline (week 1) in Maximum Cystometric capacity at post intervention (week 9) and follow up (week 13). [Week 1, 9 and 13] — During standard cystometry (retrograde filling of the bladder), maximum cystometric capacity will be defined as the volume emptied from the bladder after each fill.</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>Maximum detrusor pressure [Week 1, 9 and 13] — Maximum recorded detrusor pressure during standard cystometry (retrograde filling of the bladder).; 3 day bladder diary (3DBD) [Week 1, 2, 5, 9, 10 and 13] — 3DBDs will be completed on clinically used bladder diaries. Participants will record voided volumes, urinary and faecal incontinence episodes and daily spasticity for 3 days. This will involve measuring the volume voided each time they urinate over the three days, using provided measuring equipment.; Incontinence Quality of Life (I-QoL) Questionnaire [Week 1, 5, 10 and 13] — Validated questionnaire to measure incontinence related quality of life. Scoring is 0 to 100 with higher scores representing greater quality of life.; EuroQol 5-Dimension 5-Level (EQ-5D-5L) Questionnaire [Week 1, 5, 10 and 13] — Validated questionnaire to measure general health. . Scoring is 0 to 100 with higher scores representing greater health; The Quebec User Evaluation of Satisfaction with Assistive Technology (QUEST) Questionnaire [Week 10] — Validated questionnaire to measure acceptability of the UCon device. Scoring is 1 to 5 with higher scores representing greater acceptance.; VAS treatment satisfaction [Week 10] — Visual analogue scale to assess treatment satisfaction. Scoring is 0 to 10 with higher scores representing greater satisfaction; Semi structured interview [Week 10] — The research team will conduct a semi-structured interview with the participant to explore further their experience of using DGNS and gain any insights into its use and effects we were unable to obtain from study outcome measures.</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -15754,6 +20290,17 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>Change in maximum cystometric capacity (MCC) from baseline to follow up [Week 1, 8 and 14] — Bladder capacity from Cystometrogram/Urodynamic procedures (ml); Change in maximum detrusor pressure during voiding (MDPvoid) from baseline to follow up [Week 1, 8 and 14] — Voiding detrusor pressure measured from Cystometrogram/Urodynamic procedures (cmH20); Change in bladder voiding efficiency from baseline to follow up [Week 1, 8 and 14] — Bladder voiding efficiency measured from Cystometrogram/Urodynamic procedures, \[\[volume voided/volume voided+post void residual)\*100\] (%)</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>Pelvic Floor Oxford Grading Score [Week 1, 8 and 14] — Measure of pelvic floor muscle strength, graded 0-5; The Neurogenic Bladder Symptom Score (NBSS) [Week 1, 8 and 14] — Validated 24-item questionnaire, three domains: incontinence, storage and voiding, consequences (score 0-28); Neurogenic Bowel Dysfunction Score (NBDS) [Week 1, 8 and 14] — Bowel dysfunction questionnaire, includes questions on bowel symptoms, medication, and incontinence (score 0-47); Arizona Sexual Experiences Scale (ASEX) [Week 1, 8 and 14] — Five-item rating scale measuring sex drive, arousal, vaginal lubrication/penile erection, ability to reach orgasm, and satisfaction from orgasm (Score 3-30); Quality of Life Questionnaire EQ-5D-5L [Week 1, 8 and 14] — Five dimensions: mobility, self-care, usual activities, pain/discomfort, and anxiety/depression. Scoring 1-5 on each dimension, and a VAS scale of overall health 0-100.; The Qualiveen Questionnaire [Week 1, 8 and 14] — 30-item questionnaire, with health-related quality of life questions specific to individuals with neurogenic urinary dysfunction. Total score is mean of eight scores: bother with limitations, fears, feelings, and frequency of limitations.; Electromyography (EMG) of resting tone and maximum voluntary pelvic floor contraction [Week 1, 8 and 14] — Use of vaginal/anal probe to capture resting tone and maximum voluntary pelvic floor contraction (mV)</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -15807,6 +20354,27 @@
         </is>
       </c>
       <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>Change in Maximum Cystometric Capacity (bladder capacity) from baseline (week 1) to post intervention (week 16) and follow up (week 28, week 40) [Week 1, 16, 28 and 40] — During standard cystometry (retrograde filling of the bladder), maximum cystometric capacity will be defined as the volume emptied from the bladder after each fill.</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>Maximum Detrusor Pressure [Week 1, 16, 28 and 40] — Maximum recorded detrusor pressure during standard cystometry (retrograde filling of the bladder).; Rectal and Anal Pressure during Push Manoeuvre [Week 3, 16, 28 and 40] — During standard anorectal physiology, London protocol.; 3 day bladder diary [Week 3, 12, 16, 28 and 40] — Bladder diary will be completed on clinically used bladder diaries. Participants will record voided volumes, urinary incontinence episodes and daily spasticity for 3 days. This will involve measuring the volume voided each time they urinate over the three days, using provided measuring equipment.; Up to 14 day bowel diary [Week 3, 12, 16, 28 and 40] — Bowel diary will be completed on clinically used bowel diaries. Participants will record type of stool and amount, bowel incontience, bowel management e.g laxatives, use of manual evacuation.; Questionnaire - Neurogenic Bladder Symptom Score (NBSS) [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+Scored as 3 subscales - incontinence, score 0-12 (higher score, more severe symptoms), storage and voiding, score 0-9 (higher score, more severe symptoms), and consequences, score 0-7 (higher score, more severe symptoms).; Questionnaire - Urinary Symptom Profile questionnaire [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+Scored as 3 subscales - stress urinary incontinence, score 0-9 (higher score, more severe symptoms), overactive bladder, score 0-21 (higher score, more severe symptoms), and low stream, score 0-9 (higher score, more severe symptoms).; Questionnaire - Neurogenic Bowel Dysfunction Score (NBDS) [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+Total score, from 0-47 (higher score, more severe symptoms). General satisfaction score 0-10, 0=total dissatisfaction, 10=perfect satisfaction.; Questionnaire - EQ-5D-5L Quality of Life questionnaire [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+Scored from 1-5 for each health state (1 indicates no problem, 5 indicates unable to/extreme problems). VAS is scored 0-100 (0 refers to 'the worst health you can imagine', 100 refers to 'the best health you can imagine').; Questionnaire - ISCOS Lower Urinary Tract Dysfunction Dataset (LUTDD) [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+Not a scored questionnaire - obtains information about LUT function.; Questionnaire - The International Index of Erectile Function (IIEF) or The Female Sexual Function Index (FSFI) [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+IIEF:
+Questions scored 0-5 or 1-5, (higher score, more severe symptoms). Total score, minimum 6, maximum 75 (higher score, more severe symptoms).
+FSFI:
+Questions scored 0-5 or 1-5, (higher score, more severe symptoms). Total score, minimum 2, maximum 36 (higher score, more severe symptoms).; Questionnaire - Penn Spasm Frequency Scale [Week 2, 16, 28 and 40] — Participants will be asked to complete the questionnaire in a private room at RNOH Stanmore.
+Frequency score 0-4, (higher score, more severe symptoms). Severity score 1-3, (higher score, more severe symptoms).; The International Standards for Neurological Classification of Spinal Cord Injury (ISNCSCI) [Week 2, 16, 28 and 40] — Sensory and motor examination to determine classification of SCI, level of injury and completeness of the injury.; Colonic Transit Assessment [Week 2, 12 and 40] — A colonic transit study is a test that shows how quickly food passes through the digestive system. Participants will swallow tablets on three consecutive days. On the fourth day, they will have an x-ray.; Microbiome Testing [Week 2, 16 and 40] — Poo sample will be collected by participant, and bacteria present analysed.</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -15848,6 +20416,17 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -15889,6 +20468,17 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -15930,6 +20520,17 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -15971,6 +20572,17 @@
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q validated questionnaires during catheterisation [60 days] — To assess difficulty during catheterisation and quality of life using the ICDQ and ISC-Q</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>To assess patient confidence regarding reduced stickiness plus related risk of urethral injury and resultant bleeding or infection [60 days] — To assess patient confidence regarding reduced stickiness plus related risk of urethral; To assess compliance with the self-catheterization for the study duration [60 days] — To assess compliance with the self-catheterization for the study duration</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16012,6 +20624,17 @@
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>Mean Change From Baseline in Weekly Number of UI Episodes at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The least square (LS) mean of the change in weekly number of UI episodes at 6 weeks after the first study treatment was calculated using a mixed model repeated measures (MMRM) analysis.</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>Percentage of Subjects With No Episodes of UI at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The number of subjects with no UI episodes at 6 weeks after the first study treatment was recorded. Percentage of subjects with no episodes of UI (≥100% Improvement) was calculated as: Total number of subjects with no weekly number of UI episodes at Week 6 / Total number of subjects with any number of UI events at Week 6.; Percentage of Subjects With a UI Response at Improvement Levels ≥30%, ≥50%, and ≥75% at Week 6 of the DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The weekly number of UI episodes was measured using a 7-day bladder diary. Bladder diaries that contained data recorded on at least 5 days were included in the analysis. The percentage of subjects showing an improvement of ≥30%, ≥50% and ≥75% was calculated as: Total number of subjects with UI response level \&gt;=30% or \&gt;=50% or \&gt;=75% improvement at Week 6 / Total number of subjects with any UI response at Week 6.; Median Time Between Treatments [Day of first treatment (baseline) to day of retreatment, up to 2 years] — Duration of effect for time between treatments was calculated by: (the date of the first retreatment visit - date of first treatment administration in the DBPC cycle). The median number of days between treatments was determined and subjects with no retreatment were censored at the last visit.; Mean Change From Baseline in Volume Per Void at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — The volume per void was measured during one 24-hour period of the 7-day bladder diary. The LS mean of the change in volume per void at 6 weeks after the first study treatment was calculated using a MMRM analysis.; Mean Change From Baseline in Maximum Cystometric Capacity (MCC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MCC. The LS mean of the change in MCC at 6 weeks after the first study treatment was calculated using an analysis of covariance (ANCOVA).; Mean Change From Baseline in Maximum Detrusor Pressure (MDP) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the MDP. The LS mean of the change in MDP at 6 weeks after the first study treatment was calculated using an ANCOVA.; Mean Change From Baseline in Volume at First Involuntary Detrusor Contraction (Vol@1stIDC) at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the Vol@1stIDC which is the instilled volume when first IDC commences. Subjects who did not exhibit a post-treatment IDC at Week 6 had Vol@1stIDC imputed using the recorded corrected MCC volume at Week 6. The LS mean of the change in Vol@1stIDC at 6 weeks after the first study treatment was calculated using an ANCOVA.; Percentage of Subjects With No Involuntary Detrusor Contraction (IDCs) During Storage at Week 6 of DBPC Cycle [Baseline and Week 6 of DBPC Cycle] — Subjects included in the urodynamic subset (84.9% of randomised subjects) had a standardised urodynamic filling cystometry assessment at baseline (Screening) and again at Week 6 to determine the occurrence of IDCs. The percentage of subjects without IDCs at 6 weeks after the first study treatment was recorded.</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/eu_bladder_sites_from_ctgov.xlsx
+++ b/data/eu_bladder_sites_from_ctgov.xlsx
@@ -18395,18 +18395,10 @@
           <t>NCT05968352</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>RECRUITING</t>
-        </is>
-      </c>
+      <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>CONTACT: Alexander L Green, PhD; CONTACT: Alex Fung, MB BS</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>

--- a/data/eu_bladder_sites_from_ctgov.xlsx
+++ b/data/eu_bladder_sites_from_ctgov.xlsx
@@ -14652,7 +14652,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transcutaneous Tibial Nerve Stimulation in Patients with Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: a Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
+          <t>Transcutaneous Tibial Nerve Stimulation in Patients With Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: A Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -14677,7 +14677,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>CONTACT: Sandra Möhr, pract. med.; CONTACT: Sandra Möhr, pract. med.</t>
+          <t>CONTACT: Sandra Möhr, pract. med.; PRINCIPAL_INVESTIGATOR: Sandra Möhr, pract. med.</t>
         </is>
       </c>
       <c r="K273" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transcutaneous Tibial Nerve Stimulation in Patients with Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: a Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
+          <t>Transcutaneous Tibial Nerve Stimulation in Patients With Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: A Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -15755,7 +15755,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>CONTACT: Jürgen Pannek, Prof. Dr. med.; CONTACT: Jürgen Pannek, Prof. Dr. med.</t>
+          <t>CONTACT: Jürgen Pannek, Prof. Dr. med.; PRINCIPAL_INVESTIGATOR: Jürgen Pannek, Prof. Dr. med.</t>
         </is>
       </c>
       <c r="K292" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transcutaneous Tibial Nerve Stimulation in Patients with Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: a Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
+          <t>Transcutaneous Tibial Nerve Stimulation in Patients With Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: A Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>CONTACT: Xavier Jordan, Dr. med.; CONTACT: Xavier Jordan, Dr. med.</t>
+          <t>CONTACT: Xavier Jordan, Dr. med.; PRINCIPAL_INVESTIGATOR: Xavier Jordan, Dr. med.</t>
         </is>
       </c>
       <c r="K297" t="inlineStr"/>
@@ -16330,7 +16330,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transcutaneous Tibial Nerve Stimulation in Patients with Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: a Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
+          <t>Transcutaneous Tibial Nerve Stimulation in Patients With Acute Spinal Cord Injury to Prevent Neurogenic Detrusor Overactivity: A Nationwide Randomised, Sham-controlled, Double-blind Clinical Trial</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -16355,7 +16355,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>CONTACT: Thomas M Kessler, Prof. Dr. med.; CONTACT: Thomas M Kessler, Prof. Dr. med.</t>
+          <t>CONTACT: Thomas M Kessler, Prof. Dr. med.; PRINCIPAL_INVESTIGATOR: Thomas M Kessler, Prof. Dr. med.</t>
         </is>
       </c>
       <c r="K302" t="inlineStr"/>

--- a/data/eu_bladder_sites_from_ctgov.xlsx
+++ b/data/eu_bladder_sites_from_ctgov.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,72 +422,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Hospital/Center</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Condition(s)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Study Title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>NCT ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Location Status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Overall Officials</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Central Contacts</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Site Contacts</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Site Investigator(s)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Primary Outcome(s)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Secondary Outcome(s)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Other Outcome(s)</t>
         </is>

--- a/data/eu_bladder_sites_from_ctgov.xlsx
+++ b/data/eu_bladder_sites_from_ctgov.xlsx
@@ -2917,7 +2917,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>PRINCIPAL_INVESTIGATOR: Sigrid G Tibaek, MSc., Pt (Copenhagen University Hospital, Glostrup)</t>
+          <t>PRINCIPAL_INVESTIGATOR: Sigrid G Tibaek, MSc., Pt (Glostrup University Hospital, Copenhagen)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
